--- a/metalDB.xlsx
+++ b/metalDB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Programming\HollowSecCalculator\v0.6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Programming\HollowSecCalculator\v0.6\calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F542CA-F759-4672-A465-13C2F14AC127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB3AE20-9129-43BF-822A-EE3F2557E5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10210" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="C10210" sheetId="3" r:id="rId3"/>
     <sheet name="C10219" sheetId="4" r:id="rId4"/>
     <sheet name="IPE" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="PFC" sheetId="8" r:id="rId6"/>
     <sheet name="10305-5" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="93">
   <si>
     <t>H</t>
   </si>
@@ -68,198 +68,6 @@
   </si>
   <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>IPE A 270</t>
-  </si>
-  <si>
-    <t>IPE 270</t>
-  </si>
-  <si>
-    <t>IPE O 270</t>
-  </si>
-  <si>
-    <t>IPE A 300</t>
-  </si>
-  <si>
-    <t>IPE 300</t>
-  </si>
-  <si>
-    <t>IPE O 300</t>
-  </si>
-  <si>
-    <t>IPE A 330</t>
-  </si>
-  <si>
-    <t>IPE 330</t>
-  </si>
-  <si>
-    <t>IPE O 330</t>
-  </si>
-  <si>
-    <t>IPE A 360</t>
-  </si>
-  <si>
-    <t>IPE 360</t>
-  </si>
-  <si>
-    <t>IPE O 360</t>
-  </si>
-  <si>
-    <t>IPE A 400</t>
-  </si>
-  <si>
-    <t>IPE 400</t>
-  </si>
-  <si>
-    <t>IPE O 400</t>
-  </si>
-  <si>
-    <t>IPE V 400</t>
-  </si>
-  <si>
-    <t>IPE A 450</t>
-  </si>
-  <si>
-    <t>IPE 450</t>
-  </si>
-  <si>
-    <t>IPE O 450</t>
-  </si>
-  <si>
-    <t>IPE V 450</t>
-  </si>
-  <si>
-    <t>IPE A 500</t>
-  </si>
-  <si>
-    <t>IPE 500</t>
-  </si>
-  <si>
-    <t>IPE O 500</t>
-  </si>
-  <si>
-    <t>IPE V 500</t>
-  </si>
-  <si>
-    <t>IPE A 550</t>
-  </si>
-  <si>
-    <t>IPE 550</t>
-  </si>
-  <si>
-    <t>IPE O 550</t>
-  </si>
-  <si>
-    <t>IPE V 550</t>
-  </si>
-  <si>
-    <t>IPE A 600</t>
-  </si>
-  <si>
-    <t>IPE 600</t>
-  </si>
-  <si>
-    <t>IPE O 600</t>
-  </si>
-  <si>
-    <t>IPE V 600</t>
-  </si>
-  <si>
-    <t>IPE AA 100</t>
-  </si>
-  <si>
-    <t>IPE A 100</t>
-  </si>
-  <si>
-    <t>IPE 100</t>
-  </si>
-  <si>
-    <t>IPE AA 120</t>
-  </si>
-  <si>
-    <t>IPE A 120</t>
-  </si>
-  <si>
-    <t>IPE 120</t>
-  </si>
-  <si>
-    <t>IPE AA 140</t>
-  </si>
-  <si>
-    <t>IPE A 140</t>
-  </si>
-  <si>
-    <t>IPE 140</t>
-  </si>
-  <si>
-    <t>IPE AA 160</t>
-  </si>
-  <si>
-    <t>IPE A 160</t>
-  </si>
-  <si>
-    <t>IPE 160</t>
-  </si>
-  <si>
-    <t>IPE AA 180</t>
-  </si>
-  <si>
-    <t>IPE A 180</t>
-  </si>
-  <si>
-    <t>IPE 180</t>
-  </si>
-  <si>
-    <t>IPE O 180</t>
-  </si>
-  <si>
-    <t>IPE AA 200</t>
-  </si>
-  <si>
-    <t>IPE A 200</t>
-  </si>
-  <si>
-    <t>IPE 200</t>
-  </si>
-  <si>
-    <t>IPE O 200</t>
-  </si>
-  <si>
-    <t>IPE AA 220</t>
-  </si>
-  <si>
-    <t>IPE A 220</t>
-  </si>
-  <si>
-    <t>IPE 220</t>
-  </si>
-  <si>
-    <t>IPE O 220</t>
-  </si>
-  <si>
-    <t>IPE AA 240</t>
-  </si>
-  <si>
-    <t>IPE A 240</t>
-  </si>
-  <si>
-    <t>IPE 240</t>
-  </si>
-  <si>
-    <t>IPE O 240</t>
-  </si>
-  <si>
-    <t>IPE 750 × 134</t>
-  </si>
-  <si>
-    <t>IPE 750 × 147</t>
-  </si>
-  <si>
-    <t>IPE 750 × 173</t>
-  </si>
-  <si>
-    <t>IPE 750 × 196</t>
   </si>
   <si>
     <t>IPE80</t>
@@ -462,6 +270,54 @@
   <si>
     <t>IPE750×196</t>
   </si>
+  <si>
+    <t>PFC100x50x10</t>
+  </si>
+  <si>
+    <t>PFC125x65x15</t>
+  </si>
+  <si>
+    <t>PFC150x75x18</t>
+  </si>
+  <si>
+    <t>PFC150x90x24</t>
+  </si>
+  <si>
+    <t>PFC180x75x20</t>
+  </si>
+  <si>
+    <t>PFC180x90x26</t>
+  </si>
+  <si>
+    <t>PFC200x75x23</t>
+  </si>
+  <si>
+    <t>PFC200x90x30</t>
+  </si>
+  <si>
+    <t>PFC230x75x26</t>
+  </si>
+  <si>
+    <t>PFC230x90x32</t>
+  </si>
+  <si>
+    <t>PFC260x75x28</t>
+  </si>
+  <si>
+    <t>PFC260x90x35</t>
+  </si>
+  <si>
+    <t>PFC300x90x41</t>
+  </si>
+  <si>
+    <t>PFC300x100x46</t>
+  </si>
+  <si>
+    <t>PFC380x100x54</t>
+  </si>
+  <si>
+    <t>PFC430x100x64</t>
+  </si>
 </sst>
 </file>
 
@@ -507,7 +363,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -532,8 +388,14 @@
         <bgColor theme="5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor theme="6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -648,11 +510,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -697,11 +594,36 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="26">
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="5" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -728,16 +650,44 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="5" tint="0.39997558519241921"/>
+        <bottom style="thick">
+          <color theme="0"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="5" tint="0.39997558519241921"/>
-        </top>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="6"/>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1210,20 +1160,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1119B685-EE38-4744-A3F2-0277FCA23CC4}" name="Table2" displayName="Table2" ref="A1:D307" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1119B685-EE38-4744-A3F2-0277FCA23CC4}" name="Table2" displayName="Table2" ref="A1:D307" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22">
   <autoFilter ref="A1:D307" xr:uid="{1119B685-EE38-4744-A3F2-0277FCA23CC4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E4A9920B-2FCD-44F7-9CBA-867F2DB3A3BA}" name="W" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{7DEE8CD5-8A76-4B4F-8471-E37764F3169B}" name="H" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{483FC679-6CBC-4E54-ACE4-41DB7B408393}" name="T" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{243B8433-1B25-42C0-ABDB-B4660E1A86EF}" name="M" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{E4A9920B-2FCD-44F7-9CBA-867F2DB3A3BA}" name="W" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{7DEE8CD5-8A76-4B4F-8471-E37764F3169B}" name="H" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{483FC679-6CBC-4E54-ACE4-41DB7B408393}" name="T" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{243B8433-1B25-42C0-ABDB-B4660E1A86EF}" name="M" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C7D6F2B6-6C09-444A-A499-06987128E30B}" name="Table3" displayName="Table3" ref="A1:C216" totalsRowShown="0" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C7D6F2B6-6C09-444A-A499-06987128E30B}" name="Table3" displayName="Table3" ref="A1:C216" totalsRowShown="0" headerRowDxfId="17">
   <autoFilter ref="A1:C216" xr:uid="{C7D6F2B6-6C09-444A-A499-06987128E30B}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{23A866F8-81ED-4488-838F-2372534EFBFD}" name="W"/>
@@ -1235,7 +1185,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{50C9BC12-D9D9-47CA-935D-7B3E4E6EC964}" name="Table4" displayName="Table4" ref="A1:C222" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{50C9BC12-D9D9-47CA-935D-7B3E4E6EC964}" name="Table4" displayName="Table4" ref="A1:C222" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14">
   <autoFilter ref="A1:C222" xr:uid="{50C9BC12-D9D9-47CA-935D-7B3E4E6EC964}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{38A2F959-DC6B-4CDB-A3B8-602F02FF11C9}" name="W"/>
@@ -1247,23 +1197,39 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AD3C9691-9AEF-4707-9D5E-E2D3ACC3BC1F}" name="Table5" displayName="Table5" ref="A1:G68" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AD3C9691-9AEF-4707-9D5E-E2D3ACC3BC1F}" name="Table5" displayName="Table5" ref="A1:G68" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:G68" xr:uid="{AD3C9691-9AEF-4707-9D5E-E2D3ACC3BC1F}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{BF3CAACB-3E93-4E16-A7D5-7D0B99658E31}" name="N" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{F86046F2-E9E2-4B0A-838B-CBB0ACA5FE8F}" name="M" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{2D30C7D1-0358-4A45-B90C-374E33A4C9C8}" name="h" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{E6FD9FB2-C587-4BC0-A06E-752BE42C388E}" name="b" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{2AAD7EDF-F68E-425D-84E4-7F3A35E2672D}" name="s" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{7900BF1B-9DAF-4F1D-94E3-121948A6CE62}" name="t" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{E27AA0CC-F5C5-4FFF-9420-D4774C17607E}" name="A" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{BF3CAACB-3E93-4E16-A7D5-7D0B99658E31}" name="N" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{F86046F2-E9E2-4B0A-838B-CBB0ACA5FE8F}" name="M" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{2D30C7D1-0358-4A45-B90C-374E33A4C9C8}" name="h" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{E6FD9FB2-C587-4BC0-A06E-752BE42C388E}" name="b" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{2AAD7EDF-F68E-425D-84E4-7F3A35E2672D}" name="s" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{7900BF1B-9DAF-4F1D-94E3-121948A6CE62}" name="t" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{E27AA0CC-F5C5-4FFF-9420-D4774C17607E}" name="A" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{38506F01-E960-459C-927A-1C1572B9A216}" name="Table6" displayName="Table6" ref="A1:D190" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{49FDFE3A-F7C7-4F7B-BBA8-9E5575EB46B7}" name="Table7" displayName="Table7" ref="A1:G1048576" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3">
+  <autoFilter ref="A1:G1048576" xr:uid="{49FDFE3A-F7C7-4F7B-BBA8-9E5575EB46B7}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{EE7EE8CC-215B-4A53-B3E3-9AE13EA92FB5}" name="N"/>
+    <tableColumn id="2" xr3:uid="{F8171922-4F4B-4FDA-BA30-91329F6170FC}" name="M"/>
+    <tableColumn id="3" xr3:uid="{0414D692-6E3B-4B32-8AAE-B247C0712B61}" name="h"/>
+    <tableColumn id="4" xr3:uid="{F1CAD7C4-502E-4DFB-85C3-8E5AB40FE56D}" name="b"/>
+    <tableColumn id="5" xr3:uid="{B0E6ACC0-E3A5-4588-8A0B-368EE914C232}" name="s"/>
+    <tableColumn id="6" xr3:uid="{298E6EC4-9677-4AD2-8C10-1DCE293C32D7}" name="t"/>
+    <tableColumn id="7" xr3:uid="{BB34FE67-CA14-4092-89FA-EC30B68896F2}" name="A"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{38506F01-E960-459C-927A-1C1572B9A216}" name="Table6" displayName="Table6" ref="A1:D190" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:D190" xr:uid="{38506F01-E960-459C-927A-1C1572B9A216}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{841719B2-8EB9-440E-B847-9BA84F5357D5}" name="W"/>
@@ -13784,7 +13750,7 @@
   <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13818,7 +13784,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="B2" s="7">
         <v>6</v>
@@ -13841,7 +13807,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="B3" s="10">
         <v>5</v>
@@ -13864,7 +13830,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="B4" s="7">
         <v>4.9000000000000004</v>
@@ -13887,7 +13853,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="B5" s="10">
         <v>8.1</v>
@@ -13910,7 +13876,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="B6" s="7">
         <v>6.9</v>
@@ -13933,7 +13899,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="B7" s="10">
         <v>6.7</v>
@@ -13956,7 +13922,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="B8" s="7">
         <v>10.4</v>
@@ -13979,7 +13945,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="B9" s="10">
         <v>8.6999999999999993</v>
@@ -14002,7 +13968,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="B10" s="7">
         <v>8.4</v>
@@ -14025,7 +13991,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="B11" s="10">
         <v>12.9</v>
@@ -14048,7 +14014,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="B12" s="7">
         <v>10.5</v>
@@ -14071,7 +14037,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="B13" s="10">
         <v>10.1</v>
@@ -14094,7 +14060,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="B14" s="7">
         <v>15.8</v>
@@ -14117,7 +14083,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="B15" s="10">
         <v>12.7</v>
@@ -14140,7 +14106,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="B16" s="7">
         <v>12.3</v>
@@ -14163,7 +14129,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="B17" s="10">
         <v>18.8</v>
@@ -14186,7 +14152,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="B18" s="7">
         <v>15.4</v>
@@ -14209,7 +14175,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="B19" s="10">
         <v>14.9</v>
@@ -14232,7 +14198,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="B20" s="7">
         <v>21.3</v>
@@ -14255,7 +14221,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="B21" s="10">
         <v>22.4</v>
@@ -14278,7 +14244,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="B22" s="7">
         <v>18.399999999999999</v>
@@ -14301,7 +14267,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="B23" s="10">
         <v>18</v>
@@ -14324,7 +14290,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="B24" s="7">
         <v>25.1</v>
@@ -14347,7 +14313,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="B25" s="10">
         <v>26.2</v>
@@ -14370,7 +14336,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="B26" s="7">
         <v>22.2</v>
@@ -14393,7 +14359,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="B27" s="10">
         <v>21.2</v>
@@ -14416,7 +14382,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="B28" s="7">
         <v>29.4</v>
@@ -14439,7 +14405,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="B29" s="10">
         <v>30.7</v>
@@ -14462,7 +14428,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="B30" s="7">
         <v>26.2</v>
@@ -14485,7 +14451,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="B31" s="10">
         <v>24.9</v>
@@ -14508,7 +14474,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="B32" s="7">
         <v>34.299999999999997</v>
@@ -14531,7 +14497,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="B33" s="7">
         <v>36.1</v>
@@ -14554,7 +14520,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="B34" s="10">
         <v>30.7</v>
@@ -14577,7 +14543,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="B35" s="10">
         <v>42.3</v>
@@ -14600,7 +14566,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="B36" s="10">
         <v>42.2</v>
@@ -14623,7 +14589,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>109</v>
+        <v>45</v>
       </c>
       <c r="B37" s="7">
         <v>36.5</v>
@@ -14646,7 +14612,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
-        <v>110</v>
+        <v>46</v>
       </c>
       <c r="B38" s="7">
         <v>49.3</v>
@@ -14669,7 +14635,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
-        <v>111</v>
+        <v>47</v>
       </c>
       <c r="B39" s="7">
         <v>49.1</v>
@@ -14692,7 +14658,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>112</v>
+        <v>48</v>
       </c>
       <c r="B40" s="10">
         <v>43</v>
@@ -14715,7 +14681,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="B41" s="10">
         <v>57</v>
@@ -14738,7 +14704,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="B42" s="10">
         <v>57.1</v>
@@ -14761,7 +14727,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="B43" s="7">
         <v>50.2</v>
@@ -14784,7 +14750,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="B44" s="7">
         <v>66</v>
@@ -14807,7 +14773,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="B45" s="7">
         <v>66.3</v>
@@ -14830,7 +14796,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="B46" s="10">
         <v>57.4</v>
@@ -14853,7 +14819,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="B47" s="10">
         <v>75.7</v>
@@ -14876,7 +14842,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="B48" s="7">
         <v>84</v>
@@ -14899,7 +14865,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="B49" s="7">
         <v>77.599999999999994</v>
@@ -14922,7 +14888,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="B50" s="10">
         <v>67.2</v>
@@ -14945,7 +14911,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="B51" s="10">
         <v>92.4</v>
@@ -14968,7 +14934,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c r="B52" s="7">
         <v>107</v>
@@ -14991,7 +14957,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
-        <v>125</v>
+        <v>61</v>
       </c>
       <c r="B53" s="7">
         <v>90.7</v>
@@ -15014,7 +14980,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="B54" s="10">
         <v>79.400000000000006</v>
@@ -15037,7 +15003,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="B55" s="10">
         <v>107</v>
@@ -15060,7 +15026,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="B56" s="7">
         <v>129</v>
@@ -15083,7 +15049,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
-        <v>129</v>
+        <v>65</v>
       </c>
       <c r="B57" s="7">
         <v>106</v>
@@ -15106,7 +15072,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="B58" s="10">
         <v>92.1</v>
@@ -15129,7 +15095,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>131</v>
+        <v>67</v>
       </c>
       <c r="B59" s="10">
         <v>123</v>
@@ -15152,7 +15118,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
       <c r="B60" s="7">
         <v>159</v>
@@ -15175,7 +15141,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
-        <v>133</v>
+        <v>69</v>
       </c>
       <c r="B61" s="7">
         <v>122</v>
@@ -15198,7 +15164,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="B62" s="10">
         <v>108</v>
@@ -15221,7 +15187,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="B63" s="10">
         <v>154</v>
@@ -15244,7 +15210,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="B64" s="7">
         <v>184</v>
@@ -15267,7 +15233,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="B65" s="10">
         <v>134</v>
@@ -15290,7 +15256,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="B66" s="7">
         <v>147</v>
@@ -15313,7 +15279,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="B67" s="10">
         <v>173</v>
@@ -15336,7 +15302,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="B68" s="17">
         <v>196</v>
@@ -15367,553 +15333,431 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96F940F-3102-4C43-94E0-A4DED84B0A87}">
-  <dimension ref="A2:D68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CBE72D3-39D3-4CEA-AF82-F34605FD2C25}">
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C2" s="26">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>8.5</v>
+      </c>
+      <c r="G2">
+        <v>13</v>
+      </c>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3">
+        <v>14.8</v>
+      </c>
+      <c r="C3" s="26">
+        <v>125</v>
+      </c>
+      <c r="D3">
+        <v>65</v>
+      </c>
+      <c r="E3">
+        <v>5.5</v>
+      </c>
+      <c r="F3">
+        <v>9.5</v>
+      </c>
+      <c r="G3">
+        <v>18.8</v>
+      </c>
+      <c r="J3" s="25"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="C4" s="26">
+        <v>150</v>
+      </c>
+      <c r="D4">
         <v>75</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E4">
+        <v>5.5</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>22.8</v>
+      </c>
+      <c r="J4" s="25"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5">
+        <v>23.9</v>
+      </c>
+      <c r="C5" s="26">
+        <v>150</v>
+      </c>
+      <c r="D5">
+        <v>90</v>
+      </c>
+      <c r="E5">
+        <v>6.5</v>
+      </c>
+      <c r="F5">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>30.4</v>
+      </c>
+      <c r="J5" s="25"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6">
+        <v>20.3</v>
+      </c>
+      <c r="C6" s="26">
+        <v>180</v>
+      </c>
+      <c r="D6">
         <v>75</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>10.5</v>
+      </c>
+      <c r="G6">
+        <v>25.9</v>
+      </c>
+      <c r="J6" s="25"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B7">
+        <v>26.1</v>
+      </c>
+      <c r="C7" s="26">
+        <v>180</v>
+      </c>
+      <c r="D7">
+        <v>90</v>
+      </c>
+      <c r="E7">
+        <v>6.5</v>
+      </c>
+      <c r="F7">
+        <v>12.5</v>
+      </c>
+      <c r="G7">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="J7" s="25"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="B8">
+        <v>23.4</v>
+      </c>
+      <c r="C8" s="26">
+        <v>200</v>
+      </c>
+      <c r="D8">
+        <v>75</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>12.5</v>
+      </c>
+      <c r="G8">
+        <v>29.9</v>
+      </c>
+      <c r="J8" s="25"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B9">
+        <v>29.7</v>
+      </c>
+      <c r="C9" s="26">
+        <v>200</v>
+      </c>
+      <c r="D9">
+        <v>90</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>14</v>
+      </c>
+      <c r="G9">
+        <v>37.9</v>
+      </c>
+      <c r="J9" s="25"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="B10">
+        <v>25.7</v>
+      </c>
+      <c r="C10" s="26">
+        <v>230</v>
+      </c>
+      <c r="D10">
+        <v>75</v>
+      </c>
+      <c r="E10">
+        <v>6.5</v>
+      </c>
+      <c r="F10">
+        <v>12.5</v>
+      </c>
+      <c r="G10">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="J10" s="25"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="B11">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="C11" s="26">
+        <v>230</v>
+      </c>
+      <c r="D11">
+        <v>90</v>
+      </c>
+      <c r="E11">
+        <v>7.5</v>
+      </c>
+      <c r="F11">
+        <v>14</v>
+      </c>
+      <c r="G11">
+        <v>41</v>
+      </c>
+      <c r="J11" s="25"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B12">
+        <v>27.6</v>
+      </c>
+      <c r="C12" s="26">
+        <v>260</v>
+      </c>
+      <c r="D12">
+        <v>75</v>
+      </c>
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+      <c r="G12">
+        <v>35.1</v>
+      </c>
+      <c r="J12" s="25"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="B13">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="C13" s="26">
+        <v>260</v>
+      </c>
+      <c r="D13">
+        <v>90</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>14</v>
+      </c>
+      <c r="G13">
+        <v>44.4</v>
+      </c>
+      <c r="J13" s="25"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="B14">
+        <v>41.4</v>
+      </c>
+      <c r="C14" s="26">
+        <v>300</v>
+      </c>
+      <c r="D14">
         <v>90</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>15.5</v>
+      </c>
+      <c r="G14">
+        <v>52.7</v>
+      </c>
+      <c r="J14" s="25"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15">
+        <v>45.5</v>
+      </c>
+      <c r="C15" s="26">
+        <v>300</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="E15">
+        <v>9</v>
+      </c>
+      <c r="F15">
+        <v>16.5</v>
+      </c>
+      <c r="G15">
+        <v>58</v>
+      </c>
+      <c r="J15" s="25"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16">
         <v>54</v>
       </c>
-      <c r="D19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C16" s="26">
+        <v>380</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="E16">
+        <v>9.5</v>
+      </c>
+      <c r="F16">
+        <v>17.5</v>
+      </c>
+      <c r="G16">
+        <v>68.7</v>
+      </c>
+      <c r="J16" s="25"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="B17">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="C17" s="26">
+        <v>430</v>
+      </c>
+      <c r="D17">
         <v>100</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+      <c r="E17">
         <v>11</v>
       </c>
-      <c r="D33" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D42" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
+      <c r="F17">
         <v>19</v>
       </c>
-      <c r="D43" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D44" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D45" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D47" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D48" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D49" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D50" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D51" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D52" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D53" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D55" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D56" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D57" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D58" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D59" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D60" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D61" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D62" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D63" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D64" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D65" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D66" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D67" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D68" t="s">
-        <v>140</v>
-      </c>
+      <c r="G17">
+        <v>82.1</v>
+      </c>
+      <c r="J17" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -15921,8 +15765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B201D9F-8949-476C-A805-3015DB7316D7}">
   <dimension ref="A1:D190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F192" sqref="F192"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/metalDB.xlsx
+++ b/metalDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Programming\HollowSecCalculator\v0.6\calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB3AE20-9129-43BF-822A-EE3F2557E5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989B43BA-A384-4B4C-BC78-110F363C5254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,8 +18,9 @@
     <sheet name="C10210" sheetId="3" r:id="rId3"/>
     <sheet name="C10219" sheetId="4" r:id="rId4"/>
     <sheet name="IPE" sheetId="5" r:id="rId5"/>
-    <sheet name="PFC" sheetId="8" r:id="rId6"/>
-    <sheet name="10305-5" sheetId="7" r:id="rId7"/>
+    <sheet name="IPN" sheetId="9" r:id="rId6"/>
+    <sheet name="PFC" sheetId="8" r:id="rId7"/>
+    <sheet name="10305-5" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="114">
   <si>
     <t>H</t>
   </si>
@@ -318,6 +319,69 @@
   <si>
     <t>PFC430x100x64</t>
   </si>
+  <si>
+    <t>IPN80</t>
+  </si>
+  <si>
+    <t>IPN100</t>
+  </si>
+  <si>
+    <t>IPN120</t>
+  </si>
+  <si>
+    <t>IPN140</t>
+  </si>
+  <si>
+    <t>IPN160</t>
+  </si>
+  <si>
+    <t>IPN180</t>
+  </si>
+  <si>
+    <t>IPN200</t>
+  </si>
+  <si>
+    <t>IPN220</t>
+  </si>
+  <si>
+    <t>IPN240</t>
+  </si>
+  <si>
+    <t>IPN260</t>
+  </si>
+  <si>
+    <t>IPN280</t>
+  </si>
+  <si>
+    <t>IPN300</t>
+  </si>
+  <si>
+    <t>IPN320</t>
+  </si>
+  <si>
+    <t>IPN340</t>
+  </si>
+  <si>
+    <t>IPN360</t>
+  </si>
+  <si>
+    <t>IPN380</t>
+  </si>
+  <si>
+    <t>IPN400</t>
+  </si>
+  <si>
+    <t>IPN450</t>
+  </si>
+  <si>
+    <t>IPN500</t>
+  </si>
+  <si>
+    <t>IPN550</t>
+  </si>
+  <si>
+    <t>IPN600</t>
+  </si>
 </sst>
 </file>
 
@@ -549,7 +613,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -605,11 +669,20 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="28">
     <dxf>
       <border outline="0">
         <top style="thin">
@@ -676,6 +749,48 @@
         <patternFill patternType="solid">
           <fgColor theme="6"/>
           <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1160,20 +1275,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1119B685-EE38-4744-A3F2-0277FCA23CC4}" name="Table2" displayName="Table2" ref="A1:D307" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1119B685-EE38-4744-A3F2-0277FCA23CC4}" name="Table2" displayName="Table2" ref="A1:D307" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24">
   <autoFilter ref="A1:D307" xr:uid="{1119B685-EE38-4744-A3F2-0277FCA23CC4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E4A9920B-2FCD-44F7-9CBA-867F2DB3A3BA}" name="W" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{7DEE8CD5-8A76-4B4F-8471-E37764F3169B}" name="H" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{483FC679-6CBC-4E54-ACE4-41DB7B408393}" name="T" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{243B8433-1B25-42C0-ABDB-B4660E1A86EF}" name="M" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{E4A9920B-2FCD-44F7-9CBA-867F2DB3A3BA}" name="W" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{7DEE8CD5-8A76-4B4F-8471-E37764F3169B}" name="H" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{483FC679-6CBC-4E54-ACE4-41DB7B408393}" name="T" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{243B8433-1B25-42C0-ABDB-B4660E1A86EF}" name="M" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C7D6F2B6-6C09-444A-A499-06987128E30B}" name="Table3" displayName="Table3" ref="A1:C216" totalsRowShown="0" headerRowDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C7D6F2B6-6C09-444A-A499-06987128E30B}" name="Table3" displayName="Table3" ref="A1:C216" totalsRowShown="0" headerRowDxfId="19">
   <autoFilter ref="A1:C216" xr:uid="{C7D6F2B6-6C09-444A-A499-06987128E30B}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{23A866F8-81ED-4488-838F-2372534EFBFD}" name="W"/>
@@ -1185,7 +1300,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{50C9BC12-D9D9-47CA-935D-7B3E4E6EC964}" name="Table4" displayName="Table4" ref="A1:C222" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{50C9BC12-D9D9-47CA-935D-7B3E4E6EC964}" name="Table4" displayName="Table4" ref="A1:C222" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
   <autoFilter ref="A1:C222" xr:uid="{50C9BC12-D9D9-47CA-935D-7B3E4E6EC964}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{38A2F959-DC6B-4CDB-A3B8-602F02FF11C9}" name="W"/>
@@ -1197,22 +1312,38 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AD3C9691-9AEF-4707-9D5E-E2D3ACC3BC1F}" name="Table5" displayName="Table5" ref="A1:G68" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AD3C9691-9AEF-4707-9D5E-E2D3ACC3BC1F}" name="Table5" displayName="Table5" ref="A1:G68" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:G68" xr:uid="{AD3C9691-9AEF-4707-9D5E-E2D3ACC3BC1F}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{BF3CAACB-3E93-4E16-A7D5-7D0B99658E31}" name="N" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{F86046F2-E9E2-4B0A-838B-CBB0ACA5FE8F}" name="M" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{2D30C7D1-0358-4A45-B90C-374E33A4C9C8}" name="h" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{E6FD9FB2-C587-4BC0-A06E-752BE42C388E}" name="b" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{2AAD7EDF-F68E-425D-84E4-7F3A35E2672D}" name="s" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{7900BF1B-9DAF-4F1D-94E3-121948A6CE62}" name="t" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{E27AA0CC-F5C5-4FFF-9420-D4774C17607E}" name="A" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{BF3CAACB-3E93-4E16-A7D5-7D0B99658E31}" name="N" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{F86046F2-E9E2-4B0A-838B-CBB0ACA5FE8F}" name="M" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{2D30C7D1-0358-4A45-B90C-374E33A4C9C8}" name="h" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{E6FD9FB2-C587-4BC0-A06E-752BE42C388E}" name="b" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{2AAD7EDF-F68E-425D-84E4-7F3A35E2672D}" name="s" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{7900BF1B-9DAF-4F1D-94E3-121948A6CE62}" name="t" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{E27AA0CC-F5C5-4FFF-9420-D4774C17607E}" name="A" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F452C68D-D48E-42EB-AED0-5FA065F4CC54}" name="Table8" displayName="Table8" ref="A1:G22" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5">
+  <autoFilter ref="A1:G22" xr:uid="{F452C68D-D48E-42EB-AED0-5FA065F4CC54}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{7FFC648A-1EA6-41A9-9A18-4B870785C06C}" name="N"/>
+    <tableColumn id="2" xr3:uid="{46534182-6E9B-4201-A777-263687055D25}" name="M"/>
+    <tableColumn id="3" xr3:uid="{BF649784-CA24-45D0-949A-8E5A146996B4}" name="h"/>
+    <tableColumn id="4" xr3:uid="{D822E676-44AA-4AE6-8B1A-0FC72270BCC2}" name="b"/>
+    <tableColumn id="5" xr3:uid="{5CA8C038-2D8D-4A57-A01B-0D8B1E541AE9}" name="s"/>
+    <tableColumn id="6" xr3:uid="{ABD90D40-1AD3-490E-82A8-00D8274F5633}" name="t"/>
+    <tableColumn id="7" xr3:uid="{9CE9DFEE-D4CA-4340-BFD7-564525D55EB4}" name="A"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{49FDFE3A-F7C7-4F7B-BBA8-9E5575EB46B7}" name="Table7" displayName="Table7" ref="A1:G1048576" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3">
   <autoFilter ref="A1:G1048576" xr:uid="{49FDFE3A-F7C7-4F7B-BBA8-9E5575EB46B7}"/>
   <tableColumns count="7">
@@ -1228,7 +1359,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{38506F01-E960-459C-927A-1C1572B9A216}" name="Table6" displayName="Table6" ref="A1:D190" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:D190" xr:uid="{38506F01-E960-459C-927A-1C1572B9A216}"/>
   <tableColumns count="4">
@@ -13750,7 +13881,7 @@
   <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15333,10 +15464,622 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB30A80-E1ED-42B5-BAFC-A27B7E1F5B3E}">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="6" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2">
+        <v>5.9</v>
+      </c>
+      <c r="C2">
+        <v>80</v>
+      </c>
+      <c r="D2">
+        <v>42</v>
+      </c>
+      <c r="E2">
+        <v>3.9</v>
+      </c>
+      <c r="F2">
+        <v>5.9</v>
+      </c>
+      <c r="G2">
+        <v>7.6</v>
+      </c>
+      <c r="I2" t="str">
+        <f>SUBSTITUTE(Table8[[#This Row],[N]]," ","")</f>
+        <v>IPN80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>4.5</v>
+      </c>
+      <c r="F3">
+        <v>6.8</v>
+      </c>
+      <c r="G3">
+        <v>10.6</v>
+      </c>
+      <c r="I3" t="str">
+        <f>SUBSTITUTE(Table8[[#This Row],[N]]," ","")</f>
+        <v>IPN100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4">
+        <v>11.1</v>
+      </c>
+      <c r="C4">
+        <v>120</v>
+      </c>
+      <c r="D4">
+        <v>58</v>
+      </c>
+      <c r="E4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F4">
+        <v>7.7</v>
+      </c>
+      <c r="G4">
+        <v>14.2</v>
+      </c>
+      <c r="I4" t="str">
+        <f>SUBSTITUTE(Table8[[#This Row],[N]]," ","")</f>
+        <v>IPN120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5">
+        <v>14.3</v>
+      </c>
+      <c r="C5">
+        <v>140</v>
+      </c>
+      <c r="D5">
+        <v>66</v>
+      </c>
+      <c r="E5">
+        <v>5.7</v>
+      </c>
+      <c r="F5">
+        <v>8.6</v>
+      </c>
+      <c r="G5">
+        <v>18.2</v>
+      </c>
+      <c r="I5" t="str">
+        <f>SUBSTITUTE(Table8[[#This Row],[N]]," ","")</f>
+        <v>IPN140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="C6">
+        <v>160</v>
+      </c>
+      <c r="D6">
+        <v>74</v>
+      </c>
+      <c r="E6">
+        <v>6.3</v>
+      </c>
+      <c r="F6">
+        <v>9.5</v>
+      </c>
+      <c r="G6">
+        <v>22.8</v>
+      </c>
+      <c r="I6" t="str">
+        <f>SUBSTITUTE(Table8[[#This Row],[N]]," ","")</f>
+        <v>IPN160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7">
+        <v>21.9</v>
+      </c>
+      <c r="C7">
+        <v>180</v>
+      </c>
+      <c r="D7">
+        <v>82</v>
+      </c>
+      <c r="E7">
+        <v>6.9</v>
+      </c>
+      <c r="F7">
+        <v>10.4</v>
+      </c>
+      <c r="G7">
+        <v>27.9</v>
+      </c>
+      <c r="I7" t="str">
+        <f>SUBSTITUTE(Table8[[#This Row],[N]]," ","")</f>
+        <v>IPN180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8">
+        <v>26.2</v>
+      </c>
+      <c r="C8">
+        <v>200</v>
+      </c>
+      <c r="D8">
+        <v>90</v>
+      </c>
+      <c r="E8">
+        <v>7.5</v>
+      </c>
+      <c r="F8">
+        <v>11.3</v>
+      </c>
+      <c r="G8">
+        <v>33.4</v>
+      </c>
+      <c r="I8" t="str">
+        <f>SUBSTITUTE(Table8[[#This Row],[N]]," ","")</f>
+        <v>IPN200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9">
+        <v>31.1</v>
+      </c>
+      <c r="C9">
+        <v>220</v>
+      </c>
+      <c r="D9">
+        <v>98</v>
+      </c>
+      <c r="E9">
+        <v>8.1</v>
+      </c>
+      <c r="F9">
+        <v>12.2</v>
+      </c>
+      <c r="G9">
+        <v>39.5</v>
+      </c>
+      <c r="I9" t="str">
+        <f>SUBSTITUTE(Table8[[#This Row],[N]]," ","")</f>
+        <v>IPN220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="C10">
+        <v>240</v>
+      </c>
+      <c r="D10">
+        <v>106</v>
+      </c>
+      <c r="E10">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F10">
+        <v>13.1</v>
+      </c>
+      <c r="G10">
+        <v>46.1</v>
+      </c>
+      <c r="I10" t="str">
+        <f>SUBSTITUTE(Table8[[#This Row],[N]]," ","")</f>
+        <v>IPN240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11">
+        <v>41.9</v>
+      </c>
+      <c r="C11">
+        <v>260</v>
+      </c>
+      <c r="D11">
+        <v>113</v>
+      </c>
+      <c r="E11">
+        <v>9.4</v>
+      </c>
+      <c r="F11">
+        <v>14.1</v>
+      </c>
+      <c r="G11">
+        <v>53.3</v>
+      </c>
+      <c r="I11" t="str">
+        <f>SUBSTITUTE(Table8[[#This Row],[N]]," ","")</f>
+        <v>IPN260</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12">
+        <v>47.9</v>
+      </c>
+      <c r="C12">
+        <v>280</v>
+      </c>
+      <c r="D12">
+        <v>119</v>
+      </c>
+      <c r="E12">
+        <v>10.1</v>
+      </c>
+      <c r="F12">
+        <v>15.2</v>
+      </c>
+      <c r="G12">
+        <v>61</v>
+      </c>
+      <c r="I12" t="str">
+        <f>SUBSTITUTE(Table8[[#This Row],[N]]," ","")</f>
+        <v>IPN280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13">
+        <v>54.2</v>
+      </c>
+      <c r="C13">
+        <v>300</v>
+      </c>
+      <c r="D13">
+        <v>125</v>
+      </c>
+      <c r="E13">
+        <v>10.8</v>
+      </c>
+      <c r="F13">
+        <v>16.2</v>
+      </c>
+      <c r="G13">
+        <v>69</v>
+      </c>
+      <c r="I13" t="str">
+        <f>SUBSTITUTE(Table8[[#This Row],[N]]," ","")</f>
+        <v>IPN300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14">
+        <v>61</v>
+      </c>
+      <c r="C14">
+        <v>320</v>
+      </c>
+      <c r="D14">
+        <v>131</v>
+      </c>
+      <c r="E14">
+        <v>11.5</v>
+      </c>
+      <c r="F14">
+        <v>17.3</v>
+      </c>
+      <c r="G14">
+        <v>77.7</v>
+      </c>
+      <c r="I14" t="str">
+        <f>SUBSTITUTE(Table8[[#This Row],[N]]," ","")</f>
+        <v>IPN320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15">
+        <v>68</v>
+      </c>
+      <c r="C15">
+        <v>340</v>
+      </c>
+      <c r="D15">
+        <v>137</v>
+      </c>
+      <c r="E15">
+        <v>12.2</v>
+      </c>
+      <c r="F15">
+        <v>18.3</v>
+      </c>
+      <c r="G15">
+        <v>86.7</v>
+      </c>
+      <c r="I15" t="str">
+        <f>SUBSTITUTE(Table8[[#This Row],[N]]," ","")</f>
+        <v>IPN340</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="C16">
+        <v>360</v>
+      </c>
+      <c r="D16">
+        <v>143</v>
+      </c>
+      <c r="E16">
+        <v>13</v>
+      </c>
+      <c r="F16">
+        <v>19.5</v>
+      </c>
+      <c r="G16">
+        <v>97</v>
+      </c>
+      <c r="I16" t="str">
+        <f>SUBSTITUTE(Table8[[#This Row],[N]]," ","")</f>
+        <v>IPN360</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17">
+        <v>84</v>
+      </c>
+      <c r="C17">
+        <v>380</v>
+      </c>
+      <c r="D17">
+        <v>149</v>
+      </c>
+      <c r="E17">
+        <v>13.7</v>
+      </c>
+      <c r="F17">
+        <v>20.5</v>
+      </c>
+      <c r="G17">
+        <v>107</v>
+      </c>
+      <c r="I17" t="str">
+        <f>SUBSTITUTE(Table8[[#This Row],[N]]," ","")</f>
+        <v>IPN380</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18">
+        <v>92.4</v>
+      </c>
+      <c r="C18">
+        <v>400</v>
+      </c>
+      <c r="D18">
+        <v>155</v>
+      </c>
+      <c r="E18">
+        <v>14.4</v>
+      </c>
+      <c r="F18">
+        <v>21.6</v>
+      </c>
+      <c r="G18">
+        <v>117.7</v>
+      </c>
+      <c r="I18" t="str">
+        <f>SUBSTITUTE(Table8[[#This Row],[N]]," ","")</f>
+        <v>IPN400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19">
+        <v>115</v>
+      </c>
+      <c r="C19">
+        <v>450</v>
+      </c>
+      <c r="D19">
+        <v>170</v>
+      </c>
+      <c r="E19">
+        <v>16.2</v>
+      </c>
+      <c r="F19">
+        <v>24.3</v>
+      </c>
+      <c r="G19">
+        <v>146.9</v>
+      </c>
+      <c r="I19" t="str">
+        <f>SUBSTITUTE(Table8[[#This Row],[N]]," ","")</f>
+        <v>IPN450</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20">
+        <v>141</v>
+      </c>
+      <c r="C20">
+        <v>500</v>
+      </c>
+      <c r="D20">
+        <v>185</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
+      </c>
+      <c r="F20">
+        <v>27</v>
+      </c>
+      <c r="G20">
+        <v>179.4</v>
+      </c>
+      <c r="I20" t="str">
+        <f>SUBSTITUTE(Table8[[#This Row],[N]]," ","")</f>
+        <v>IPN500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21">
+        <v>166</v>
+      </c>
+      <c r="C21">
+        <v>550</v>
+      </c>
+      <c r="D21">
+        <v>200</v>
+      </c>
+      <c r="E21">
+        <v>19</v>
+      </c>
+      <c r="F21">
+        <v>30</v>
+      </c>
+      <c r="G21">
+        <v>212</v>
+      </c>
+      <c r="I21" t="str">
+        <f>SUBSTITUTE(Table8[[#This Row],[N]]," ","")</f>
+        <v>IPN550</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22">
+        <v>199</v>
+      </c>
+      <c r="C22">
+        <v>600</v>
+      </c>
+      <c r="D22">
+        <v>215</v>
+      </c>
+      <c r="E22">
+        <v>21.6</v>
+      </c>
+      <c r="F22">
+        <v>32.4</v>
+      </c>
+      <c r="G22">
+        <v>253.7</v>
+      </c>
+      <c r="I22" t="str">
+        <f>SUBSTITUTE(Table8[[#This Row],[N]]," ","")</f>
+        <v>IPN600</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CBE72D3-39D3-4CEA-AF82-F34605FD2C25}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -15761,7 +16504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B201D9F-8949-476C-A805-3015DB7316D7}">
   <dimension ref="A1:D190"/>
   <sheetViews>

--- a/metalDB.xlsx
+++ b/metalDB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Programming\HollowSecCalculator\v0.6\calculator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Programming\HollowSecCalculator\v0.7\calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989B43BA-A384-4B4C-BC78-110F363C5254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91530F41-A623-44B6-BC93-079309A04117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10210" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="IPE" sheetId="5" r:id="rId5"/>
     <sheet name="IPN" sheetId="9" r:id="rId6"/>
     <sheet name="PFC" sheetId="8" r:id="rId7"/>
-    <sheet name="10305-5" sheetId="7" r:id="rId8"/>
+    <sheet name="CH" sheetId="10" r:id="rId8"/>
+    <sheet name="10305-5" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="131">
   <si>
     <t>H</t>
   </si>
@@ -260,18 +261,6 @@
     <t>IPEV600</t>
   </si>
   <si>
-    <t>IPE750×134</t>
-  </si>
-  <si>
-    <t>IPE750×147</t>
-  </si>
-  <si>
-    <t>IPE750×173</t>
-  </si>
-  <si>
-    <t>IPE750×196</t>
-  </si>
-  <si>
     <t>PFC100x50x10</t>
   </si>
   <si>
@@ -381,6 +370,69 @@
   </si>
   <si>
     <t>IPN600</t>
+  </si>
+  <si>
+    <t>IPE750x134</t>
+  </si>
+  <si>
+    <t>IPE750x147</t>
+  </si>
+  <si>
+    <t>IPE750x173</t>
+  </si>
+  <si>
+    <t>IPE750x196</t>
+  </si>
+  <si>
+    <t>CH76x38x7</t>
+  </si>
+  <si>
+    <t>CH102x51x10</t>
+  </si>
+  <si>
+    <t>CH127x64x15</t>
+  </si>
+  <si>
+    <t>CH152x76x18</t>
+  </si>
+  <si>
+    <t>CH152x89x24</t>
+  </si>
+  <si>
+    <t>CH178x76x21</t>
+  </si>
+  <si>
+    <t>CH178x89x27</t>
+  </si>
+  <si>
+    <t>CH203x76x24</t>
+  </si>
+  <si>
+    <t>CH203x89x30</t>
+  </si>
+  <si>
+    <t>CH229x76x26</t>
+  </si>
+  <si>
+    <t>CH229x89x33</t>
+  </si>
+  <si>
+    <t>CH254x76x28</t>
+  </si>
+  <si>
+    <t>CH254x89x36</t>
+  </si>
+  <si>
+    <t>CH305x89x42</t>
+  </si>
+  <si>
+    <t>CH305x102x46</t>
+  </si>
+  <si>
+    <t>CH381x102x55</t>
+  </si>
+  <si>
+    <t>CH432x102x65</t>
   </si>
 </sst>
 </file>
@@ -682,7 +734,49 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <border outline="0">
         <top style="thin">
@@ -1275,20 +1369,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1119B685-EE38-4744-A3F2-0277FCA23CC4}" name="Table2" displayName="Table2" ref="A1:D307" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1119B685-EE38-4744-A3F2-0277FCA23CC4}" name="Table2" displayName="Table2" ref="A1:D307" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26">
   <autoFilter ref="A1:D307" xr:uid="{1119B685-EE38-4744-A3F2-0277FCA23CC4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E4A9920B-2FCD-44F7-9CBA-867F2DB3A3BA}" name="W" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{7DEE8CD5-8A76-4B4F-8471-E37764F3169B}" name="H" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{483FC679-6CBC-4E54-ACE4-41DB7B408393}" name="T" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{243B8433-1B25-42C0-ABDB-B4660E1A86EF}" name="M" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{E4A9920B-2FCD-44F7-9CBA-867F2DB3A3BA}" name="W" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{7DEE8CD5-8A76-4B4F-8471-E37764F3169B}" name="H" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{483FC679-6CBC-4E54-ACE4-41DB7B408393}" name="T" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{243B8433-1B25-42C0-ABDB-B4660E1A86EF}" name="M" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C7D6F2B6-6C09-444A-A499-06987128E30B}" name="Table3" displayName="Table3" ref="A1:C216" totalsRowShown="0" headerRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C7D6F2B6-6C09-444A-A499-06987128E30B}" name="Table3" displayName="Table3" ref="A1:C216" totalsRowShown="0" headerRowDxfId="21">
   <autoFilter ref="A1:C216" xr:uid="{C7D6F2B6-6C09-444A-A499-06987128E30B}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{23A866F8-81ED-4488-838F-2372534EFBFD}" name="W"/>
@@ -1300,7 +1394,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{50C9BC12-D9D9-47CA-935D-7B3E4E6EC964}" name="Table4" displayName="Table4" ref="A1:C222" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{50C9BC12-D9D9-47CA-935D-7B3E4E6EC964}" name="Table4" displayName="Table4" ref="A1:C222" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
   <autoFilter ref="A1:C222" xr:uid="{50C9BC12-D9D9-47CA-935D-7B3E4E6EC964}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{38A2F959-DC6B-4CDB-A3B8-602F02FF11C9}" name="W"/>
@@ -1312,23 +1406,23 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AD3C9691-9AEF-4707-9D5E-E2D3ACC3BC1F}" name="Table5" displayName="Table5" ref="A1:G68" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AD3C9691-9AEF-4707-9D5E-E2D3ACC3BC1F}" name="Table5" displayName="Table5" ref="A1:G68" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:G68" xr:uid="{AD3C9691-9AEF-4707-9D5E-E2D3ACC3BC1F}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{BF3CAACB-3E93-4E16-A7D5-7D0B99658E31}" name="N" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{F86046F2-E9E2-4B0A-838B-CBB0ACA5FE8F}" name="M" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{2D30C7D1-0358-4A45-B90C-374E33A4C9C8}" name="h" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{E6FD9FB2-C587-4BC0-A06E-752BE42C388E}" name="b" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{2AAD7EDF-F68E-425D-84E4-7F3A35E2672D}" name="s" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{7900BF1B-9DAF-4F1D-94E3-121948A6CE62}" name="t" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{E27AA0CC-F5C5-4FFF-9420-D4774C17607E}" name="A" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{BF3CAACB-3E93-4E16-A7D5-7D0B99658E31}" name="N" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{F86046F2-E9E2-4B0A-838B-CBB0ACA5FE8F}" name="M" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{2D30C7D1-0358-4A45-B90C-374E33A4C9C8}" name="h" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{E6FD9FB2-C587-4BC0-A06E-752BE42C388E}" name="b" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{2AAD7EDF-F68E-425D-84E4-7F3A35E2672D}" name="s" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{7900BF1B-9DAF-4F1D-94E3-121948A6CE62}" name="t" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{E27AA0CC-F5C5-4FFF-9420-D4774C17607E}" name="A" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F452C68D-D48E-42EB-AED0-5FA065F4CC54}" name="Table8" displayName="Table8" ref="A1:G22" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F452C68D-D48E-42EB-AED0-5FA065F4CC54}" name="Table8" displayName="Table8" ref="A1:G22" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7">
   <autoFilter ref="A1:G22" xr:uid="{F452C68D-D48E-42EB-AED0-5FA065F4CC54}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{7FFC648A-1EA6-41A9-9A18-4B870785C06C}" name="N"/>
@@ -1344,7 +1438,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{49FDFE3A-F7C7-4F7B-BBA8-9E5575EB46B7}" name="Table7" displayName="Table7" ref="A1:G1048576" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{49FDFE3A-F7C7-4F7B-BBA8-9E5575EB46B7}" name="Table7" displayName="Table7" ref="A1:G1048576" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5">
   <autoFilter ref="A1:G1048576" xr:uid="{49FDFE3A-F7C7-4F7B-BBA8-9E5575EB46B7}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{EE7EE8CC-215B-4A53-B3E3-9AE13EA92FB5}" name="N"/>
@@ -1360,7 +1454,23 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{38506F01-E960-459C-927A-1C1572B9A216}" name="Table6" displayName="Table6" ref="A1:D190" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8451F2FA-F1C6-4EAD-A2E1-E614B8D01A4C}" name="Table9" displayName="Table9" ref="A1:G18" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1">
+  <autoFilter ref="A1:G18" xr:uid="{8451F2FA-F1C6-4EAD-A2E1-E614B8D01A4C}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{63F59C3B-C90C-4970-93E9-038EDA8BA758}" name="N"/>
+    <tableColumn id="2" xr3:uid="{888349EC-C1B3-40B4-B436-CB3C9340299D}" name="M"/>
+    <tableColumn id="3" xr3:uid="{2444E765-11D1-40D5-BCB8-ED72992CD920}" name="h"/>
+    <tableColumn id="4" xr3:uid="{B0AF0E57-50EF-48AE-90FF-0D296B8D9ED4}" name="b"/>
+    <tableColumn id="5" xr3:uid="{E079D891-AA75-44E2-9120-22C719BFED26}" name="s"/>
+    <tableColumn id="6" xr3:uid="{330E1E22-9760-4235-8FEB-483504FE4AE8}" name="t"/>
+    <tableColumn id="7" xr3:uid="{C6E3DBF6-A354-4723-AC67-35D223359F34}" name="A"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{38506F01-E960-459C-927A-1C1572B9A216}" name="Table6" displayName="Table6" ref="A1:D190" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
   <autoFilter ref="A1:D190" xr:uid="{38506F01-E960-459C-927A-1C1572B9A216}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{841719B2-8EB9-440E-B847-9BA84F5357D5}" name="W"/>
@@ -13880,8 +13990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04F7681-8F2C-4235-BB99-A2A6DC9F639B}">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15364,7 +15474,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="B65" s="10">
         <v>134</v>
@@ -15387,7 +15497,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="B66" s="7">
         <v>147</v>
@@ -15410,7 +15520,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="B67" s="10">
         <v>173</v>
@@ -15433,7 +15543,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="B68" s="17">
         <v>196</v>
@@ -15467,8 +15577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB30A80-E1ED-42B5-BAFC-A27B7E1F5B3E}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15502,7 +15612,7 @@
     </row>
     <row r="2" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B2">
         <v>5.9</v>
@@ -15529,7 +15639,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B3">
         <v>8.3000000000000007</v>
@@ -15556,7 +15666,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B4">
         <v>11.1</v>
@@ -15583,7 +15693,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B5">
         <v>14.3</v>
@@ -15610,7 +15720,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B6">
         <v>17.899999999999999</v>
@@ -15637,7 +15747,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B7">
         <v>21.9</v>
@@ -15664,7 +15774,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B8">
         <v>26.2</v>
@@ -15691,7 +15801,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B9">
         <v>31.1</v>
@@ -15718,7 +15828,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B10">
         <v>36.200000000000003</v>
@@ -15745,7 +15855,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B11">
         <v>41.9</v>
@@ -15772,7 +15882,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B12">
         <v>47.9</v>
@@ -15799,7 +15909,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B13">
         <v>54.2</v>
@@ -15826,7 +15936,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B14">
         <v>61</v>
@@ -15853,7 +15963,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B15">
         <v>68</v>
@@ -15880,7 +15990,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B16">
         <v>76.099999999999994</v>
@@ -15907,7 +16017,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B17">
         <v>84</v>
@@ -15934,7 +16044,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B18">
         <v>92.4</v>
@@ -15961,7 +16071,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B19">
         <v>115</v>
@@ -15988,7 +16098,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B20">
         <v>141</v>
@@ -16015,7 +16125,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B21">
         <v>166</v>
@@ -16042,7 +16152,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B22">
         <v>199</v>
@@ -16080,7 +16190,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16113,7 +16223,7 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B2">
         <v>10.199999999999999</v>
@@ -16138,7 +16248,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B3">
         <v>14.8</v>
@@ -16162,7 +16272,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B4">
         <v>17.899999999999999</v>
@@ -16186,7 +16296,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B5">
         <v>23.9</v>
@@ -16210,7 +16320,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B6">
         <v>20.3</v>
@@ -16234,7 +16344,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B7">
         <v>26.1</v>
@@ -16258,7 +16368,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B8">
         <v>23.4</v>
@@ -16282,7 +16392,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B9">
         <v>29.7</v>
@@ -16306,7 +16416,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B10">
         <v>25.7</v>
@@ -16330,7 +16440,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B11">
         <v>32.200000000000003</v>
@@ -16354,7 +16464,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B12">
         <v>27.6</v>
@@ -16378,7 +16488,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B13">
         <v>34.799999999999997</v>
@@ -16402,7 +16512,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B14">
         <v>41.4</v>
@@ -16426,7 +16536,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B15">
         <v>45.5</v>
@@ -16450,7 +16560,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B16">
         <v>54</v>
@@ -16474,7 +16584,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B17">
         <v>64.400000000000006</v>
@@ -16505,6 +16615,441 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{596DDFA5-D3D0-427C-9466-FC177B8079EF}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2">
+        <v>6.7</v>
+      </c>
+      <c r="C2">
+        <v>76.2</v>
+      </c>
+      <c r="D2">
+        <v>38.1</v>
+      </c>
+      <c r="E2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F2">
+        <v>6.8</v>
+      </c>
+      <c r="G2">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3">
+        <v>10.4</v>
+      </c>
+      <c r="C3">
+        <v>101.6</v>
+      </c>
+      <c r="D3">
+        <v>50.8</v>
+      </c>
+      <c r="E3">
+        <v>6.1</v>
+      </c>
+      <c r="F3">
+        <v>7.6</v>
+      </c>
+      <c r="G3">
+        <v>13.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4">
+        <v>14.9</v>
+      </c>
+      <c r="C4">
+        <v>127</v>
+      </c>
+      <c r="D4">
+        <v>63.5</v>
+      </c>
+      <c r="E4">
+        <v>6.4</v>
+      </c>
+      <c r="F4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G4">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="C5">
+        <v>152.4</v>
+      </c>
+      <c r="D5">
+        <v>76.2</v>
+      </c>
+      <c r="E5">
+        <v>6.4</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6">
+        <v>23.9</v>
+      </c>
+      <c r="C6">
+        <v>152.4</v>
+      </c>
+      <c r="D6">
+        <v>88.9</v>
+      </c>
+      <c r="E6">
+        <v>7.1</v>
+      </c>
+      <c r="F6">
+        <v>11.6</v>
+      </c>
+      <c r="G6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7">
+        <v>20.8</v>
+      </c>
+      <c r="C7">
+        <v>177.8</v>
+      </c>
+      <c r="D7">
+        <v>76.2</v>
+      </c>
+      <c r="E7">
+        <v>6.6</v>
+      </c>
+      <c r="F7">
+        <v>10.3</v>
+      </c>
+      <c r="G7">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8">
+        <v>26.8</v>
+      </c>
+      <c r="C8">
+        <v>177.8</v>
+      </c>
+      <c r="D8">
+        <v>88.9</v>
+      </c>
+      <c r="E8">
+        <v>7.6</v>
+      </c>
+      <c r="F8">
+        <v>12.3</v>
+      </c>
+      <c r="G8">
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9">
+        <v>23.9</v>
+      </c>
+      <c r="C9">
+        <v>203.2</v>
+      </c>
+      <c r="D9">
+        <v>76.2</v>
+      </c>
+      <c r="E9">
+        <v>7.1</v>
+      </c>
+      <c r="F9">
+        <v>11.2</v>
+      </c>
+      <c r="G9">
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10">
+        <v>29.8</v>
+      </c>
+      <c r="C10">
+        <v>203.2</v>
+      </c>
+      <c r="D10">
+        <v>88.9</v>
+      </c>
+      <c r="E10">
+        <v>8.1</v>
+      </c>
+      <c r="F10">
+        <v>12.9</v>
+      </c>
+      <c r="G10">
+        <v>37.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11">
+        <v>26.1</v>
+      </c>
+      <c r="C11">
+        <v>228.6</v>
+      </c>
+      <c r="D11">
+        <v>76.2</v>
+      </c>
+      <c r="E11">
+        <v>7.6</v>
+      </c>
+      <c r="F11">
+        <v>11.2</v>
+      </c>
+      <c r="G11">
+        <v>33.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="C12">
+        <v>228.6</v>
+      </c>
+      <c r="D12">
+        <v>88.9</v>
+      </c>
+      <c r="E12">
+        <v>8.6</v>
+      </c>
+      <c r="F12">
+        <v>13.3</v>
+      </c>
+      <c r="G12">
+        <v>41.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13">
+        <v>28.2</v>
+      </c>
+      <c r="C13">
+        <v>254</v>
+      </c>
+      <c r="D13">
+        <v>76.2</v>
+      </c>
+      <c r="E13">
+        <v>8.1</v>
+      </c>
+      <c r="F13">
+        <v>10.9</v>
+      </c>
+      <c r="G13">
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="C14">
+        <v>254</v>
+      </c>
+      <c r="D14">
+        <v>88.9</v>
+      </c>
+      <c r="E14">
+        <v>9.1</v>
+      </c>
+      <c r="F14">
+        <v>13.6</v>
+      </c>
+      <c r="G14">
+        <v>45.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15">
+        <v>41.8</v>
+      </c>
+      <c r="C15">
+        <v>304.8</v>
+      </c>
+      <c r="D15">
+        <v>88.9</v>
+      </c>
+      <c r="E15">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F15">
+        <v>13.7</v>
+      </c>
+      <c r="G15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16">
+        <v>46.2</v>
+      </c>
+      <c r="C16">
+        <v>304.8</v>
+      </c>
+      <c r="D16">
+        <v>101.6</v>
+      </c>
+      <c r="E16">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F16">
+        <v>14.8</v>
+      </c>
+      <c r="G16">
+        <v>58.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17">
+        <v>55</v>
+      </c>
+      <c r="C17">
+        <v>381</v>
+      </c>
+      <c r="D17">
+        <v>101.6</v>
+      </c>
+      <c r="E17">
+        <v>10.4</v>
+      </c>
+      <c r="F17">
+        <v>16.3</v>
+      </c>
+      <c r="G17">
+        <v>69.599999999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18">
+        <v>65.5</v>
+      </c>
+      <c r="C18">
+        <v>431.8</v>
+      </c>
+      <c r="D18">
+        <v>101.6</v>
+      </c>
+      <c r="E18">
+        <v>12.2</v>
+      </c>
+      <c r="F18">
+        <v>16.8</v>
+      </c>
+      <c r="G18">
+        <v>82.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B201D9F-8949-476C-A805-3015DB7316D7}">
   <dimension ref="A1:D190"/>
   <sheetViews>

--- a/metalDB.xlsx
+++ b/metalDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Programming\HollowSecCalculator\v0.7\calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91530F41-A623-44B6-BC93-079309A04117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FEEEB0-0BC4-44DD-A422-30E2C14C9F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -384,9 +384,6 @@
     <t>IPE750x196</t>
   </si>
   <si>
-    <t>CH76x38x7</t>
-  </si>
-  <si>
     <t>CH102x51x10</t>
   </si>
   <si>
@@ -433,6 +430,9 @@
   </si>
   <si>
     <t>CH432x102x65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH76x38x7 </t>
   </si>
 </sst>
 </file>
@@ -736,48 +736,6 @@
   </cellStyles>
   <dxfs count="30">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thick">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="5" tint="0.39997558519241921"/>
@@ -814,6 +772,48 @@
           <bgColor theme="5"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1454,7 +1454,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8451F2FA-F1C6-4EAD-A2E1-E614B8D01A4C}" name="Table9" displayName="Table9" ref="A1:G18" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8451F2FA-F1C6-4EAD-A2E1-E614B8D01A4C}" name="Table9" displayName="Table9" ref="A1:G18" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3">
   <autoFilter ref="A1:G18" xr:uid="{8451F2FA-F1C6-4EAD-A2E1-E614B8D01A4C}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{63F59C3B-C90C-4970-93E9-038EDA8BA758}" name="N"/>
@@ -1470,7 +1470,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{38506F01-E960-459C-927A-1C1572B9A216}" name="Table6" displayName="Table6" ref="A1:D190" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{38506F01-E960-459C-927A-1C1572B9A216}" name="Table6" displayName="Table6" ref="A1:D190" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:D190" xr:uid="{38506F01-E960-459C-927A-1C1572B9A216}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{841719B2-8EB9-440E-B847-9BA84F5357D5}" name="W"/>
@@ -1748,7 +1748,7 @@
   <dimension ref="A1:D218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4818,7 +4818,7 @@
   <dimension ref="A1:D307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9133,8 +9133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C7F4A8-E037-4A4F-8AAD-32E383D53875}">
   <dimension ref="A1:C216"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="A187" sqref="A187:C187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13990,8 +13990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04F7681-8F2C-4235-BB99-A2A6DC9F639B}">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16190,7 +16190,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16619,7 +16619,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16652,7 +16652,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="B2">
         <v>6.7</v>
@@ -16675,7 +16675,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3">
         <v>10.4</v>
@@ -16698,7 +16698,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B4">
         <v>14.9</v>
@@ -16721,7 +16721,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5">
         <v>17.899999999999999</v>
@@ -16744,7 +16744,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6">
         <v>23.9</v>
@@ -16767,7 +16767,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7">
         <v>20.8</v>
@@ -16790,7 +16790,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8">
         <v>26.8</v>
@@ -16813,7 +16813,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B9">
         <v>23.9</v>
@@ -16836,7 +16836,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B10">
         <v>29.8</v>
@@ -16859,7 +16859,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B11">
         <v>26.1</v>
@@ -16882,7 +16882,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B12">
         <v>32.700000000000003</v>
@@ -16905,7 +16905,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B13">
         <v>28.2</v>
@@ -16928,7 +16928,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B14">
         <v>35.700000000000003</v>
@@ -16951,7 +16951,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B15">
         <v>41.8</v>
@@ -16974,7 +16974,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B16">
         <v>46.2</v>
@@ -16997,7 +16997,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B17">
         <v>55</v>
@@ -17020,7 +17020,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B18">
         <v>65.5</v>

--- a/metalDB.xlsx
+++ b/metalDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Programming\HollowSecCalculator\v0.8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF64394F-050E-4E0F-9560-94CD6B097E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41A6F36-EC79-4E5F-A2D1-10BFD9909722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="11" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="15" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="R10210" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,8 @@
     <sheet name="dstu8943p2" sheetId="20" r:id="rId17"/>
     <sheet name="dstu8938p1" sheetId="21" r:id="rId18"/>
     <sheet name="dstu8938p2" sheetId="22" r:id="rId19"/>
+    <sheet name="dstu8939p1" sheetId="23" r:id="rId20"/>
+    <sheet name="dstu8939p2" sheetId="24" r:id="rId21"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="224">
   <si>
     <t>H</t>
   </si>
@@ -1274,237 +1276,12 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="194">
+  <dxfs count="243">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2285,6 +2062,64 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -2322,6 +2157,1046 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="8"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
@@ -2353,18 +3228,38 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color theme="8" tint="0.39997558519241921"/>
+        </top>
         <bottom style="thin">
-          <color theme="8" tint="0.39997558519241921"/>
+          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
-        <top style="thin">
+        <bottom style="thin">
           <color theme="8" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
@@ -5098,7 +5993,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8451F2FA-F1C6-4EAD-A2E1-E614B8D01A4C}" name="Table9" displayName="Table9" ref="A1:G18" totalsRowShown="0" headerRowDxfId="157" headerRowBorderDxfId="156">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{8451F2FA-F1C6-4EAD-A2E1-E614B8D01A4C}" name="Table9" displayName="Table9" ref="A1:G18" totalsRowShown="0" headerRowDxfId="206" headerRowBorderDxfId="205">
   <autoFilter ref="A1:G18" xr:uid="{8451F2FA-F1C6-4EAD-A2E1-E614B8D01A4C}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{63F59C3B-C90C-4970-93E9-038EDA8BA758}" name="N"/>
@@ -5146,217 +6041,276 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{73FF29CC-1847-4119-9A1D-B45B3FA08206}" name="Table12" displayName="Table12" ref="A1:G6" totalsRowShown="0" dataDxfId="155" tableBorderDxfId="154">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{73FF29CC-1847-4119-9A1D-B45B3FA08206}" name="Table12" displayName="Table12" ref="A1:G6" totalsRowShown="0" dataDxfId="204" tableBorderDxfId="203">
   <autoFilter ref="A1:G6" xr:uid="{73FF29CC-1847-4119-9A1D-B45B3FA08206}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F2DF9A72-5B22-492E-AE56-08C01A3CE984}" name="N" dataDxfId="153"/>
-    <tableColumn id="2" xr3:uid="{52A6E4B8-A9B7-468E-884D-47DA0A4904D3}" name="M" dataDxfId="152"/>
-    <tableColumn id="3" xr3:uid="{2AB61C8A-1DD2-458F-AF7A-343D2F77483E}" name="h" dataDxfId="151"/>
-    <tableColumn id="4" xr3:uid="{6D713861-14F6-41B0-86D2-4EAD4072D971}" name="b" dataDxfId="150"/>
-    <tableColumn id="5" xr3:uid="{037B44C3-5665-4BDA-9E0D-374D520627A8}" name="s" dataDxfId="149"/>
-    <tableColumn id="6" xr3:uid="{389B7342-51D2-4C2E-906B-CF1B29C86950}" name="t" dataDxfId="148"/>
-    <tableColumn id="7" xr3:uid="{BE5A1A5A-E137-415A-B865-6B6007447CD4}" name="A" dataDxfId="147"/>
+    <tableColumn id="1" xr3:uid="{F2DF9A72-5B22-492E-AE56-08C01A3CE984}" name="N" dataDxfId="202"/>
+    <tableColumn id="2" xr3:uid="{52A6E4B8-A9B7-468E-884D-47DA0A4904D3}" name="M" dataDxfId="201"/>
+    <tableColumn id="3" xr3:uid="{2AB61C8A-1DD2-458F-AF7A-343D2F77483E}" name="h" dataDxfId="200"/>
+    <tableColumn id="4" xr3:uid="{6D713861-14F6-41B0-86D2-4EAD4072D971}" name="b" dataDxfId="199"/>
+    <tableColumn id="5" xr3:uid="{037B44C3-5665-4BDA-9E0D-374D520627A8}" name="s" dataDxfId="198"/>
+    <tableColumn id="6" xr3:uid="{389B7342-51D2-4C2E-906B-CF1B29C86950}" name="t" dataDxfId="197"/>
+    <tableColumn id="7" xr3:uid="{BE5A1A5A-E137-415A-B865-6B6007447CD4}" name="A" dataDxfId="196"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{5BD048DC-A409-4AF5-9BDC-39286BBA999D}" name="Table215" displayName="Table215" ref="A1:A38" totalsRowShown="0" headerRowDxfId="146" dataDxfId="145" tableBorderDxfId="144">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{5BD048DC-A409-4AF5-9BDC-39286BBA999D}" name="Table215" displayName="Table215" ref="A1:A38" totalsRowShown="0" headerRowDxfId="195" dataDxfId="194" tableBorderDxfId="193">
   <autoFilter ref="A1:A38" xr:uid="{FE5BC3C0-FB62-437C-ADC5-2D9D418D7BB2}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{6A0CB7D4-D1C7-47ED-89C2-D88B32FA2D76}" name="T" dataDxfId="143"/>
+    <tableColumn id="1" xr3:uid="{6A0CB7D4-D1C7-47ED-89C2-D88B32FA2D76}" name="T" dataDxfId="192"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{4F5232D1-A5A0-4C43-99C8-3FB0339F6455}" name="Table316" displayName="Table316" ref="A1:AL48" totalsRowShown="0" dataDxfId="142" tableBorderDxfId="141">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{4F5232D1-A5A0-4C43-99C8-3FB0339F6455}" name="Table316" displayName="Table316" ref="A1:AL48" totalsRowShown="0" dataDxfId="191" tableBorderDxfId="190">
   <autoFilter ref="A1:AL48" xr:uid="{43B19381-16D8-455A-BCDA-E4DC712634C0}"/>
   <tableColumns count="38">
-    <tableColumn id="1" xr3:uid="{D19405F1-EBE0-4CB1-974C-0698FEDD49DE}" name="D" dataDxfId="140"/>
-    <tableColumn id="2" xr3:uid="{61A62931-AB3D-4242-BD8C-19D33EF655FA}" name="M" dataDxfId="139"/>
-    <tableColumn id="3" xr3:uid="{05994D40-50B3-46E4-B145-8DC7E331F9B8}" name="M2" dataDxfId="138"/>
-    <tableColumn id="4" xr3:uid="{FBD82C5F-E7AB-410F-9590-A6ED5727FC08}" name="M3" dataDxfId="137"/>
-    <tableColumn id="5" xr3:uid="{918E5CE8-0A45-4E76-85CA-3DD2BA586CB5}" name="M4" dataDxfId="136"/>
-    <tableColumn id="6" xr3:uid="{83EC40B3-1DF1-48F3-8B0C-B20DDBC7C54C}" name="M5" dataDxfId="135"/>
-    <tableColumn id="7" xr3:uid="{B4647FF3-59A2-4795-862C-BA0B9276C454}" name="M6" dataDxfId="134"/>
-    <tableColumn id="8" xr3:uid="{401EEF2F-6B07-4B0E-87CC-F86F3422709B}" name="M7" dataDxfId="133"/>
-    <tableColumn id="9" xr3:uid="{DADC89C6-3FA4-4344-B37A-40C9B3833BA9}" name="M8" dataDxfId="132"/>
-    <tableColumn id="10" xr3:uid="{ABD262B3-E9CA-4CFE-B90D-F79C74D74E1D}" name="M9" dataDxfId="131"/>
-    <tableColumn id="11" xr3:uid="{40BEC4C6-9D46-4A31-A8FC-D206D7FF6722}" name="M10" dataDxfId="130"/>
-    <tableColumn id="12" xr3:uid="{A6937708-ACA2-42C9-B7D9-CCC42DBCF56A}" name="M11" dataDxfId="129"/>
-    <tableColumn id="13" xr3:uid="{441AA6B7-A8FD-4FC2-8A16-8C7017434941}" name="M12" dataDxfId="128"/>
-    <tableColumn id="14" xr3:uid="{D5026B8B-DF9B-4C80-8930-E7754185D925}" name="M13" dataDxfId="127"/>
-    <tableColumn id="15" xr3:uid="{E72A5CE6-6575-43DB-A649-99E3869ABFFF}" name="M14" dataDxfId="126"/>
-    <tableColumn id="16" xr3:uid="{1E6A2307-7A28-443B-92EC-B3EE34B9A496}" name="M15" dataDxfId="125"/>
-    <tableColumn id="17" xr3:uid="{AC9B9109-746B-4CC4-9DCB-FC40774AF319}" name="M16" dataDxfId="124"/>
-    <tableColumn id="18" xr3:uid="{289033D1-1FFB-43B2-BB9B-67148779D814}" name="M17" dataDxfId="123"/>
-    <tableColumn id="19" xr3:uid="{2F698677-10D7-42DD-B688-13BB4D860CC1}" name="M18" dataDxfId="122"/>
-    <tableColumn id="20" xr3:uid="{3771D857-860D-4C4F-9E3C-4152D93C904B}" name="M19" dataDxfId="121"/>
-    <tableColumn id="21" xr3:uid="{E04ACC78-7D78-4416-9F15-90AB2823AC02}" name="M20" dataDxfId="120"/>
-    <tableColumn id="22" xr3:uid="{EE56119A-B9CB-4AE0-91C4-96D55784C314}" name="M21" dataDxfId="119"/>
-    <tableColumn id="23" xr3:uid="{29AACC94-1ECC-42DF-8A83-D66091FFD8CA}" name="M22" dataDxfId="118"/>
-    <tableColumn id="24" xr3:uid="{1FD8DC51-B692-4632-88FF-43E4A4F7E666}" name="M23" dataDxfId="117"/>
-    <tableColumn id="25" xr3:uid="{F15DAE31-D0F8-4E6A-B7CF-CE45BA6C40E1}" name="M24" dataDxfId="116"/>
-    <tableColumn id="26" xr3:uid="{047E33FA-707B-4479-9B56-636C384FBFBB}" name="M25" dataDxfId="115"/>
-    <tableColumn id="27" xr3:uid="{DEE737CB-3062-4ED6-9FFF-3D12FF4228C7}" name="M26" dataDxfId="114"/>
-    <tableColumn id="28" xr3:uid="{39872BDD-9C41-4864-997E-F5B34AD44A28}" name="M27" dataDxfId="113"/>
-    <tableColumn id="29" xr3:uid="{B234133B-8CE0-4A57-9584-F98C6B20CD0A}" name="M28" dataDxfId="112"/>
-    <tableColumn id="30" xr3:uid="{5D5F5548-B6A6-412F-B09B-91D9A53313C0}" name="M29" dataDxfId="111"/>
-    <tableColumn id="31" xr3:uid="{C1CD96E3-E74F-448F-9CDD-764A303093C9}" name="M30" dataDxfId="110"/>
-    <tableColumn id="32" xr3:uid="{CBB6DEFE-F74D-448B-8383-EC2321B37B2A}" name="M31" dataDxfId="109"/>
-    <tableColumn id="33" xr3:uid="{D4D399FB-755C-4C76-ADC6-06577DC8FEDE}" name="M32" dataDxfId="108"/>
-    <tableColumn id="34" xr3:uid="{EE4972A1-655C-4EBB-A5F6-6A6E0D260090}" name="M33" dataDxfId="107"/>
-    <tableColumn id="35" xr3:uid="{88861DC3-7FC7-4039-BD7A-A410D2DD27C4}" name="M34" dataDxfId="106"/>
-    <tableColumn id="36" xr3:uid="{9CD14309-D0A5-4A5D-997F-C1599B98535A}" name="M35" dataDxfId="105"/>
-    <tableColumn id="37" xr3:uid="{F498B5F4-F800-4324-91C6-46C0CC95B16F}" name="M36" dataDxfId="104"/>
-    <tableColumn id="38" xr3:uid="{D41F1677-C0AF-4BF3-84FF-6E9F005B151E}" name="M37" dataDxfId="103"/>
+    <tableColumn id="1" xr3:uid="{D19405F1-EBE0-4CB1-974C-0698FEDD49DE}" name="D" dataDxfId="189"/>
+    <tableColumn id="2" xr3:uid="{61A62931-AB3D-4242-BD8C-19D33EF655FA}" name="M" dataDxfId="188"/>
+    <tableColumn id="3" xr3:uid="{05994D40-50B3-46E4-B145-8DC7E331F9B8}" name="M2" dataDxfId="187"/>
+    <tableColumn id="4" xr3:uid="{FBD82C5F-E7AB-410F-9590-A6ED5727FC08}" name="M3" dataDxfId="186"/>
+    <tableColumn id="5" xr3:uid="{918E5CE8-0A45-4E76-85CA-3DD2BA586CB5}" name="M4" dataDxfId="185"/>
+    <tableColumn id="6" xr3:uid="{83EC40B3-1DF1-48F3-8B0C-B20DDBC7C54C}" name="M5" dataDxfId="184"/>
+    <tableColumn id="7" xr3:uid="{B4647FF3-59A2-4795-862C-BA0B9276C454}" name="M6" dataDxfId="183"/>
+    <tableColumn id="8" xr3:uid="{401EEF2F-6B07-4B0E-87CC-F86F3422709B}" name="M7" dataDxfId="182"/>
+    <tableColumn id="9" xr3:uid="{DADC89C6-3FA4-4344-B37A-40C9B3833BA9}" name="M8" dataDxfId="181"/>
+    <tableColumn id="10" xr3:uid="{ABD262B3-E9CA-4CFE-B90D-F79C74D74E1D}" name="M9" dataDxfId="180"/>
+    <tableColumn id="11" xr3:uid="{40BEC4C6-9D46-4A31-A8FC-D206D7FF6722}" name="M10" dataDxfId="179"/>
+    <tableColumn id="12" xr3:uid="{A6937708-ACA2-42C9-B7D9-CCC42DBCF56A}" name="M11" dataDxfId="178"/>
+    <tableColumn id="13" xr3:uid="{441AA6B7-A8FD-4FC2-8A16-8C7017434941}" name="M12" dataDxfId="177"/>
+    <tableColumn id="14" xr3:uid="{D5026B8B-DF9B-4C80-8930-E7754185D925}" name="M13" dataDxfId="176"/>
+    <tableColumn id="15" xr3:uid="{E72A5CE6-6575-43DB-A649-99E3869ABFFF}" name="M14" dataDxfId="175"/>
+    <tableColumn id="16" xr3:uid="{1E6A2307-7A28-443B-92EC-B3EE34B9A496}" name="M15" dataDxfId="174"/>
+    <tableColumn id="17" xr3:uid="{AC9B9109-746B-4CC4-9DCB-FC40774AF319}" name="M16" dataDxfId="173"/>
+    <tableColumn id="18" xr3:uid="{289033D1-1FFB-43B2-BB9B-67148779D814}" name="M17" dataDxfId="172"/>
+    <tableColumn id="19" xr3:uid="{2F698677-10D7-42DD-B688-13BB4D860CC1}" name="M18" dataDxfId="171"/>
+    <tableColumn id="20" xr3:uid="{3771D857-860D-4C4F-9E3C-4152D93C904B}" name="M19" dataDxfId="170"/>
+    <tableColumn id="21" xr3:uid="{E04ACC78-7D78-4416-9F15-90AB2823AC02}" name="M20" dataDxfId="169"/>
+    <tableColumn id="22" xr3:uid="{EE56119A-B9CB-4AE0-91C4-96D55784C314}" name="M21" dataDxfId="168"/>
+    <tableColumn id="23" xr3:uid="{29AACC94-1ECC-42DF-8A83-D66091FFD8CA}" name="M22" dataDxfId="167"/>
+    <tableColumn id="24" xr3:uid="{1FD8DC51-B692-4632-88FF-43E4A4F7E666}" name="M23" dataDxfId="166"/>
+    <tableColumn id="25" xr3:uid="{F15DAE31-D0F8-4E6A-B7CF-CE45BA6C40E1}" name="M24" dataDxfId="165"/>
+    <tableColumn id="26" xr3:uid="{047E33FA-707B-4479-9B56-636C384FBFBB}" name="M25" dataDxfId="164"/>
+    <tableColumn id="27" xr3:uid="{DEE737CB-3062-4ED6-9FFF-3D12FF4228C7}" name="M26" dataDxfId="163"/>
+    <tableColumn id="28" xr3:uid="{39872BDD-9C41-4864-997E-F5B34AD44A28}" name="M27" dataDxfId="162"/>
+    <tableColumn id="29" xr3:uid="{B234133B-8CE0-4A57-9584-F98C6B20CD0A}" name="M28" dataDxfId="161"/>
+    <tableColumn id="30" xr3:uid="{5D5F5548-B6A6-412F-B09B-91D9A53313C0}" name="M29" dataDxfId="160"/>
+    <tableColumn id="31" xr3:uid="{C1CD96E3-E74F-448F-9CDD-764A303093C9}" name="M30" dataDxfId="159"/>
+    <tableColumn id="32" xr3:uid="{CBB6DEFE-F74D-448B-8383-EC2321B37B2A}" name="M31" dataDxfId="158"/>
+    <tableColumn id="33" xr3:uid="{D4D399FB-755C-4C76-ADC6-06577DC8FEDE}" name="M32" dataDxfId="157"/>
+    <tableColumn id="34" xr3:uid="{EE4972A1-655C-4EBB-A5F6-6A6E0D260090}" name="M33" dataDxfId="156"/>
+    <tableColumn id="35" xr3:uid="{88861DC3-7FC7-4039-BD7A-A410D2DD27C4}" name="M34" dataDxfId="155"/>
+    <tableColumn id="36" xr3:uid="{9CD14309-D0A5-4A5D-997F-C1599B98535A}" name="M35" dataDxfId="154"/>
+    <tableColumn id="37" xr3:uid="{F498B5F4-F800-4324-91C6-46C0CC95B16F}" name="M36" dataDxfId="153"/>
+    <tableColumn id="38" xr3:uid="{D41F1677-C0AF-4BF3-84FF-6E9F005B151E}" name="M37" dataDxfId="152"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{6B80DAD6-CC01-497B-8507-0832940608FF}" name="Table117" displayName="Table117" ref="A1:A34" totalsRowShown="0" headerRowDxfId="102" dataDxfId="100" headerRowBorderDxfId="101" tableBorderDxfId="99" totalsRowBorderDxfId="98">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{6B80DAD6-CC01-497B-8507-0832940608FF}" name="Table117" displayName="Table117" ref="A1:A34" totalsRowShown="0" headerRowDxfId="151" dataDxfId="149" headerRowBorderDxfId="150" tableBorderDxfId="148" totalsRowBorderDxfId="147">
   <autoFilter ref="A1:A34" xr:uid="{673524FC-346D-4C25-8D35-5B57D9129E34}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{43BD0317-77A6-4740-A241-2D7A858C4E69}" name="T" dataDxfId="97"/>
+    <tableColumn id="1" xr3:uid="{43BD0317-77A6-4740-A241-2D7A858C4E69}" name="T" dataDxfId="146"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{9E2E4832-C19F-478D-A456-519BA1813DEC}" name="Table418" displayName="Table418" ref="A1:AH67" totalsRowShown="0" headerRowDxfId="96" dataDxfId="95" tableBorderDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{9E2E4832-C19F-478D-A456-519BA1813DEC}" name="Table418" displayName="Table418" ref="A1:AH67" totalsRowShown="0" headerRowDxfId="145" dataDxfId="144" tableBorderDxfId="143">
   <autoFilter ref="A1:AH67" xr:uid="{BB309F55-2353-4088-80C1-4F8101F63F11}"/>
   <tableColumns count="34">
-    <tableColumn id="1" xr3:uid="{1F5A7F6F-41C9-487F-8669-9AF7622E69DA}" name="D" dataDxfId="93"/>
-    <tableColumn id="2" xr3:uid="{B64F0FE7-B65F-466B-9EE1-1DF9E6AAC455}" name="M" dataDxfId="92"/>
-    <tableColumn id="3" xr3:uid="{69548EC2-C746-4CBE-AC6F-3553AE2E24BC}" name="M2" dataDxfId="91"/>
-    <tableColumn id="4" xr3:uid="{206671A6-F9A0-4970-A082-DFF66EE91E4B}" name="M3" dataDxfId="90"/>
-    <tableColumn id="5" xr3:uid="{85470080-8A45-4A6A-9D37-C2E25172BEB8}" name="M4" dataDxfId="89"/>
-    <tableColumn id="6" xr3:uid="{D29B6370-1880-4F30-8D2F-2F1A78F86BB5}" name="M5" dataDxfId="88"/>
-    <tableColumn id="7" xr3:uid="{543EC25A-9ABC-4BAF-BFB7-4BB449F8A34F}" name="M6" dataDxfId="87"/>
-    <tableColumn id="8" xr3:uid="{4F24F88D-0D5B-493C-95E1-5D189885E994}" name="M7" dataDxfId="86"/>
-    <tableColumn id="9" xr3:uid="{B8528547-1B55-4649-89F0-C3BD2133CFDE}" name="M8" dataDxfId="85"/>
-    <tableColumn id="10" xr3:uid="{D2FD23CE-20A8-40EA-A637-48526D9AE9B0}" name="M9" dataDxfId="84"/>
-    <tableColumn id="11" xr3:uid="{BD7ADC7E-D6FF-41FF-8188-5F6D6A5AF7D6}" name="M10" dataDxfId="83"/>
-    <tableColumn id="12" xr3:uid="{AA2187D4-0EA8-4F40-8C03-24DA1EE3BF68}" name="M11" dataDxfId="82"/>
-    <tableColumn id="13" xr3:uid="{497F0476-FDB3-402C-BE9A-4C5ADB5BAC9E}" name="M12" dataDxfId="81"/>
-    <tableColumn id="14" xr3:uid="{A5CB00D5-07D9-4AC9-BDA6-D31CF87368CC}" name="M13" dataDxfId="80"/>
-    <tableColumn id="15" xr3:uid="{B4872610-8B65-47AE-99FF-6602447CFB6A}" name="M14" dataDxfId="79"/>
-    <tableColumn id="16" xr3:uid="{EC0D7376-EBBD-464A-BFFE-6824A5A65196}" name="M15" dataDxfId="78"/>
-    <tableColumn id="17" xr3:uid="{7CF0BA04-CBF3-4CBE-B7B1-DC9F85647650}" name="M16" dataDxfId="77"/>
-    <tableColumn id="18" xr3:uid="{32AB2805-8AAC-4538-A205-EA0EC546B74D}" name="M17" dataDxfId="76"/>
-    <tableColumn id="19" xr3:uid="{DA7AEF28-86AE-443F-A56B-3A099B7FA724}" name="M18" dataDxfId="75"/>
-    <tableColumn id="20" xr3:uid="{4DBBB67A-F6C8-475F-9DE7-58820CF4DFFB}" name="M19" dataDxfId="74"/>
-    <tableColumn id="21" xr3:uid="{AE97E686-1079-44FD-BED1-3C5917C2EA30}" name="M20" dataDxfId="73"/>
-    <tableColumn id="22" xr3:uid="{AAB575E9-AD2C-4C62-99DB-9E306C3EAE99}" name="M21" dataDxfId="72"/>
-    <tableColumn id="23" xr3:uid="{21765574-EBD9-4605-828A-5F7C3C23D63E}" name="M22" dataDxfId="71"/>
-    <tableColumn id="24" xr3:uid="{0F4D2F44-8E48-4D55-A513-495A2106B0E9}" name="M23" dataDxfId="70"/>
-    <tableColumn id="25" xr3:uid="{6005E1EB-33AB-42F8-9A78-6447AEBD9002}" name="M24" dataDxfId="69"/>
-    <tableColumn id="26" xr3:uid="{36CEE4DC-26E7-461F-A000-5D4A4C4E0343}" name="M25" dataDxfId="68"/>
-    <tableColumn id="27" xr3:uid="{D6C4BE87-0DAB-41BF-98A6-F6DAF005E1AC}" name="M26" dataDxfId="67"/>
-    <tableColumn id="28" xr3:uid="{5843C8D5-2FFF-4801-9DED-190498302E30}" name="M27" dataDxfId="66"/>
-    <tableColumn id="29" xr3:uid="{9F23877D-5598-4A4A-AC85-67277B2C1DCA}" name="M28" dataDxfId="65"/>
-    <tableColumn id="30" xr3:uid="{750E61CB-6C11-4DD5-BE38-91A2086EBCED}" name="M29" dataDxfId="64"/>
-    <tableColumn id="31" xr3:uid="{F18C8A5F-16B6-476D-B4AC-CB6DEFA3E6E6}" name="M30" dataDxfId="63"/>
-    <tableColumn id="32" xr3:uid="{C7C51BFE-8CC2-4A7B-8EA0-269B00CE81D1}" name="M31" dataDxfId="62"/>
-    <tableColumn id="33" xr3:uid="{260CF93B-8F0D-46DF-831A-E1E020ED5364}" name="M32" dataDxfId="61"/>
-    <tableColumn id="34" xr3:uid="{FB8922A0-2EC5-4624-8316-403B6C9778AE}" name="M33" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{1F5A7F6F-41C9-487F-8669-9AF7622E69DA}" name="D" dataDxfId="142"/>
+    <tableColumn id="2" xr3:uid="{B64F0FE7-B65F-466B-9EE1-1DF9E6AAC455}" name="M" dataDxfId="141"/>
+    <tableColumn id="3" xr3:uid="{69548EC2-C746-4CBE-AC6F-3553AE2E24BC}" name="M2" dataDxfId="140"/>
+    <tableColumn id="4" xr3:uid="{206671A6-F9A0-4970-A082-DFF66EE91E4B}" name="M3" dataDxfId="139"/>
+    <tableColumn id="5" xr3:uid="{85470080-8A45-4A6A-9D37-C2E25172BEB8}" name="M4" dataDxfId="138"/>
+    <tableColumn id="6" xr3:uid="{D29B6370-1880-4F30-8D2F-2F1A78F86BB5}" name="M5" dataDxfId="137"/>
+    <tableColumn id="7" xr3:uid="{543EC25A-9ABC-4BAF-BFB7-4BB449F8A34F}" name="M6" dataDxfId="136"/>
+    <tableColumn id="8" xr3:uid="{4F24F88D-0D5B-493C-95E1-5D189885E994}" name="M7" dataDxfId="135"/>
+    <tableColumn id="9" xr3:uid="{B8528547-1B55-4649-89F0-C3BD2133CFDE}" name="M8" dataDxfId="134"/>
+    <tableColumn id="10" xr3:uid="{D2FD23CE-20A8-40EA-A637-48526D9AE9B0}" name="M9" dataDxfId="133"/>
+    <tableColumn id="11" xr3:uid="{BD7ADC7E-D6FF-41FF-8188-5F6D6A5AF7D6}" name="M10" dataDxfId="132"/>
+    <tableColumn id="12" xr3:uid="{AA2187D4-0EA8-4F40-8C03-24DA1EE3BF68}" name="M11" dataDxfId="131"/>
+    <tableColumn id="13" xr3:uid="{497F0476-FDB3-402C-BE9A-4C5ADB5BAC9E}" name="M12" dataDxfId="130"/>
+    <tableColumn id="14" xr3:uid="{A5CB00D5-07D9-4AC9-BDA6-D31CF87368CC}" name="M13" dataDxfId="129"/>
+    <tableColumn id="15" xr3:uid="{B4872610-8B65-47AE-99FF-6602447CFB6A}" name="M14" dataDxfId="128"/>
+    <tableColumn id="16" xr3:uid="{EC0D7376-EBBD-464A-BFFE-6824A5A65196}" name="M15" dataDxfId="127"/>
+    <tableColumn id="17" xr3:uid="{7CF0BA04-CBF3-4CBE-B7B1-DC9F85647650}" name="M16" dataDxfId="126"/>
+    <tableColumn id="18" xr3:uid="{32AB2805-8AAC-4538-A205-EA0EC546B74D}" name="M17" dataDxfId="125"/>
+    <tableColumn id="19" xr3:uid="{DA7AEF28-86AE-443F-A56B-3A099B7FA724}" name="M18" dataDxfId="124"/>
+    <tableColumn id="20" xr3:uid="{4DBBB67A-F6C8-475F-9DE7-58820CF4DFFB}" name="M19" dataDxfId="123"/>
+    <tableColumn id="21" xr3:uid="{AE97E686-1079-44FD-BED1-3C5917C2EA30}" name="M20" dataDxfId="122"/>
+    <tableColumn id="22" xr3:uid="{AAB575E9-AD2C-4C62-99DB-9E306C3EAE99}" name="M21" dataDxfId="121"/>
+    <tableColumn id="23" xr3:uid="{21765574-EBD9-4605-828A-5F7C3C23D63E}" name="M22" dataDxfId="120"/>
+    <tableColumn id="24" xr3:uid="{0F4D2F44-8E48-4D55-A513-495A2106B0E9}" name="M23" dataDxfId="119"/>
+    <tableColumn id="25" xr3:uid="{6005E1EB-33AB-42F8-9A78-6447AEBD9002}" name="M24" dataDxfId="118"/>
+    <tableColumn id="26" xr3:uid="{36CEE4DC-26E7-461F-A000-5D4A4C4E0343}" name="M25" dataDxfId="117"/>
+    <tableColumn id="27" xr3:uid="{D6C4BE87-0DAB-41BF-98A6-F6DAF005E1AC}" name="M26" dataDxfId="116"/>
+    <tableColumn id="28" xr3:uid="{5843C8D5-2FFF-4801-9DED-190498302E30}" name="M27" dataDxfId="115"/>
+    <tableColumn id="29" xr3:uid="{9F23877D-5598-4A4A-AC85-67277B2C1DCA}" name="M28" dataDxfId="114"/>
+    <tableColumn id="30" xr3:uid="{750E61CB-6C11-4DD5-BE38-91A2086EBCED}" name="M29" dataDxfId="113"/>
+    <tableColumn id="31" xr3:uid="{F18C8A5F-16B6-476D-B4AC-CB6DEFA3E6E6}" name="M30" dataDxfId="112"/>
+    <tableColumn id="32" xr3:uid="{C7C51BFE-8CC2-4A7B-8EA0-269B00CE81D1}" name="M31" dataDxfId="111"/>
+    <tableColumn id="33" xr3:uid="{260CF93B-8F0D-46DF-831A-E1E020ED5364}" name="M32" dataDxfId="110"/>
+    <tableColumn id="34" xr3:uid="{FB8922A0-2EC5-4624-8316-403B6C9778AE}" name="M33" dataDxfId="109"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{AB0D04A3-F68F-4051-BE9F-5D7907249D1C}" name="Table11719" displayName="Table11719" ref="A1:A52" totalsRowShown="0" headerRowDxfId="59" dataDxfId="54" headerRowBorderDxfId="57" tableBorderDxfId="58" totalsRowBorderDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{AB0D04A3-F68F-4051-BE9F-5D7907249D1C}" name="Table11719" displayName="Table11719" ref="A1:A52" totalsRowShown="0" headerRowDxfId="108" dataDxfId="106" headerRowBorderDxfId="107" tableBorderDxfId="105" totalsRowBorderDxfId="104">
   <autoFilter ref="A1:A52" xr:uid="{AB0D04A3-F68F-4051-BE9F-5D7907249D1C}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{9D0573B8-93F7-4BFA-B04E-02E263F9A60C}" name="T" dataDxfId="55"/>
+    <tableColumn id="1" xr3:uid="{9D0573B8-93F7-4BFA-B04E-02E263F9A60C}" name="T" dataDxfId="103"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{A93BA4A2-D9CB-45B5-9335-66059909871C}" name="Table19" displayName="Table19" ref="A1:AZ57" totalsRowShown="0" dataDxfId="0" tableBorderDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{A93BA4A2-D9CB-45B5-9335-66059909871C}" name="Table19" displayName="Table19" ref="A1:AZ57" totalsRowShown="0" dataDxfId="102" tableBorderDxfId="101">
   <autoFilter ref="A1:AZ57" xr:uid="{A93BA4A2-D9CB-45B5-9335-66059909871C}"/>
   <tableColumns count="52">
-    <tableColumn id="1" xr3:uid="{B0FCA51E-84B4-4333-AA04-52489321E07A}" name="D" dataDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{D3A98256-5C4E-4836-B9DF-4230A7709B19}" name="M" dataDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{4E9CD124-119E-4BD3-95E4-9B76DEC4FF5D}" name="M2" dataDxfId="50"/>
-    <tableColumn id="4" xr3:uid="{A4B62DB5-0224-4A59-B1F4-18C50383A6D6}" name="M3" dataDxfId="49"/>
-    <tableColumn id="5" xr3:uid="{2908DF39-6646-4901-AC53-00F3C04AADDC}" name="M4" dataDxfId="48"/>
-    <tableColumn id="6" xr3:uid="{4BA19EEC-94D2-4A71-9DEF-7DBA42B35E74}" name="M5" dataDxfId="47"/>
-    <tableColumn id="7" xr3:uid="{7E6D0E8C-C982-4F3F-AF23-09F3B993DA18}" name="M6" dataDxfId="46"/>
-    <tableColumn id="8" xr3:uid="{AE467F27-E89B-4162-8927-2C16C45CF698}" name="M7" dataDxfId="45"/>
-    <tableColumn id="9" xr3:uid="{6B6111E8-4D26-48E2-932C-383AA5050959}" name="M8" dataDxfId="44"/>
-    <tableColumn id="10" xr3:uid="{98388345-DD57-4708-BA9F-F5EE0DFC27D1}" name="M9" dataDxfId="43"/>
-    <tableColumn id="11" xr3:uid="{62C85893-24A3-4953-AD3B-17144E760593}" name="M10" dataDxfId="42"/>
-    <tableColumn id="12" xr3:uid="{4CD8DB0B-C2E4-4DE5-9752-C75EA8CC76A7}" name="M11" dataDxfId="41"/>
-    <tableColumn id="13" xr3:uid="{B661AE1E-8B4F-4328-AF1D-FEEE2B96C6F7}" name="M12" dataDxfId="40"/>
-    <tableColumn id="14" xr3:uid="{01BFDB86-A6BE-4953-B806-278014EBCF54}" name="M13" dataDxfId="39"/>
-    <tableColumn id="15" xr3:uid="{6148BEAE-7412-4439-8C28-C9D04DC5CEE9}" name="M14" dataDxfId="38"/>
-    <tableColumn id="16" xr3:uid="{C393BF4F-D479-452B-BFE4-88C70608ED3A}" name="M15" dataDxfId="37"/>
-    <tableColumn id="17" xr3:uid="{A6C578A7-4334-4A1F-9B91-84736109364D}" name="M16" dataDxfId="36"/>
-    <tableColumn id="18" xr3:uid="{9782DA05-BE94-4B71-8960-A4AA17822372}" name="M17" dataDxfId="35"/>
-    <tableColumn id="19" xr3:uid="{11C63B7B-7255-4E65-A2B7-1BAF4DFA1705}" name="M18" dataDxfId="34"/>
-    <tableColumn id="20" xr3:uid="{72824522-D333-4E9C-8F49-836937255512}" name="M19" dataDxfId="33"/>
-    <tableColumn id="21" xr3:uid="{8B54272D-4F44-4CF2-AF06-864BE674D5F8}" name="M20" dataDxfId="32"/>
-    <tableColumn id="22" xr3:uid="{940A9E47-0E27-4002-BB65-BC0B6AE034EB}" name="M21" dataDxfId="31"/>
-    <tableColumn id="23" xr3:uid="{4B40B54E-41FE-47CE-A83F-E0134D1E18B2}" name="M22" dataDxfId="30"/>
-    <tableColumn id="24" xr3:uid="{BDD36221-7DCB-438F-A942-3AF47464339D}" name="M23" dataDxfId="29"/>
-    <tableColumn id="25" xr3:uid="{04AC937D-351F-4DCF-9E38-46E772295FC5}" name="M24" dataDxfId="28"/>
-    <tableColumn id="26" xr3:uid="{6E722457-DDC8-4EEC-A204-1BD5D49544B6}" name="M25" dataDxfId="27"/>
-    <tableColumn id="27" xr3:uid="{CDC40DE4-51F6-43D3-A438-045D40FFB049}" name="M26" dataDxfId="26"/>
-    <tableColumn id="28" xr3:uid="{FD33E98C-8FB5-4D61-B116-7E789AD5C550}" name="M27" dataDxfId="25"/>
-    <tableColumn id="29" xr3:uid="{F60C8998-055C-498C-91BE-3ED6A458E6C3}" name="M28" dataDxfId="24"/>
-    <tableColumn id="30" xr3:uid="{4E67F026-8032-4F93-A47E-F8C6F7ECD2AB}" name="M29" dataDxfId="23"/>
-    <tableColumn id="31" xr3:uid="{002AD13E-635E-4499-9520-7FA75C7FCC22}" name="M30" dataDxfId="22"/>
-    <tableColumn id="32" xr3:uid="{C64E184E-9ABA-4053-BAB0-76C6752C2513}" name="M31" dataDxfId="21"/>
-    <tableColumn id="33" xr3:uid="{B1E5B6ED-BE75-48DA-9F9A-3BAB4832C2B2}" name="M32" dataDxfId="20"/>
-    <tableColumn id="34" xr3:uid="{490AE303-DDFC-4B11-B078-2B346631A3C0}" name="M33" dataDxfId="19"/>
-    <tableColumn id="35" xr3:uid="{9CD13D72-C747-4FCA-A37D-CBE125E1E234}" name="M34" dataDxfId="18"/>
-    <tableColumn id="36" xr3:uid="{9067AE31-459D-4036-8A5A-60017C757321}" name="M35" dataDxfId="17"/>
-    <tableColumn id="37" xr3:uid="{40369965-6F4C-4B88-BD51-D0E4C59CB106}" name="M36" dataDxfId="16"/>
-    <tableColumn id="38" xr3:uid="{7DE8C353-AACD-4CF8-8272-593CE23524AD}" name="M37" dataDxfId="15"/>
-    <tableColumn id="39" xr3:uid="{DF24D15C-1E84-47C1-85A9-D3464059A365}" name="M38" dataDxfId="14"/>
-    <tableColumn id="40" xr3:uid="{57060080-D98E-49BA-B6F1-22DA4F648CA3}" name="M39" dataDxfId="13"/>
-    <tableColumn id="41" xr3:uid="{3108575A-27B5-4E2E-A7DE-204E19276E14}" name="M40" dataDxfId="12"/>
-    <tableColumn id="42" xr3:uid="{EB3EF481-5C1E-4518-852B-441A57F89302}" name="M41" dataDxfId="11"/>
-    <tableColumn id="43" xr3:uid="{D08EBD83-F735-49DC-A390-BC984DF009AC}" name="M42" dataDxfId="10"/>
-    <tableColumn id="44" xr3:uid="{88B73EAE-1B54-4281-8A38-01E2722BCC57}" name="M43" dataDxfId="9"/>
-    <tableColumn id="45" xr3:uid="{E0A7DDC8-CCD2-44D1-A7A3-92089FDE01F0}" name="M44" dataDxfId="8"/>
-    <tableColumn id="46" xr3:uid="{9BC3FAE0-F15A-4AE5-BADE-D123CE5DA552}" name="M45" dataDxfId="7"/>
-    <tableColumn id="47" xr3:uid="{D7671C72-1AA0-4C8E-B31E-F64C0415EB15}" name="M46" dataDxfId="6"/>
-    <tableColumn id="48" xr3:uid="{4DD000BF-BB8D-411B-B7DF-32EBF8E3A0AD}" name="M47" dataDxfId="5"/>
-    <tableColumn id="49" xr3:uid="{150D7822-16AD-41A8-8121-E43FE2CDA6B0}" name="M48" dataDxfId="4"/>
-    <tableColumn id="50" xr3:uid="{4B5A3D32-F13F-4100-8123-1FDD9DB25E73}" name="M49" dataDxfId="3"/>
-    <tableColumn id="51" xr3:uid="{31B34854-DCEB-43EA-8515-81708DD32E47}" name="M50" dataDxfId="2"/>
-    <tableColumn id="52" xr3:uid="{46259BA1-802E-42EA-A01C-983DC5B5CE20}" name="M51" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{B0FCA51E-84B4-4333-AA04-52489321E07A}" name="D" dataDxfId="100"/>
+    <tableColumn id="2" xr3:uid="{D3A98256-5C4E-4836-B9DF-4230A7709B19}" name="M" dataDxfId="99"/>
+    <tableColumn id="3" xr3:uid="{4E9CD124-119E-4BD3-95E4-9B76DEC4FF5D}" name="M2" dataDxfId="98"/>
+    <tableColumn id="4" xr3:uid="{A4B62DB5-0224-4A59-B1F4-18C50383A6D6}" name="M3" dataDxfId="97"/>
+    <tableColumn id="5" xr3:uid="{2908DF39-6646-4901-AC53-00F3C04AADDC}" name="M4" dataDxfId="96"/>
+    <tableColumn id="6" xr3:uid="{4BA19EEC-94D2-4A71-9DEF-7DBA42B35E74}" name="M5" dataDxfId="95"/>
+    <tableColumn id="7" xr3:uid="{7E6D0E8C-C982-4F3F-AF23-09F3B993DA18}" name="M6" dataDxfId="94"/>
+    <tableColumn id="8" xr3:uid="{AE467F27-E89B-4162-8927-2C16C45CF698}" name="M7" dataDxfId="93"/>
+    <tableColumn id="9" xr3:uid="{6B6111E8-4D26-48E2-932C-383AA5050959}" name="M8" dataDxfId="92"/>
+    <tableColumn id="10" xr3:uid="{98388345-DD57-4708-BA9F-F5EE0DFC27D1}" name="M9" dataDxfId="91"/>
+    <tableColumn id="11" xr3:uid="{62C85893-24A3-4953-AD3B-17144E760593}" name="M10" dataDxfId="90"/>
+    <tableColumn id="12" xr3:uid="{4CD8DB0B-C2E4-4DE5-9752-C75EA8CC76A7}" name="M11" dataDxfId="89"/>
+    <tableColumn id="13" xr3:uid="{B661AE1E-8B4F-4328-AF1D-FEEE2B96C6F7}" name="M12" dataDxfId="88"/>
+    <tableColumn id="14" xr3:uid="{01BFDB86-A6BE-4953-B806-278014EBCF54}" name="M13" dataDxfId="87"/>
+    <tableColumn id="15" xr3:uid="{6148BEAE-7412-4439-8C28-C9D04DC5CEE9}" name="M14" dataDxfId="86"/>
+    <tableColumn id="16" xr3:uid="{C393BF4F-D479-452B-BFE4-88C70608ED3A}" name="M15" dataDxfId="85"/>
+    <tableColumn id="17" xr3:uid="{A6C578A7-4334-4A1F-9B91-84736109364D}" name="M16" dataDxfId="84"/>
+    <tableColumn id="18" xr3:uid="{9782DA05-BE94-4B71-8960-A4AA17822372}" name="M17" dataDxfId="83"/>
+    <tableColumn id="19" xr3:uid="{11C63B7B-7255-4E65-A2B7-1BAF4DFA1705}" name="M18" dataDxfId="82"/>
+    <tableColumn id="20" xr3:uid="{72824522-D333-4E9C-8F49-836937255512}" name="M19" dataDxfId="81"/>
+    <tableColumn id="21" xr3:uid="{8B54272D-4F44-4CF2-AF06-864BE674D5F8}" name="M20" dataDxfId="80"/>
+    <tableColumn id="22" xr3:uid="{940A9E47-0E27-4002-BB65-BC0B6AE034EB}" name="M21" dataDxfId="79"/>
+    <tableColumn id="23" xr3:uid="{4B40B54E-41FE-47CE-A83F-E0134D1E18B2}" name="M22" dataDxfId="78"/>
+    <tableColumn id="24" xr3:uid="{BDD36221-7DCB-438F-A942-3AF47464339D}" name="M23" dataDxfId="77"/>
+    <tableColumn id="25" xr3:uid="{04AC937D-351F-4DCF-9E38-46E772295FC5}" name="M24" dataDxfId="76"/>
+    <tableColumn id="26" xr3:uid="{6E722457-DDC8-4EEC-A204-1BD5D49544B6}" name="M25" dataDxfId="75"/>
+    <tableColumn id="27" xr3:uid="{CDC40DE4-51F6-43D3-A438-045D40FFB049}" name="M26" dataDxfId="74"/>
+    <tableColumn id="28" xr3:uid="{FD33E98C-8FB5-4D61-B116-7E789AD5C550}" name="M27" dataDxfId="73"/>
+    <tableColumn id="29" xr3:uid="{F60C8998-055C-498C-91BE-3ED6A458E6C3}" name="M28" dataDxfId="72"/>
+    <tableColumn id="30" xr3:uid="{4E67F026-8032-4F93-A47E-F8C6F7ECD2AB}" name="M29" dataDxfId="71"/>
+    <tableColumn id="31" xr3:uid="{002AD13E-635E-4499-9520-7FA75C7FCC22}" name="M30" dataDxfId="70"/>
+    <tableColumn id="32" xr3:uid="{C64E184E-9ABA-4053-BAB0-76C6752C2513}" name="M31" dataDxfId="69"/>
+    <tableColumn id="33" xr3:uid="{B1E5B6ED-BE75-48DA-9F9A-3BAB4832C2B2}" name="M32" dataDxfId="68"/>
+    <tableColumn id="34" xr3:uid="{490AE303-DDFC-4B11-B078-2B346631A3C0}" name="M33" dataDxfId="67"/>
+    <tableColumn id="35" xr3:uid="{9CD13D72-C747-4FCA-A37D-CBE125E1E234}" name="M34" dataDxfId="66"/>
+    <tableColumn id="36" xr3:uid="{9067AE31-459D-4036-8A5A-60017C757321}" name="M35" dataDxfId="65"/>
+    <tableColumn id="37" xr3:uid="{40369965-6F4C-4B88-BD51-D0E4C59CB106}" name="M36" dataDxfId="64"/>
+    <tableColumn id="38" xr3:uid="{7DE8C353-AACD-4CF8-8272-593CE23524AD}" name="M37" dataDxfId="63"/>
+    <tableColumn id="39" xr3:uid="{DF24D15C-1E84-47C1-85A9-D3464059A365}" name="M38" dataDxfId="62"/>
+    <tableColumn id="40" xr3:uid="{57060080-D98E-49BA-B6F1-22DA4F648CA3}" name="M39" dataDxfId="61"/>
+    <tableColumn id="41" xr3:uid="{3108575A-27B5-4E2E-A7DE-204E19276E14}" name="M40" dataDxfId="60"/>
+    <tableColumn id="42" xr3:uid="{EB3EF481-5C1E-4518-852B-441A57F89302}" name="M41" dataDxfId="59"/>
+    <tableColumn id="43" xr3:uid="{D08EBD83-F735-49DC-A390-BC984DF009AC}" name="M42" dataDxfId="58"/>
+    <tableColumn id="44" xr3:uid="{88B73EAE-1B54-4281-8A38-01E2722BCC57}" name="M43" dataDxfId="57"/>
+    <tableColumn id="45" xr3:uid="{E0A7DDC8-CCD2-44D1-A7A3-92089FDE01F0}" name="M44" dataDxfId="56"/>
+    <tableColumn id="46" xr3:uid="{9BC3FAE0-F15A-4AE5-BADE-D123CE5DA552}" name="M45" dataDxfId="55"/>
+    <tableColumn id="47" xr3:uid="{D7671C72-1AA0-4C8E-B31E-F64C0415EB15}" name="M46" dataDxfId="54"/>
+    <tableColumn id="48" xr3:uid="{4DD000BF-BB8D-411B-B7DF-32EBF8E3A0AD}" name="M47" dataDxfId="53"/>
+    <tableColumn id="49" xr3:uid="{150D7822-16AD-41A8-8121-E43FE2CDA6B0}" name="M48" dataDxfId="52"/>
+    <tableColumn id="50" xr3:uid="{4B5A3D32-F13F-4100-8123-1FDD9DB25E73}" name="M49" dataDxfId="51"/>
+    <tableColumn id="51" xr3:uid="{31B34854-DCEB-43EA-8515-81708DD32E47}" name="M50" dataDxfId="50"/>
+    <tableColumn id="52" xr3:uid="{46259BA1-802E-42EA-A01C-983DC5B5CE20}" name="M51" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1119B685-EE38-4744-A3F2-0277FCA23CC4}" name="Table2" displayName="Table2" ref="A1:D307" totalsRowShown="0" headerRowDxfId="193" dataDxfId="191" headerRowBorderDxfId="192" tableBorderDxfId="190">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1119B685-EE38-4744-A3F2-0277FCA23CC4}" name="Table2" displayName="Table2" ref="A1:D307" totalsRowShown="0" headerRowDxfId="242" dataDxfId="240" headerRowBorderDxfId="241" tableBorderDxfId="239">
   <autoFilter ref="A1:D307" xr:uid="{1119B685-EE38-4744-A3F2-0277FCA23CC4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{E4A9920B-2FCD-44F7-9CBA-867F2DB3A3BA}" name="W" dataDxfId="189"/>
-    <tableColumn id="2" xr3:uid="{7DEE8CD5-8A76-4B4F-8471-E37764F3169B}" name="H" dataDxfId="188"/>
-    <tableColumn id="3" xr3:uid="{483FC679-6CBC-4E54-ACE4-41DB7B408393}" name="T" dataDxfId="187"/>
-    <tableColumn id="4" xr3:uid="{243B8433-1B25-42C0-ABDB-B4660E1A86EF}" name="M" dataDxfId="186"/>
+    <tableColumn id="1" xr3:uid="{E4A9920B-2FCD-44F7-9CBA-867F2DB3A3BA}" name="W" dataDxfId="238"/>
+    <tableColumn id="2" xr3:uid="{7DEE8CD5-8A76-4B4F-8471-E37764F3169B}" name="H" dataDxfId="237"/>
+    <tableColumn id="3" xr3:uid="{483FC679-6CBC-4E54-ACE4-41DB7B408393}" name="T" dataDxfId="236"/>
+    <tableColumn id="4" xr3:uid="{243B8433-1B25-42C0-ABDB-B4660E1A86EF}" name="M" dataDxfId="235"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{6B8617D4-8328-4FCB-889B-204A6B9254FA}" name="Table1171921" displayName="Table1171921" ref="B1:B40" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47" headerRowBorderDxfId="45" tableBorderDxfId="46" totalsRowBorderDxfId="44">
+  <autoFilter ref="B1:B40" xr:uid="{6B8617D4-8328-4FCB-889B-204A6B9254FA}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{574361D2-3777-4757-8F2F-9DF807E07796}" name="T" dataDxfId="43"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{42966D44-8A67-473A-A541-73F8EB1B4CEF}" name="Table21" displayName="Table21" ref="A1:AN72" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="42">
+  <autoFilter ref="A1:AN72" xr:uid="{42966D44-8A67-473A-A541-73F8EB1B4CEF}"/>
+  <tableColumns count="40">
+    <tableColumn id="1" xr3:uid="{E3B5F6E0-125D-4526-B34A-753BEE3BE7EF}" name="D" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{0ADE74D7-ABF8-4D0F-BADC-711657CC2E23}" name="M" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{9C98CB41-8317-4A49-9827-59C374AB1BEB}" name="M2" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{3CBADF0C-C9F5-4189-9C6F-3C3C9DCDBA70}" name="M3" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{CEEA9F1C-BB1E-40C6-89B1-9356EC0E813A}" name="M4" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{0ED3D8A4-CB54-49D2-8431-97BF6DC15D16}" name="M5" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{BE8F8616-329A-4D5F-96C1-435986DCC2F9}" name="M6" dataDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{E7C032DE-6A4F-4E52-9078-FE9B96EDE3B4}" name="M7" dataDxfId="34"/>
+    <tableColumn id="9" xr3:uid="{29329F5B-0746-4820-87FE-BEEFCA749AEF}" name="M8" dataDxfId="33"/>
+    <tableColumn id="10" xr3:uid="{46FD5399-F2C0-455B-BC41-FF135143FB52}" name="M9" dataDxfId="32"/>
+    <tableColumn id="11" xr3:uid="{04D4F930-1253-4965-82F4-357D1A3D2D4D}" name="M10" dataDxfId="31"/>
+    <tableColumn id="12" xr3:uid="{D89D07A0-0844-457B-93C7-0E45FF749F94}" name="M11" dataDxfId="30"/>
+    <tableColumn id="13" xr3:uid="{FF46833C-B2A1-4D12-ABDF-41E8E290E317}" name="M12" dataDxfId="29"/>
+    <tableColumn id="14" xr3:uid="{30D78C1D-01D4-473E-AD59-E90DBC6C5451}" name="M13" dataDxfId="28"/>
+    <tableColumn id="15" xr3:uid="{659D2E83-EEC9-468E-B788-974797256CA5}" name="M14" dataDxfId="27"/>
+    <tableColumn id="16" xr3:uid="{D59D36EC-59AB-4EBF-97CD-7D7FB8EC7C3B}" name="M15" dataDxfId="26"/>
+    <tableColumn id="17" xr3:uid="{0BA48D21-B3D6-412C-9C97-AE33A8F00BD2}" name="M16" dataDxfId="25"/>
+    <tableColumn id="18" xr3:uid="{A0348323-2544-4849-AE11-F63A8D4DCCC1}" name="M17" dataDxfId="24"/>
+    <tableColumn id="19" xr3:uid="{713D2540-00B5-4B44-A649-D16A258DCFCA}" name="M18" dataDxfId="23"/>
+    <tableColumn id="20" xr3:uid="{2265E0AF-B51E-44F1-A3C4-3A58993F633D}" name="M19" dataDxfId="22"/>
+    <tableColumn id="21" xr3:uid="{3963EA20-DBFD-41C8-BFDA-CCE58BC7CD44}" name="M20" dataDxfId="21"/>
+    <tableColumn id="22" xr3:uid="{83D342A8-3B3E-4F4A-8B3B-B29A7392027F}" name="M21" dataDxfId="20"/>
+    <tableColumn id="23" xr3:uid="{1483DADC-E89A-46E4-A6B1-479859FD92AE}" name="M22" dataDxfId="19"/>
+    <tableColumn id="24" xr3:uid="{C0F514D2-DAB8-4FA2-A519-D594106AF8D7}" name="M23" dataDxfId="18"/>
+    <tableColumn id="25" xr3:uid="{74F5C63F-E8BE-4754-BEBD-6FF86F25E9ED}" name="M24" dataDxfId="17"/>
+    <tableColumn id="26" xr3:uid="{3C9E5049-A0B9-4E2F-A58C-70BCD54717B5}" name="M25" dataDxfId="16"/>
+    <tableColumn id="27" xr3:uid="{68D5F1C8-7F82-4337-8B6F-A169940C6DD8}" name="M26" dataDxfId="15"/>
+    <tableColumn id="28" xr3:uid="{BE61DA6F-23CA-4941-9826-2EA937292AFB}" name="M27" dataDxfId="14"/>
+    <tableColumn id="29" xr3:uid="{58BA6FE6-1F0B-44ED-94A9-4B292DE955E1}" name="M28" dataDxfId="13"/>
+    <tableColumn id="30" xr3:uid="{A745840E-533C-45AD-9F0A-CC9A809FBAA8}" name="M29" dataDxfId="12"/>
+    <tableColumn id="31" xr3:uid="{12C2EAEB-3FB9-4ED5-9DB9-07F3AC8A86E4}" name="M30" dataDxfId="11"/>
+    <tableColumn id="32" xr3:uid="{23F4A513-88A6-476F-B243-618D6F29D9BF}" name="M31" dataDxfId="10"/>
+    <tableColumn id="33" xr3:uid="{3814F207-DF04-4191-B7F1-2B337BB5D3F8}" name="M32" dataDxfId="9"/>
+    <tableColumn id="34" xr3:uid="{EBD8F46C-A51F-4BC0-9448-C05E23D1FD96}" name="M33" dataDxfId="8"/>
+    <tableColumn id="35" xr3:uid="{5BD0F06C-0BD0-45B7-91DE-56B99AE2C079}" name="M34" dataDxfId="7"/>
+    <tableColumn id="36" xr3:uid="{E215255E-6DAE-4C02-BB5C-64BCCFA798E3}" name="M35" dataDxfId="6"/>
+    <tableColumn id="37" xr3:uid="{6796147C-CFD6-4503-9CF1-0C0A6548884D}" name="M36" dataDxfId="5"/>
+    <tableColumn id="38" xr3:uid="{19EE7975-89B1-44A2-B07A-907D8EBB8FE2}" name="M37" dataDxfId="4"/>
+    <tableColumn id="39" xr3:uid="{DBBA3E03-A0AF-42AF-A00C-A9441E1CA2C3}" name="M38" dataDxfId="3"/>
+    <tableColumn id="40" xr3:uid="{1A1F7F0F-B62A-421F-BE1D-B5111C34AFAF}" name="M39" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{38506F01-E960-459C-927A-1C1572B9A216}" name="Table6" displayName="Table6" ref="A1:D190" totalsRowShown="0" headerRowDxfId="185" headerRowBorderDxfId="184" tableBorderDxfId="183">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{38506F01-E960-459C-927A-1C1572B9A216}" name="Table6" displayName="Table6" ref="A1:D190" totalsRowShown="0" headerRowDxfId="234" headerRowBorderDxfId="233" tableBorderDxfId="232">
   <autoFilter ref="A1:D190" xr:uid="{38506F01-E960-459C-927A-1C1572B9A216}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{841719B2-8EB9-440E-B847-9BA84F5357D5}" name="W"/>
@@ -5369,20 +6323,20 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{F25358CC-EF55-4BF2-B9EC-3C9523E4BBBA}" name="Table13" displayName="Table13" ref="A1:D418" totalsRowShown="0" headerRowDxfId="182" dataDxfId="180" headerRowBorderDxfId="181" tableBorderDxfId="179">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{F25358CC-EF55-4BF2-B9EC-3C9523E4BBBA}" name="Table13" displayName="Table13" ref="A1:D418" totalsRowShown="0" headerRowDxfId="231" dataDxfId="229" headerRowBorderDxfId="230" tableBorderDxfId="228">
   <autoFilter ref="A1:D418" xr:uid="{F25358CC-EF55-4BF2-B9EC-3C9523E4BBBA}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{6AEEBFA3-1B6D-4809-876B-8D899CA3D61B}" name="W" dataDxfId="178"/>
-    <tableColumn id="2" xr3:uid="{65C6AA25-63A5-4439-879C-2E9BFA3D2478}" name="H" dataDxfId="177"/>
-    <tableColumn id="3" xr3:uid="{95CD7DE3-690B-474B-9CEB-46B857BC42EF}" name="T" dataDxfId="176"/>
-    <tableColumn id="4" xr3:uid="{850DB660-570E-4621-BF26-F4D3274F9C9E}" name="M" dataDxfId="175"/>
+    <tableColumn id="1" xr3:uid="{6AEEBFA3-1B6D-4809-876B-8D899CA3D61B}" name="W" dataDxfId="227"/>
+    <tableColumn id="2" xr3:uid="{65C6AA25-63A5-4439-879C-2E9BFA3D2478}" name="H" dataDxfId="226"/>
+    <tableColumn id="3" xr3:uid="{95CD7DE3-690B-474B-9CEB-46B857BC42EF}" name="T" dataDxfId="225"/>
+    <tableColumn id="4" xr3:uid="{850DB660-570E-4621-BF26-F4D3274F9C9E}" name="M" dataDxfId="224"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C7D6F2B6-6C09-444A-A499-06987128E30B}" name="Table3" displayName="Table3" ref="A1:C216" totalsRowShown="0" headerRowDxfId="174">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C7D6F2B6-6C09-444A-A499-06987128E30B}" name="Table3" displayName="Table3" ref="A1:C216" totalsRowShown="0" headerRowDxfId="223">
   <autoFilter ref="A1:C216" xr:uid="{C7D6F2B6-6C09-444A-A499-06987128E30B}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{23A866F8-81ED-4488-838F-2372534EFBFD}" name="W"/>
@@ -5394,7 +6348,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{50C9BC12-D9D9-47CA-935D-7B3E4E6EC964}" name="Table4" displayName="Table4" ref="A1:C222" totalsRowShown="0" headerRowDxfId="173" headerRowBorderDxfId="172" tableBorderDxfId="171">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{50C9BC12-D9D9-47CA-935D-7B3E4E6EC964}" name="Table4" displayName="Table4" ref="A1:C222" totalsRowShown="0" headerRowDxfId="222" headerRowBorderDxfId="221" tableBorderDxfId="220">
   <autoFilter ref="A1:C222" xr:uid="{50C9BC12-D9D9-47CA-935D-7B3E4E6EC964}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{38A2F959-DC6B-4CDB-A3B8-602F02FF11C9}" name="W"/>
@@ -5406,23 +6360,23 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AD3C9691-9AEF-4707-9D5E-E2D3ACC3BC1F}" name="Table5" displayName="Table5" ref="A1:G68" totalsRowShown="0" headerRowDxfId="170" dataDxfId="169">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AD3C9691-9AEF-4707-9D5E-E2D3ACC3BC1F}" name="Table5" displayName="Table5" ref="A1:G68" totalsRowShown="0" headerRowDxfId="219" dataDxfId="218">
   <autoFilter ref="A1:G68" xr:uid="{AD3C9691-9AEF-4707-9D5E-E2D3ACC3BC1F}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{BF3CAACB-3E93-4E16-A7D5-7D0B99658E31}" name="N" dataDxfId="168"/>
-    <tableColumn id="2" xr3:uid="{F86046F2-E9E2-4B0A-838B-CBB0ACA5FE8F}" name="M" dataDxfId="167"/>
-    <tableColumn id="3" xr3:uid="{2D30C7D1-0358-4A45-B90C-374E33A4C9C8}" name="h" dataDxfId="166"/>
-    <tableColumn id="4" xr3:uid="{E6FD9FB2-C587-4BC0-A06E-752BE42C388E}" name="b" dataDxfId="165"/>
-    <tableColumn id="5" xr3:uid="{2AAD7EDF-F68E-425D-84E4-7F3A35E2672D}" name="s" dataDxfId="164"/>
-    <tableColumn id="6" xr3:uid="{7900BF1B-9DAF-4F1D-94E3-121948A6CE62}" name="t" dataDxfId="163"/>
-    <tableColumn id="7" xr3:uid="{E27AA0CC-F5C5-4FFF-9420-D4774C17607E}" name="A" dataDxfId="162"/>
+    <tableColumn id="1" xr3:uid="{BF3CAACB-3E93-4E16-A7D5-7D0B99658E31}" name="N" dataDxfId="217"/>
+    <tableColumn id="2" xr3:uid="{F86046F2-E9E2-4B0A-838B-CBB0ACA5FE8F}" name="M" dataDxfId="216"/>
+    <tableColumn id="3" xr3:uid="{2D30C7D1-0358-4A45-B90C-374E33A4C9C8}" name="h" dataDxfId="215"/>
+    <tableColumn id="4" xr3:uid="{E6FD9FB2-C587-4BC0-A06E-752BE42C388E}" name="b" dataDxfId="214"/>
+    <tableColumn id="5" xr3:uid="{2AAD7EDF-F68E-425D-84E4-7F3A35E2672D}" name="s" dataDxfId="213"/>
+    <tableColumn id="6" xr3:uid="{7900BF1B-9DAF-4F1D-94E3-121948A6CE62}" name="t" dataDxfId="212"/>
+    <tableColumn id="7" xr3:uid="{E27AA0CC-F5C5-4FFF-9420-D4774C17607E}" name="A" dataDxfId="211"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F452C68D-D48E-42EB-AED0-5FA065F4CC54}" name="Table8" displayName="Table8" ref="A1:G22" totalsRowShown="0" headerRowDxfId="161" headerRowBorderDxfId="160">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{F452C68D-D48E-42EB-AED0-5FA065F4CC54}" name="Table8" displayName="Table8" ref="A1:G22" totalsRowShown="0" headerRowDxfId="210" headerRowBorderDxfId="209">
   <autoFilter ref="A1:G22" xr:uid="{F452C68D-D48E-42EB-AED0-5FA065F4CC54}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{7FFC648A-1EA6-41A9-9A18-4B870785C06C}" name="N"/>
@@ -5438,7 +6392,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{49FDFE3A-F7C7-4F7B-BBA8-9E5575EB46B7}" name="Table7" displayName="Table7" ref="A1:G1048576" totalsRowShown="0" headerRowDxfId="159" headerRowBorderDxfId="158">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{49FDFE3A-F7C7-4F7B-BBA8-9E5575EB46B7}" name="Table7" displayName="Table7" ref="A1:G1048576" totalsRowShown="0" headerRowDxfId="208" headerRowBorderDxfId="207">
   <autoFilter ref="A1:G1048576" xr:uid="{49FDFE3A-F7C7-4F7B-BBA8-9E5575EB46B7}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{EE7EE8CC-215B-4A53-B3E3-9AE13EA92FB5}" name="N"/>
@@ -18881,8 +19835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74BFD5D1-F0FB-456F-B4C0-6148D132F441}">
   <dimension ref="A1:A52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection sqref="A1:A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19160,8 +20114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30DBC264-2C03-4B40-B1CD-425457F07213}">
   <dimension ref="A1:AZ57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29815,6 +30769,6954 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFCCAF1-4AF9-4F84-87F4-CB8F655D97BE}">
+  <dimension ref="B1:B40"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="40">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="40">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="40">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="40">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="40">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="40">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="40">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="40">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="40">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="40">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="40">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="40">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="40">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="40">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="40">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="40">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="40">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="40">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="40">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="40">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="40">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="40">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="40">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="48">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="48">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="48">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="48">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="48">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD945AF5-1693-4163-8A6D-D09942C58E01}">
+  <dimension ref="A1:AN72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K70" sqref="K70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="J1" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="K1" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="L1" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="M1" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="N1" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="O1" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="P1" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q1" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="R1" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="S1" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="T1" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="U1" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="V1" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="W1" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="X1" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y1" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z1" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA1" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB1" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="AC1" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD1" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="AE1" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="AF1" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG1" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="AH1" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="AI1" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="AJ1" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK1" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL1" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM1" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="AN1" s="39" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A2" s="40">
+        <v>5</v>
+      </c>
+      <c r="B2" s="42">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="C2" s="42">
+        <v>4.5400000000000003E-2</v>
+      </c>
+      <c r="D2" s="42">
+        <v>5.5500000000000001E-2</v>
+      </c>
+      <c r="E2" s="42">
+        <v>6.5100000000000005E-2</v>
+      </c>
+      <c r="F2" s="42">
+        <v>8.2900000000000001E-2</v>
+      </c>
+      <c r="G2" s="42">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="H2" s="42">
+        <v>0.112</v>
+      </c>
+      <c r="I2" s="42">
+        <v>0.124</v>
+      </c>
+      <c r="J2" s="42">
+        <v>0.129</v>
+      </c>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42"/>
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="42"/>
+      <c r="AG2" s="42"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42"/>
+      <c r="AJ2" s="42"/>
+      <c r="AK2" s="42"/>
+      <c r="AL2" s="42"/>
+      <c r="AM2" s="42"/>
+      <c r="AN2" s="42"/>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A3" s="40">
+        <v>6</v>
+      </c>
+      <c r="B3" s="42">
+        <v>4.2200000000000001E-2</v>
+      </c>
+      <c r="C3" s="42">
+        <v>5.5199999999999999E-2</v>
+      </c>
+      <c r="D3" s="42">
+        <v>6.7799999999999999E-2</v>
+      </c>
+      <c r="E3" s="42">
+        <v>7.9899999999999999E-2</v>
+      </c>
+      <c r="F3" s="42">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="G3" s="42">
+        <v>0.123</v>
+      </c>
+      <c r="H3" s="42">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="I3" s="42">
+        <v>0.159</v>
+      </c>
+      <c r="J3" s="42">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="K3" s="42">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="L3" s="42">
+        <v>0.186</v>
+      </c>
+      <c r="M3" s="42">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="42"/>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A4" s="40">
+        <v>7</v>
+      </c>
+      <c r="B4" s="42">
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="C4" s="42">
+        <v>6.5100000000000005E-2</v>
+      </c>
+      <c r="D4" s="42">
+        <v>8.0100000000000005E-2</v>
+      </c>
+      <c r="E4" s="42">
+        <v>9.4700000000000006E-2</v>
+      </c>
+      <c r="F4" s="42">
+        <v>0.122</v>
+      </c>
+      <c r="G4" s="42">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="H4" s="42">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="I4" s="42">
+        <v>0.193</v>
+      </c>
+      <c r="J4" s="42">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="K4" s="42">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="L4" s="42">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="M4" s="42">
+        <v>0.247</v>
+      </c>
+      <c r="N4" s="42">
+        <v>0.26</v>
+      </c>
+      <c r="O4" s="42">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
+      <c r="AG4" s="42"/>
+      <c r="AH4" s="42"/>
+      <c r="AI4" s="42"/>
+      <c r="AJ4" s="42"/>
+      <c r="AK4" s="42"/>
+      <c r="AL4" s="42"/>
+      <c r="AM4" s="42"/>
+      <c r="AN4" s="42"/>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A5" s="40">
+        <v>8</v>
+      </c>
+      <c r="B5" s="42">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="C5" s="42">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="D5" s="42">
+        <v>9.2499999999999999E-2</v>
+      </c>
+      <c r="E5" s="42">
+        <v>0.11</v>
+      </c>
+      <c r="F5" s="42">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="G5" s="42">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="H5" s="42">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="I5" s="42">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="J5" s="42">
+        <v>0.24</v>
+      </c>
+      <c r="K5" s="42">
+        <v>0.253</v>
+      </c>
+      <c r="L5" s="42">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="M5" s="42">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="N5" s="42">
+        <v>0.315</v>
+      </c>
+      <c r="O5" s="42">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="42"/>
+      <c r="AA5" s="42"/>
+      <c r="AB5" s="42"/>
+      <c r="AC5" s="42"/>
+      <c r="AD5" s="42"/>
+      <c r="AE5" s="42"/>
+      <c r="AF5" s="42"/>
+      <c r="AG5" s="42"/>
+      <c r="AH5" s="42"/>
+      <c r="AI5" s="42"/>
+      <c r="AJ5" s="42"/>
+      <c r="AK5" s="42"/>
+      <c r="AL5" s="42"/>
+      <c r="AM5" s="42"/>
+      <c r="AN5" s="42"/>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A6" s="40">
+        <v>9</v>
+      </c>
+      <c r="B6" s="42">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="C6" s="42">
+        <v>8.4699999999999998E-2</v>
+      </c>
+      <c r="D6" s="42">
+        <v>0.105</v>
+      </c>
+      <c r="E6" s="42">
+        <v>0.124</v>
+      </c>
+      <c r="F6" s="42">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="G6" s="42">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="H6" s="42">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="I6" s="42">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="J6" s="42">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="K6" s="42">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="L6" s="42">
+        <v>0.32</v>
+      </c>
+      <c r="M6" s="42">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="N6" s="42">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="O6" s="42">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
+      <c r="AB6" s="42"/>
+      <c r="AC6" s="42"/>
+      <c r="AD6" s="42"/>
+      <c r="AE6" s="42"/>
+      <c r="AF6" s="42"/>
+      <c r="AG6" s="42"/>
+      <c r="AH6" s="42"/>
+      <c r="AI6" s="42"/>
+      <c r="AJ6" s="42"/>
+      <c r="AK6" s="42"/>
+      <c r="AL6" s="42"/>
+      <c r="AM6" s="42"/>
+      <c r="AN6" s="42"/>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A7" s="40">
+        <v>10</v>
+      </c>
+      <c r="B7" s="42">
+        <v>7.1800000000000003E-2</v>
+      </c>
+      <c r="C7" s="42">
+        <v>9.4700000000000006E-2</v>
+      </c>
+      <c r="D7" s="42">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="E7" s="42">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="F7" s="42">
+        <v>0.182</v>
+      </c>
+      <c r="G7" s="42">
+        <v>0.222</v>
+      </c>
+      <c r="H7" s="42">
+        <v>0.26</v>
+      </c>
+      <c r="I7" s="42">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="J7" s="42">
+        <v>0.314</v>
+      </c>
+      <c r="K7" s="42">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="L7" s="42">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="M7" s="42">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="N7" s="42">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="O7" s="42">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="P7" s="42">
+        <v>0.497</v>
+      </c>
+      <c r="Q7" s="42">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="R7" s="42">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="S7" s="42">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42"/>
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="42"/>
+      <c r="AD7" s="42"/>
+      <c r="AE7" s="42"/>
+      <c r="AF7" s="42"/>
+      <c r="AG7" s="42"/>
+      <c r="AH7" s="42"/>
+      <c r="AI7" s="42"/>
+      <c r="AJ7" s="42"/>
+      <c r="AK7" s="42"/>
+      <c r="AL7" s="42"/>
+      <c r="AM7" s="42"/>
+      <c r="AN7" s="42"/>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A8" s="40">
+        <v>11</v>
+      </c>
+      <c r="B8" s="42">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="C8" s="42">
+        <v>0.105</v>
+      </c>
+      <c r="D8" s="42">
+        <v>0.129</v>
+      </c>
+      <c r="E8" s="42">
+        <v>0.154</v>
+      </c>
+      <c r="F8" s="42">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="G8" s="42">
+        <v>0.247</v>
+      </c>
+      <c r="H8" s="42">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I8" s="42">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="J8" s="42">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="K8" s="42">
+        <v>0.371</v>
+      </c>
+      <c r="L8" s="42">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="M8" s="42">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="N8" s="42">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="O8" s="42">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="P8" s="42">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="Q8" s="42">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="R8" s="42">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="S8" s="42">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="42"/>
+      <c r="AB8" s="42"/>
+      <c r="AC8" s="42"/>
+      <c r="AD8" s="42"/>
+      <c r="AE8" s="42"/>
+      <c r="AF8" s="42"/>
+      <c r="AG8" s="42"/>
+      <c r="AH8" s="42"/>
+      <c r="AI8" s="42"/>
+      <c r="AJ8" s="42"/>
+      <c r="AK8" s="42"/>
+      <c r="AL8" s="42"/>
+      <c r="AM8" s="42"/>
+      <c r="AN8" s="42"/>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A9" s="40">
+        <v>12</v>
+      </c>
+      <c r="B9" s="42">
+        <v>8.6599999999999996E-2</v>
+      </c>
+      <c r="C9" s="42">
+        <v>0.114</v>
+      </c>
+      <c r="D9" s="42">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="E9" s="42">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="F9" s="42">
+        <v>0.221</v>
+      </c>
+      <c r="G9" s="42">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="H9" s="42">
+        <v>0.32</v>
+      </c>
+      <c r="I9" s="42">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="J9" s="42">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="K9" s="42">
+        <v>0.41</v>
+      </c>
+      <c r="L9" s="42">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="M9" s="42">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="N9" s="42">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="O9" s="42">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="P9" s="42">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="Q9" s="42">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="R9" s="42">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="S9" s="42">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="42"/>
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="42"/>
+      <c r="AD9" s="42"/>
+      <c r="AE9" s="42"/>
+      <c r="AF9" s="42"/>
+      <c r="AG9" s="42"/>
+      <c r="AH9" s="42"/>
+      <c r="AI9" s="42"/>
+      <c r="AJ9" s="42"/>
+      <c r="AK9" s="42"/>
+      <c r="AL9" s="42"/>
+      <c r="AM9" s="42"/>
+      <c r="AN9" s="42"/>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A10" s="40">
+        <v>13</v>
+      </c>
+      <c r="B10" s="42">
+        <v>9.4E-2</v>
+      </c>
+      <c r="C10" s="42">
+        <v>0.124</v>
+      </c>
+      <c r="D10" s="42">
+        <v>0.154</v>
+      </c>
+      <c r="E10" s="42">
+        <v>0.184</v>
+      </c>
+      <c r="F10" s="42">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="G10" s="42">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="H10" s="42">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="I10" s="42">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="J10" s="42">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="K10" s="42">
+        <v>0.45</v>
+      </c>
+      <c r="L10" s="42">
+        <v>0.497</v>
+      </c>
+      <c r="M10" s="42">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="N10" s="42">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="O10" s="42">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="P10" s="42">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="Q10" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="R10" s="42">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="S10" s="42">
+        <v>0.82</v>
+      </c>
+      <c r="T10" s="42">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="42"/>
+      <c r="AD10" s="42"/>
+      <c r="AE10" s="42"/>
+      <c r="AF10" s="42"/>
+      <c r="AG10" s="42"/>
+      <c r="AH10" s="42"/>
+      <c r="AI10" s="42"/>
+      <c r="AJ10" s="42"/>
+      <c r="AK10" s="42"/>
+      <c r="AL10" s="42"/>
+      <c r="AM10" s="42"/>
+      <c r="AN10" s="42"/>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A11" s="40">
+        <v>14</v>
+      </c>
+      <c r="B11" s="42">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="C11" s="42">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="D11" s="42">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="E11" s="42">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="F11" s="42">
+        <v>0.26</v>
+      </c>
+      <c r="G11" s="42">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="H11" s="42">
+        <v>0.379</v>
+      </c>
+      <c r="I11" s="42">
+        <v>0.435</v>
+      </c>
+      <c r="J11" s="42">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="K11" s="42">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="L11" s="42">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="M11" s="42">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="N11" s="42">
+        <v>0.64</v>
+      </c>
+      <c r="O11" s="42">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="P11" s="42">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="Q11" s="42">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="R11" s="42">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="S11" s="42">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="T11" s="42">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="42"/>
+      <c r="AC11" s="42"/>
+      <c r="AD11" s="42"/>
+      <c r="AE11" s="42"/>
+      <c r="AF11" s="42"/>
+      <c r="AG11" s="42"/>
+      <c r="AH11" s="42"/>
+      <c r="AI11" s="42"/>
+      <c r="AJ11" s="42"/>
+      <c r="AK11" s="42"/>
+      <c r="AL11" s="42"/>
+      <c r="AM11" s="42"/>
+      <c r="AN11" s="42"/>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A12" s="40">
+        <v>15</v>
+      </c>
+      <c r="B12" s="42">
+        <v>0.109</v>
+      </c>
+      <c r="C12" s="42">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="D12" s="42">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="E12" s="42">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="F12" s="42">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G12" s="42">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="H12" s="42">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="I12" s="42">
+        <v>0.47</v>
+      </c>
+      <c r="J12" s="42">
+        <v>0.499</v>
+      </c>
+      <c r="K12" s="42">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="L12" s="42">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="M12" s="42">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="N12" s="42">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="O12" s="42">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="P12" s="42">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="Q12" s="42">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="R12" s="42">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="S12" s="42">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="T12" s="42">
+        <v>1.085</v>
+      </c>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="42"/>
+      <c r="AD12" s="42"/>
+      <c r="AE12" s="42"/>
+      <c r="AF12" s="42"/>
+      <c r="AG12" s="42"/>
+      <c r="AH12" s="42"/>
+      <c r="AI12" s="42"/>
+      <c r="AJ12" s="42"/>
+      <c r="AK12" s="42"/>
+      <c r="AL12" s="42"/>
+      <c r="AM12" s="42"/>
+      <c r="AN12" s="42"/>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A13" s="40">
+        <v>16</v>
+      </c>
+      <c r="B13" s="42">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="C13" s="42">
+        <v>0.154</v>
+      </c>
+      <c r="D13" s="42">
+        <v>0.191</v>
+      </c>
+      <c r="E13" s="42">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="F13" s="42">
+        <v>0.3</v>
+      </c>
+      <c r="G13" s="42">
+        <v>0.37</v>
+      </c>
+      <c r="H13" s="42">
+        <v>0.438</v>
+      </c>
+      <c r="I13" s="42">
+        <v>0.504</v>
+      </c>
+      <c r="J13" s="42">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="K13" s="42">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="L13" s="42">
+        <v>0.63</v>
+      </c>
+      <c r="M13" s="42">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="N13" s="42">
+        <v>0.749</v>
+      </c>
+      <c r="O13" s="42">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="P13" s="42">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="Q13" s="42">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="R13" s="42">
+        <v>1.01</v>
+      </c>
+      <c r="S13" s="42">
+        <v>1.079</v>
+      </c>
+      <c r="T13" s="42">
+        <v>1.1839999999999999</v>
+      </c>
+      <c r="U13" s="42">
+        <v>1.276</v>
+      </c>
+      <c r="V13" s="42">
+        <v>1.3560000000000001</v>
+      </c>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="42"/>
+      <c r="AB13" s="42"/>
+      <c r="AC13" s="42"/>
+      <c r="AD13" s="42"/>
+      <c r="AE13" s="42"/>
+      <c r="AF13" s="42"/>
+      <c r="AG13" s="42"/>
+      <c r="AH13" s="42"/>
+      <c r="AI13" s="42"/>
+      <c r="AJ13" s="42"/>
+      <c r="AK13" s="42"/>
+      <c r="AL13" s="42"/>
+      <c r="AM13" s="42"/>
+      <c r="AN13" s="42"/>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A14" s="40">
+        <v>17</v>
+      </c>
+      <c r="B14" s="42">
+        <v>0.124</v>
+      </c>
+      <c r="C14" s="42">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="D14" s="42">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="E14" s="42">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="F14" s="42">
+        <v>0.32</v>
+      </c>
+      <c r="G14" s="42">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="H14" s="42">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="I14" s="42">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="J14" s="42">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="K14" s="42">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="L14" s="42">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="M14" s="42">
+        <v>0.74</v>
+      </c>
+      <c r="N14" s="42">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="O14" s="42">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="P14" s="42">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="Q14" s="42">
+        <v>1.036</v>
+      </c>
+      <c r="R14" s="42">
+        <v>1.089</v>
+      </c>
+      <c r="S14" s="42">
+        <v>1.165</v>
+      </c>
+      <c r="T14" s="42">
+        <v>1.282</v>
+      </c>
+      <c r="U14" s="42">
+        <v>1.387</v>
+      </c>
+      <c r="V14" s="42">
+        <v>1.48</v>
+      </c>
+      <c r="W14" s="42"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="42"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="42"/>
+      <c r="AB14" s="42"/>
+      <c r="AC14" s="42"/>
+      <c r="AD14" s="42"/>
+      <c r="AE14" s="42"/>
+      <c r="AF14" s="42"/>
+      <c r="AG14" s="42"/>
+      <c r="AH14" s="42"/>
+      <c r="AI14" s="42"/>
+      <c r="AJ14" s="42"/>
+      <c r="AK14" s="42"/>
+      <c r="AL14" s="42"/>
+      <c r="AM14" s="42"/>
+      <c r="AN14" s="42"/>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A15" s="40">
+        <v>18</v>
+      </c>
+      <c r="B15" s="42">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="C15" s="42">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="D15" s="42">
+        <v>0.216</v>
+      </c>
+      <c r="E15" s="42">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="F15" s="42">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="G15" s="42">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="H15" s="42">
+        <v>0.497</v>
+      </c>
+      <c r="I15" s="42">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="J15" s="42">
+        <v>0.61</v>
+      </c>
+      <c r="K15" s="42">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="L15" s="42">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="M15" s="42">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="N15" s="42">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="O15" s="42">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="P15" s="42">
+        <v>1.05</v>
+      </c>
+      <c r="Q15" s="42">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="R15" s="42">
+        <v>1.1679999999999999</v>
+      </c>
+      <c r="S15" s="42">
+        <v>1.252</v>
+      </c>
+      <c r="T15" s="42">
+        <v>1.381</v>
+      </c>
+      <c r="U15" s="42">
+        <v>1.498</v>
+      </c>
+      <c r="V15" s="42">
+        <v>1.603</v>
+      </c>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="42"/>
+      <c r="AA15" s="42"/>
+      <c r="AB15" s="42"/>
+      <c r="AC15" s="42"/>
+      <c r="AD15" s="42"/>
+      <c r="AE15" s="42"/>
+      <c r="AF15" s="42"/>
+      <c r="AG15" s="42"/>
+      <c r="AH15" s="42"/>
+      <c r="AI15" s="42"/>
+      <c r="AJ15" s="42"/>
+      <c r="AK15" s="42"/>
+      <c r="AL15" s="42"/>
+      <c r="AM15" s="42"/>
+      <c r="AN15" s="42"/>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A16" s="40">
+        <v>19</v>
+      </c>
+      <c r="B16" s="42">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="C16" s="42">
+        <v>0.183</v>
+      </c>
+      <c r="D16" s="42">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="E16" s="42">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="F16" s="42">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="G16" s="42">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="H16" s="42">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="I16" s="42">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="J16" s="42">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="K16" s="42">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="L16" s="42">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="M16" s="42">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="N16" s="42">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="O16" s="42">
+        <v>1.0169999999999999</v>
+      </c>
+      <c r="P16" s="42">
+        <v>1.119</v>
+      </c>
+      <c r="Q16" s="42">
+        <v>1.1839999999999999</v>
+      </c>
+      <c r="R16" s="42">
+        <v>1.2470000000000001</v>
+      </c>
+      <c r="S16" s="42">
+        <v>1.3380000000000001</v>
+      </c>
+      <c r="T16" s="42">
+        <v>1.48</v>
+      </c>
+      <c r="U16" s="42">
+        <v>1.609</v>
+      </c>
+      <c r="V16" s="42">
+        <v>1.726</v>
+      </c>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="42"/>
+      <c r="AB16" s="42"/>
+      <c r="AC16" s="42"/>
+      <c r="AD16" s="42"/>
+      <c r="AE16" s="42"/>
+      <c r="AF16" s="42"/>
+      <c r="AG16" s="42"/>
+      <c r="AH16" s="42"/>
+      <c r="AI16" s="42"/>
+      <c r="AJ16" s="42"/>
+      <c r="AK16" s="42"/>
+      <c r="AL16" s="42"/>
+      <c r="AM16" s="42"/>
+      <c r="AN16" s="42"/>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A17" s="40">
+        <v>20</v>
+      </c>
+      <c r="B17" s="42">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="C17" s="42">
+        <v>0.193</v>
+      </c>
+      <c r="D17" s="42">
+        <v>0.24</v>
+      </c>
+      <c r="E17" s="42">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="F17" s="42">
+        <v>0.379</v>
+      </c>
+      <c r="G17" s="42">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="H17" s="42">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="I17" s="42">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="J17" s="42">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="K17" s="42">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="L17" s="42">
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="M17" s="42">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="N17" s="42">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="O17" s="42">
+        <v>1.079</v>
+      </c>
+      <c r="P17" s="42">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="Q17" s="42">
+        <v>1.258</v>
+      </c>
+      <c r="R17" s="42">
+        <v>1.3260000000000001</v>
+      </c>
+      <c r="S17" s="42">
+        <v>1.4239999999999999</v>
+      </c>
+      <c r="T17" s="42">
+        <v>1.5780000000000001</v>
+      </c>
+      <c r="U17" s="42">
+        <v>1.72</v>
+      </c>
+      <c r="V17" s="42">
+        <v>1.85</v>
+      </c>
+      <c r="W17" s="42">
+        <v>1.9670000000000001</v>
+      </c>
+      <c r="X17" s="42">
+        <v>2.0720000000000001</v>
+      </c>
+      <c r="Y17" s="42"/>
+      <c r="Z17" s="42"/>
+      <c r="AA17" s="42"/>
+      <c r="AB17" s="42"/>
+      <c r="AC17" s="42"/>
+      <c r="AD17" s="42"/>
+      <c r="AE17" s="42"/>
+      <c r="AF17" s="42"/>
+      <c r="AG17" s="42"/>
+      <c r="AH17" s="42"/>
+      <c r="AI17" s="42"/>
+      <c r="AJ17" s="42"/>
+      <c r="AK17" s="42"/>
+      <c r="AL17" s="42"/>
+      <c r="AM17" s="42"/>
+      <c r="AN17" s="42"/>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A18" s="40">
+        <v>21</v>
+      </c>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="D18" s="42">
+        <v>0.253</v>
+      </c>
+      <c r="E18" s="42">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="F18" s="42">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="G18" s="42">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="H18" s="42">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="I18" s="42">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="J18" s="42">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="K18" s="42">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="L18" s="42">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="M18" s="42">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="N18" s="42">
+        <v>1.02</v>
+      </c>
+      <c r="O18" s="42">
+        <v>1.141</v>
+      </c>
+      <c r="P18" s="42">
+        <v>1.2569999999999999</v>
+      </c>
+      <c r="Q18" s="42">
+        <v>1.3320000000000001</v>
+      </c>
+      <c r="R18" s="42">
+        <v>1.405</v>
+      </c>
+      <c r="S18" s="42">
+        <v>1.5109999999999999</v>
+      </c>
+      <c r="T18" s="42">
+        <v>1.677</v>
+      </c>
+      <c r="U18" s="42">
+        <v>1.831</v>
+      </c>
+      <c r="V18" s="42">
+        <v>1.9730000000000001</v>
+      </c>
+      <c r="W18" s="42">
+        <v>2.1019999999999999</v>
+      </c>
+      <c r="X18" s="42">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="42"/>
+      <c r="AB18" s="42"/>
+      <c r="AC18" s="42"/>
+      <c r="AD18" s="42"/>
+      <c r="AE18" s="42"/>
+      <c r="AF18" s="42"/>
+      <c r="AG18" s="42"/>
+      <c r="AH18" s="42"/>
+      <c r="AI18" s="42"/>
+      <c r="AJ18" s="42"/>
+      <c r="AK18" s="42"/>
+      <c r="AL18" s="42"/>
+      <c r="AM18" s="42"/>
+      <c r="AN18" s="42"/>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A19" s="40">
+        <v>22</v>
+      </c>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="D19" s="42">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="E19" s="42">
+        <v>0.317</v>
+      </c>
+      <c r="F19" s="42">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="G19" s="42">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="H19" s="42">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="I19" s="42">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="J19" s="42">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="K19" s="42">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="L19" s="42">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="M19" s="42">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="N19" s="42">
+        <v>1.0740000000000001</v>
+      </c>
+      <c r="O19" s="42">
+        <v>1.202</v>
+      </c>
+      <c r="P19" s="42">
+        <v>1.3260000000000001</v>
+      </c>
+      <c r="Q19" s="42">
+        <v>1.4059999999999999</v>
+      </c>
+      <c r="R19" s="42">
+        <v>1.484</v>
+      </c>
+      <c r="S19" s="42">
+        <v>1.597</v>
+      </c>
+      <c r="T19" s="42">
+        <v>1.776</v>
+      </c>
+      <c r="U19" s="42">
+        <v>1.9419999999999999</v>
+      </c>
+      <c r="V19" s="42">
+        <v>2.0960000000000001</v>
+      </c>
+      <c r="W19" s="42">
+        <v>2.238</v>
+      </c>
+      <c r="X19" s="42">
+        <v>2.3679999999999999</v>
+      </c>
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="42"/>
+      <c r="AB19" s="42"/>
+      <c r="AC19" s="42"/>
+      <c r="AD19" s="42"/>
+      <c r="AE19" s="42"/>
+      <c r="AF19" s="42"/>
+      <c r="AG19" s="42"/>
+      <c r="AH19" s="42"/>
+      <c r="AI19" s="42"/>
+      <c r="AJ19" s="42"/>
+      <c r="AK19" s="42"/>
+      <c r="AL19" s="42"/>
+      <c r="AM19" s="42"/>
+      <c r="AN19" s="42"/>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A20" s="40">
+        <v>23</v>
+      </c>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42">
+        <v>0.223</v>
+      </c>
+      <c r="D20" s="42">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="E20" s="42">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="F20" s="42">
+        <v>0.438</v>
+      </c>
+      <c r="G20" s="42">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="H20" s="42">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="I20" s="42">
+        <v>0.746</v>
+      </c>
+      <c r="J20" s="42">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="K20" s="42">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="L20" s="42">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="M20" s="42">
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="N20" s="42">
+        <v>1.129</v>
+      </c>
+      <c r="O20" s="42">
+        <v>1.264</v>
+      </c>
+      <c r="P20" s="42">
+        <v>1.395</v>
+      </c>
+      <c r="Q20" s="42">
+        <v>1.48</v>
+      </c>
+      <c r="R20" s="42">
+        <v>1.5629999999999999</v>
+      </c>
+      <c r="S20" s="42">
+        <v>1.6830000000000001</v>
+      </c>
+      <c r="T20" s="42">
+        <v>1.8740000000000001</v>
+      </c>
+      <c r="U20" s="42">
+        <v>2.0529999999999999</v>
+      </c>
+      <c r="V20" s="42">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="W20" s="42">
+        <v>2.3740000000000001</v>
+      </c>
+      <c r="X20" s="42">
+        <v>2.5150000000000001</v>
+      </c>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="42"/>
+      <c r="AA20" s="42"/>
+      <c r="AB20" s="42"/>
+      <c r="AC20" s="42"/>
+      <c r="AD20" s="42"/>
+      <c r="AE20" s="42"/>
+      <c r="AF20" s="42"/>
+      <c r="AG20" s="42"/>
+      <c r="AH20" s="42"/>
+      <c r="AI20" s="42"/>
+      <c r="AJ20" s="42"/>
+      <c r="AK20" s="42"/>
+      <c r="AL20" s="42"/>
+      <c r="AM20" s="42"/>
+      <c r="AN20" s="42"/>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A21" s="40">
+        <v>24</v>
+      </c>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="D21" s="42">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E21" s="42">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="F21" s="42">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="G21" s="42">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="H21" s="42">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="I21" s="42">
+        <v>0.78</v>
+      </c>
+      <c r="J21" s="42">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="K21" s="42">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="L21" s="42">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="M21" s="42">
+        <v>1.085</v>
+      </c>
+      <c r="N21" s="42">
+        <v>1.1830000000000001</v>
+      </c>
+      <c r="O21" s="42">
+        <v>1.3260000000000001</v>
+      </c>
+      <c r="P21" s="42">
+        <v>1.464</v>
+      </c>
+      <c r="Q21" s="42">
+        <v>1.554</v>
+      </c>
+      <c r="R21" s="42">
+        <v>1.641</v>
+      </c>
+      <c r="S21" s="42">
+        <v>1.7689999999999999</v>
+      </c>
+      <c r="T21" s="42">
+        <v>1.9730000000000001</v>
+      </c>
+      <c r="U21" s="42">
+        <v>2.1640000000000001</v>
+      </c>
+      <c r="V21" s="42">
+        <v>2.343</v>
+      </c>
+      <c r="W21" s="42">
+        <v>2.5089999999999999</v>
+      </c>
+      <c r="X21" s="42">
+        <v>2.6629999999999998</v>
+      </c>
+      <c r="Y21" s="42">
+        <v>2.8050000000000002</v>
+      </c>
+      <c r="Z21" s="42"/>
+      <c r="AA21" s="42"/>
+      <c r="AB21" s="42"/>
+      <c r="AC21" s="42"/>
+      <c r="AD21" s="42"/>
+      <c r="AE21" s="42"/>
+      <c r="AF21" s="42"/>
+      <c r="AG21" s="42"/>
+      <c r="AH21" s="42"/>
+      <c r="AI21" s="42"/>
+      <c r="AJ21" s="42"/>
+      <c r="AK21" s="42"/>
+      <c r="AL21" s="42"/>
+      <c r="AM21" s="42"/>
+      <c r="AN21" s="42"/>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A22" s="40">
+        <v>25</v>
+      </c>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="D22" s="42">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="E22" s="42">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="F22" s="42">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="G22" s="42">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="H22" s="42">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="I22" s="42">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="J22" s="42">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="K22" s="42">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="L22" s="42">
+        <v>1.03</v>
+      </c>
+      <c r="M22" s="42">
+        <v>1.1339999999999999</v>
+      </c>
+      <c r="N22" s="42">
+        <v>1.2370000000000001</v>
+      </c>
+      <c r="O22" s="42">
+        <v>1.387</v>
+      </c>
+      <c r="P22" s="42">
+        <v>1.5329999999999999</v>
+      </c>
+      <c r="Q22" s="42">
+        <v>1.6279999999999999</v>
+      </c>
+      <c r="R22" s="42">
+        <v>1.72</v>
+      </c>
+      <c r="S22" s="42">
+        <v>1.8560000000000001</v>
+      </c>
+      <c r="T22" s="42">
+        <v>2.0720000000000001</v>
+      </c>
+      <c r="U22" s="42">
+        <v>2.2749999999999999</v>
+      </c>
+      <c r="V22" s="42">
+        <v>2.4660000000000002</v>
+      </c>
+      <c r="W22" s="42">
+        <v>2.645</v>
+      </c>
+      <c r="X22" s="42">
+        <v>2.8109999999999999</v>
+      </c>
+      <c r="Y22" s="42">
+        <v>2.9649999999999999</v>
+      </c>
+      <c r="Z22" s="42">
+        <v>3.1070000000000002</v>
+      </c>
+      <c r="AA22" s="42"/>
+      <c r="AB22" s="42"/>
+      <c r="AC22" s="42"/>
+      <c r="AD22" s="42"/>
+      <c r="AE22" s="42"/>
+      <c r="AF22" s="42"/>
+      <c r="AG22" s="42"/>
+      <c r="AH22" s="42"/>
+      <c r="AI22" s="42"/>
+      <c r="AJ22" s="42"/>
+      <c r="AK22" s="42"/>
+      <c r="AL22" s="42"/>
+      <c r="AM22" s="42"/>
+      <c r="AN22" s="42"/>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A23" s="40">
+        <v>26</v>
+      </c>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42">
+        <v>0.253</v>
+      </c>
+      <c r="D23" s="42">
+        <v>0.314</v>
+      </c>
+      <c r="E23" s="42">
+        <v>0.376</v>
+      </c>
+      <c r="F23" s="42">
+        <v>0.497</v>
+      </c>
+      <c r="G23" s="42">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="H23" s="42">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="I23" s="42">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="J23" s="42">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="K23" s="42">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="L23" s="42">
+        <v>1.0740000000000001</v>
+      </c>
+      <c r="M23" s="42">
+        <v>1.1839999999999999</v>
+      </c>
+      <c r="N23" s="42">
+        <v>1.2909999999999999</v>
+      </c>
+      <c r="O23" s="42">
+        <v>1.4490000000000001</v>
+      </c>
+      <c r="P23" s="42">
+        <v>1.6020000000000001</v>
+      </c>
+      <c r="Q23" s="42">
+        <v>1.702</v>
+      </c>
+      <c r="R23" s="42">
+        <v>1.8</v>
+      </c>
+      <c r="S23" s="42">
+        <v>1.9419999999999999</v>
+      </c>
+      <c r="T23" s="42">
+        <v>2.17</v>
+      </c>
+      <c r="U23" s="42">
+        <v>2.3860000000000001</v>
+      </c>
+      <c r="V23" s="42">
+        <v>2.589</v>
+      </c>
+      <c r="W23" s="42">
+        <v>2.7810000000000001</v>
+      </c>
+      <c r="X23" s="42">
+        <v>2.9590000000000001</v>
+      </c>
+      <c r="Y23" s="42">
+        <v>3.125</v>
+      </c>
+      <c r="Z23" s="42">
+        <v>3.28</v>
+      </c>
+      <c r="AA23" s="42"/>
+      <c r="AB23" s="42"/>
+      <c r="AC23" s="42"/>
+      <c r="AD23" s="42"/>
+      <c r="AE23" s="42"/>
+      <c r="AF23" s="42"/>
+      <c r="AG23" s="42"/>
+      <c r="AH23" s="42"/>
+      <c r="AI23" s="42"/>
+      <c r="AJ23" s="42"/>
+      <c r="AK23" s="42"/>
+      <c r="AL23" s="42"/>
+      <c r="AM23" s="42"/>
+      <c r="AN23" s="42"/>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A24" s="40">
+        <v>27</v>
+      </c>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="D24" s="42">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="E24" s="42">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="F24" s="42">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="G24" s="42">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="H24" s="42">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="I24" s="42">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="J24" s="42">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="K24" s="42">
+        <v>1.002</v>
+      </c>
+      <c r="L24" s="42">
+        <v>1.119</v>
+      </c>
+      <c r="M24" s="42">
+        <v>1.2330000000000001</v>
+      </c>
+      <c r="N24" s="42">
+        <v>1.3460000000000001</v>
+      </c>
+      <c r="O24" s="42">
+        <v>1.5109999999999999</v>
+      </c>
+      <c r="P24" s="42">
+        <v>1.671</v>
+      </c>
+      <c r="Q24" s="42">
+        <v>1.776</v>
+      </c>
+      <c r="R24" s="42">
+        <v>1.8779999999999999</v>
+      </c>
+      <c r="S24" s="42">
+        <v>2.028</v>
+      </c>
+      <c r="T24" s="42">
+        <v>2.2690000000000001</v>
+      </c>
+      <c r="U24" s="42">
+        <v>2.4969999999999999</v>
+      </c>
+      <c r="V24" s="42">
+        <v>2.7130000000000001</v>
+      </c>
+      <c r="W24" s="42">
+        <v>2.9159999999999999</v>
+      </c>
+      <c r="X24" s="42">
+        <v>3.1070000000000002</v>
+      </c>
+      <c r="Y24" s="42">
+        <v>3.286</v>
+      </c>
+      <c r="Z24" s="42">
+        <v>3.4529999999999998</v>
+      </c>
+      <c r="AA24" s="42"/>
+      <c r="AB24" s="42"/>
+      <c r="AC24" s="42"/>
+      <c r="AD24" s="42"/>
+      <c r="AE24" s="42"/>
+      <c r="AF24" s="42"/>
+      <c r="AG24" s="42"/>
+      <c r="AH24" s="42"/>
+      <c r="AI24" s="42"/>
+      <c r="AJ24" s="42"/>
+      <c r="AK24" s="42"/>
+      <c r="AL24" s="42"/>
+      <c r="AM24" s="42"/>
+      <c r="AN24" s="42"/>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A25" s="40">
+        <v>28</v>
+      </c>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="D25" s="42">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="E25" s="42">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="F25" s="42">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="G25" s="42">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="H25" s="42">
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="I25" s="42">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="J25" s="42">
+        <v>0.98</v>
+      </c>
+      <c r="K25" s="42">
+        <v>1.042</v>
+      </c>
+      <c r="L25" s="42">
+        <v>1.163</v>
+      </c>
+      <c r="M25" s="42">
+        <v>1.282</v>
+      </c>
+      <c r="N25" s="42">
+        <v>1.4</v>
+      </c>
+      <c r="O25" s="42">
+        <v>1.5720000000000001</v>
+      </c>
+      <c r="P25" s="42">
+        <v>1.74</v>
+      </c>
+      <c r="Q25" s="42">
+        <v>1.85</v>
+      </c>
+      <c r="R25" s="42">
+        <v>1.9570000000000001</v>
+      </c>
+      <c r="S25" s="42">
+        <v>2.1150000000000002</v>
+      </c>
+      <c r="T25" s="42">
+        <v>2.3679999999999999</v>
+      </c>
+      <c r="U25" s="42">
+        <v>2.6080000000000001</v>
+      </c>
+      <c r="V25" s="42">
+        <v>2.8359999999999999</v>
+      </c>
+      <c r="W25" s="42">
+        <v>3.052</v>
+      </c>
+      <c r="X25" s="42">
+        <v>3.2549999999999999</v>
+      </c>
+      <c r="Y25" s="42">
+        <v>3.4460000000000002</v>
+      </c>
+      <c r="Z25" s="42">
+        <v>3.625</v>
+      </c>
+      <c r="AA25" s="42"/>
+      <c r="AB25" s="42"/>
+      <c r="AC25" s="42"/>
+      <c r="AD25" s="42"/>
+      <c r="AE25" s="42"/>
+      <c r="AF25" s="42"/>
+      <c r="AG25" s="42"/>
+      <c r="AH25" s="42"/>
+      <c r="AI25" s="42"/>
+      <c r="AJ25" s="42"/>
+      <c r="AK25" s="42"/>
+      <c r="AL25" s="42"/>
+      <c r="AM25" s="42"/>
+      <c r="AN25" s="42"/>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A26" s="40">
+        <v>30</v>
+      </c>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="D26" s="42">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="E26" s="42">
+        <v>0.435</v>
+      </c>
+      <c r="F26" s="42">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="G26" s="42">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="H26" s="42">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="I26" s="42">
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="J26" s="42">
+        <v>1.054</v>
+      </c>
+      <c r="K26" s="42">
+        <v>1.121</v>
+      </c>
+      <c r="L26" s="42">
+        <v>1.252</v>
+      </c>
+      <c r="M26" s="42">
+        <v>1.3839999999999999</v>
+      </c>
+      <c r="N26" s="42">
+        <v>1.508</v>
+      </c>
+      <c r="O26" s="42">
+        <v>1.6950000000000001</v>
+      </c>
+      <c r="P26" s="42">
+        <v>1.8779999999999999</v>
+      </c>
+      <c r="Q26" s="42">
+        <v>1.998</v>
+      </c>
+      <c r="R26" s="42">
+        <v>2.1150000000000002</v>
+      </c>
+      <c r="S26" s="42">
+        <v>2.2869999999999999</v>
+      </c>
+      <c r="T26" s="42">
+        <v>2.5649999999999999</v>
+      </c>
+      <c r="U26" s="42">
+        <v>2.83</v>
+      </c>
+      <c r="V26" s="42">
+        <v>3.0830000000000002</v>
+      </c>
+      <c r="W26" s="42">
+        <v>3.323</v>
+      </c>
+      <c r="X26" s="42">
+        <v>3.5510000000000002</v>
+      </c>
+      <c r="Y26" s="42">
+        <v>3.7669999999999999</v>
+      </c>
+      <c r="Z26" s="42">
+        <v>3.9710000000000001</v>
+      </c>
+      <c r="AA26" s="42">
+        <v>4.1619999999999999</v>
+      </c>
+      <c r="AB26" s="42">
+        <v>4.34</v>
+      </c>
+      <c r="AC26" s="42"/>
+      <c r="AD26" s="42"/>
+      <c r="AE26" s="42"/>
+      <c r="AF26" s="42"/>
+      <c r="AG26" s="42"/>
+      <c r="AH26" s="42"/>
+      <c r="AI26" s="42"/>
+      <c r="AJ26" s="42"/>
+      <c r="AK26" s="42"/>
+      <c r="AL26" s="42"/>
+      <c r="AM26" s="42"/>
+      <c r="AN26" s="42"/>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A27" s="40">
+        <v>32</v>
+      </c>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42">
+        <v>0.312</v>
+      </c>
+      <c r="D27" s="42">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="E27" s="42">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="F27" s="42">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="G27" s="42">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="H27" s="42">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="I27" s="42">
+        <v>1.056</v>
+      </c>
+      <c r="J27" s="42">
+        <v>1.1279999999999999</v>
+      </c>
+      <c r="K27" s="42">
+        <v>1.2</v>
+      </c>
+      <c r="L27" s="42">
+        <v>1.341</v>
+      </c>
+      <c r="M27" s="42">
+        <v>1.48</v>
+      </c>
+      <c r="N27" s="42">
+        <v>1.617</v>
+      </c>
+      <c r="O27" s="42">
+        <v>1.819</v>
+      </c>
+      <c r="P27" s="42">
+        <v>2.016</v>
+      </c>
+      <c r="Q27" s="42">
+        <v>2.1459999999999999</v>
+      </c>
+      <c r="R27" s="42">
+        <v>2.2730000000000001</v>
+      </c>
+      <c r="S27" s="42">
+        <v>2.46</v>
+      </c>
+      <c r="T27" s="42">
+        <v>2.762</v>
+      </c>
+      <c r="U27" s="42">
+        <v>3.052</v>
+      </c>
+      <c r="V27" s="42">
+        <v>3.3290000000000002</v>
+      </c>
+      <c r="W27" s="42">
+        <v>3.5939999999999999</v>
+      </c>
+      <c r="X27" s="42">
+        <v>3.847</v>
+      </c>
+      <c r="Y27" s="42">
+        <v>4.0869999999999997</v>
+      </c>
+      <c r="Z27" s="42">
+        <v>4.3159999999999998</v>
+      </c>
+      <c r="AA27" s="42">
+        <v>4.5309999999999997</v>
+      </c>
+      <c r="AB27" s="42">
+        <v>4.7350000000000003</v>
+      </c>
+      <c r="AC27" s="42"/>
+      <c r="AD27" s="42"/>
+      <c r="AE27" s="42"/>
+      <c r="AF27" s="42"/>
+      <c r="AG27" s="42"/>
+      <c r="AH27" s="42"/>
+      <c r="AI27" s="42"/>
+      <c r="AJ27" s="42"/>
+      <c r="AK27" s="42"/>
+      <c r="AL27" s="42"/>
+      <c r="AM27" s="42"/>
+      <c r="AN27" s="42"/>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A28" s="40">
+        <v>34</v>
+      </c>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42">
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="D28" s="42">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="E28" s="42">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="F28" s="42">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="G28" s="42">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="H28" s="42">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="I28" s="42">
+        <v>1.1259999999999999</v>
+      </c>
+      <c r="J28" s="42">
+        <v>1.202</v>
+      </c>
+      <c r="K28" s="42">
+        <v>1.278</v>
+      </c>
+      <c r="L28" s="42">
+        <v>1.429</v>
+      </c>
+      <c r="M28" s="42">
+        <v>1.5780000000000001</v>
+      </c>
+      <c r="N28" s="42">
+        <v>1.7250000000000001</v>
+      </c>
+      <c r="O28" s="42">
+        <v>1.9419999999999999</v>
+      </c>
+      <c r="P28" s="42">
+        <v>2.1539999999999999</v>
+      </c>
+      <c r="Q28" s="42">
+        <v>2.294</v>
+      </c>
+      <c r="R28" s="42">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="S28" s="42">
+        <v>2.633</v>
+      </c>
+      <c r="T28" s="42">
+        <v>2.9590000000000001</v>
+      </c>
+      <c r="U28" s="42">
+        <v>3.274</v>
+      </c>
+      <c r="V28" s="42">
+        <v>3.5760000000000001</v>
+      </c>
+      <c r="W28" s="42">
+        <v>3.8660000000000001</v>
+      </c>
+      <c r="X28" s="42">
+        <v>4.1429999999999998</v>
+      </c>
+      <c r="Y28" s="42">
+        <v>4.4080000000000004</v>
+      </c>
+      <c r="Z28" s="42">
+        <v>4.6609999999999996</v>
+      </c>
+      <c r="AA28" s="42">
+        <v>4.9009999999999998</v>
+      </c>
+      <c r="AB28" s="42">
+        <v>5.1289999999999996</v>
+      </c>
+      <c r="AC28" s="42"/>
+      <c r="AD28" s="42"/>
+      <c r="AE28" s="42"/>
+      <c r="AF28" s="42"/>
+      <c r="AG28" s="42"/>
+      <c r="AH28" s="42"/>
+      <c r="AI28" s="42"/>
+      <c r="AJ28" s="42"/>
+      <c r="AK28" s="42"/>
+      <c r="AL28" s="42"/>
+      <c r="AM28" s="42"/>
+      <c r="AN28" s="42"/>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A29" s="40">
+        <v>35</v>
+      </c>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="D29" s="42">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="E29" s="42">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="F29" s="42">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="G29" s="42">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="H29" s="42">
+        <v>1</v>
+      </c>
+      <c r="I29" s="42">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="J29" s="42">
+        <v>1.2390000000000001</v>
+      </c>
+      <c r="K29" s="42">
+        <v>1.3180000000000001</v>
+      </c>
+      <c r="L29" s="42">
+        <v>1.474</v>
+      </c>
+      <c r="M29" s="42">
+        <v>1.6279999999999999</v>
+      </c>
+      <c r="N29" s="42">
+        <v>1.78</v>
+      </c>
+      <c r="O29" s="42">
+        <v>2.004</v>
+      </c>
+      <c r="P29" s="42">
+        <v>2.2229999999999999</v>
+      </c>
+      <c r="Q29" s="42">
+        <v>2.367</v>
+      </c>
+      <c r="R29" s="42">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="S29" s="42">
+        <v>2.7189999999999999</v>
+      </c>
+      <c r="T29" s="42">
+        <v>3.0579999999999998</v>
+      </c>
+      <c r="U29" s="42">
+        <v>3.3849999999999998</v>
+      </c>
+      <c r="V29" s="42">
+        <v>3.6989999999999998</v>
+      </c>
+      <c r="W29" s="42">
+        <v>4.0010000000000003</v>
+      </c>
+      <c r="X29" s="42">
+        <v>4.2910000000000004</v>
+      </c>
+      <c r="Y29" s="42">
+        <v>4.5679999999999996</v>
+      </c>
+      <c r="Z29" s="42">
+        <v>4.8339999999999996</v>
+      </c>
+      <c r="AA29" s="42">
+        <v>5.0860000000000003</v>
+      </c>
+      <c r="AB29" s="42">
+        <v>5.327</v>
+      </c>
+      <c r="AC29" s="42"/>
+      <c r="AD29" s="42"/>
+      <c r="AE29" s="42"/>
+      <c r="AF29" s="42"/>
+      <c r="AG29" s="42"/>
+      <c r="AH29" s="42"/>
+      <c r="AI29" s="42"/>
+      <c r="AJ29" s="42"/>
+      <c r="AK29" s="42"/>
+      <c r="AL29" s="42"/>
+      <c r="AM29" s="42"/>
+      <c r="AN29" s="42"/>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A30" s="40">
+        <v>36</v>
+      </c>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="D30" s="42">
+        <v>0.438</v>
+      </c>
+      <c r="E30" s="42">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="F30" s="42">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="G30" s="42">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="H30" s="42">
+        <v>1.03</v>
+      </c>
+      <c r="I30" s="42">
+        <v>1.1950000000000001</v>
+      </c>
+      <c r="J30" s="42">
+        <v>1.276</v>
+      </c>
+      <c r="K30" s="42">
+        <v>1.357</v>
+      </c>
+      <c r="L30" s="42">
+        <v>1.518</v>
+      </c>
+      <c r="M30" s="42">
+        <v>1.677</v>
+      </c>
+      <c r="N30" s="42">
+        <v>1.8340000000000001</v>
+      </c>
+      <c r="O30" s="42">
+        <v>2.0649999999999999</v>
+      </c>
+      <c r="P30" s="42">
+        <v>2.2930000000000001</v>
+      </c>
+      <c r="Q30" s="42">
+        <v>2.4409999999999998</v>
+      </c>
+      <c r="R30" s="42">
+        <v>2.5880000000000001</v>
+      </c>
+      <c r="S30" s="42">
+        <v>2.8050000000000002</v>
+      </c>
+      <c r="T30" s="42">
+        <v>3.157</v>
+      </c>
+      <c r="U30" s="42">
+        <v>3.496</v>
+      </c>
+      <c r="V30" s="42">
+        <v>3.8220000000000001</v>
+      </c>
+      <c r="W30" s="42">
+        <v>4.1369999999999996</v>
+      </c>
+      <c r="X30" s="42">
+        <v>4.4390000000000001</v>
+      </c>
+      <c r="Y30" s="42">
+        <v>4.7279999999999998</v>
+      </c>
+      <c r="Z30" s="42">
+        <v>5.0060000000000002</v>
+      </c>
+      <c r="AA30" s="42">
+        <v>5.2709999999999999</v>
+      </c>
+      <c r="AB30" s="42">
+        <v>5.524</v>
+      </c>
+      <c r="AC30" s="42"/>
+      <c r="AD30" s="42"/>
+      <c r="AE30" s="42"/>
+      <c r="AF30" s="42"/>
+      <c r="AG30" s="42"/>
+      <c r="AH30" s="42"/>
+      <c r="AI30" s="42"/>
+      <c r="AJ30" s="42"/>
+      <c r="AK30" s="42"/>
+      <c r="AL30" s="42"/>
+      <c r="AM30" s="42"/>
+      <c r="AN30" s="42"/>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A31" s="40">
+        <v>38</v>
+      </c>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42">
+        <v>0.371</v>
+      </c>
+      <c r="D31" s="42">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="E31" s="42">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="F31" s="42">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="G31" s="42">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="H31" s="42">
+        <v>1.089</v>
+      </c>
+      <c r="I31" s="42">
+        <v>1.264</v>
+      </c>
+      <c r="J31" s="42">
+        <v>1.35</v>
+      </c>
+      <c r="K31" s="42">
+        <v>1.4359999999999999</v>
+      </c>
+      <c r="L31" s="42">
+        <v>1.607</v>
+      </c>
+      <c r="M31" s="42">
+        <v>1.776</v>
+      </c>
+      <c r="N31" s="42">
+        <v>1.9419999999999999</v>
+      </c>
+      <c r="O31" s="42">
+        <v>2.1890000000000001</v>
+      </c>
+      <c r="P31" s="42">
+        <v>2.431</v>
+      </c>
+      <c r="Q31" s="42">
+        <v>2.589</v>
+      </c>
+      <c r="R31" s="42">
+        <v>2.746</v>
+      </c>
+      <c r="S31" s="42">
+        <v>2.9780000000000002</v>
+      </c>
+      <c r="T31" s="42">
+        <v>3.3540000000000001</v>
+      </c>
+      <c r="U31" s="42">
+        <v>3.718</v>
+      </c>
+      <c r="V31" s="42">
+        <v>4.069</v>
+      </c>
+      <c r="W31" s="42">
+        <v>4.4080000000000004</v>
+      </c>
+      <c r="X31" s="42">
+        <v>4.7350000000000003</v>
+      </c>
+      <c r="Y31" s="42">
+        <v>5.0490000000000004</v>
+      </c>
+      <c r="Z31" s="42">
+        <v>5.3520000000000003</v>
+      </c>
+      <c r="AA31" s="42">
+        <v>5.641</v>
+      </c>
+      <c r="AB31" s="42">
+        <v>5.9189999999999996</v>
+      </c>
+      <c r="AC31" s="42">
+        <v>6.1840000000000002</v>
+      </c>
+      <c r="AD31" s="42">
+        <v>6.4370000000000003</v>
+      </c>
+      <c r="AE31" s="42"/>
+      <c r="AF31" s="42"/>
+      <c r="AG31" s="42"/>
+      <c r="AH31" s="42"/>
+      <c r="AI31" s="42"/>
+      <c r="AJ31" s="42"/>
+      <c r="AK31" s="42"/>
+      <c r="AL31" s="42"/>
+      <c r="AM31" s="42"/>
+      <c r="AN31" s="42"/>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A32" s="40">
+        <v>40</v>
+      </c>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="D32" s="42">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="E32" s="42">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="F32" s="42">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="G32" s="42">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="H32" s="42">
+        <v>1.1479999999999999</v>
+      </c>
+      <c r="I32" s="42">
+        <v>1.333</v>
+      </c>
+      <c r="J32" s="42">
+        <v>1.4239999999999999</v>
+      </c>
+      <c r="K32" s="42">
+        <v>1.5149999999999999</v>
+      </c>
+      <c r="L32" s="42">
+        <v>1.696</v>
+      </c>
+      <c r="M32" s="42">
+        <v>1.8740000000000001</v>
+      </c>
+      <c r="N32" s="42">
+        <v>2.0510000000000002</v>
+      </c>
+      <c r="O32" s="42">
+        <v>2.3119999999999998</v>
+      </c>
+      <c r="P32" s="42">
+        <v>2.569</v>
+      </c>
+      <c r="Q32" s="42">
+        <v>2.7370000000000001</v>
+      </c>
+      <c r="R32" s="42">
+        <v>2.9039999999999999</v>
+      </c>
+      <c r="S32" s="42">
+        <v>3.15</v>
+      </c>
+      <c r="T32" s="42">
+        <v>3.5510000000000002</v>
+      </c>
+      <c r="U32" s="42">
+        <v>3.94</v>
+      </c>
+      <c r="V32" s="42">
+        <v>4.3159999999999998</v>
+      </c>
+      <c r="W32" s="42">
+        <v>4.68</v>
+      </c>
+      <c r="X32" s="42">
+        <v>5.0309999999999997</v>
+      </c>
+      <c r="Y32" s="42">
+        <v>5.3689999999999998</v>
+      </c>
+      <c r="Z32" s="42">
+        <v>5.6970000000000001</v>
+      </c>
+      <c r="AA32" s="42">
+        <v>6.0110000000000001</v>
+      </c>
+      <c r="AB32" s="42">
+        <v>6.3129999999999997</v>
+      </c>
+      <c r="AC32" s="42">
+        <v>6.6029999999999998</v>
+      </c>
+      <c r="AD32" s="42">
+        <v>6.8810000000000002</v>
+      </c>
+      <c r="AE32" s="42"/>
+      <c r="AF32" s="42"/>
+      <c r="AG32" s="42"/>
+      <c r="AH32" s="42"/>
+      <c r="AI32" s="42"/>
+      <c r="AJ32" s="42"/>
+      <c r="AK32" s="42"/>
+      <c r="AL32" s="42"/>
+      <c r="AM32" s="42"/>
+      <c r="AN32" s="42"/>
+    </row>
+    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A33" s="40">
+        <v>42</v>
+      </c>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42">
+        <v>1.0109999999999999</v>
+      </c>
+      <c r="H33" s="42">
+        <v>1.2070000000000001</v>
+      </c>
+      <c r="I33" s="42">
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="J33" s="42">
+        <v>1.498</v>
+      </c>
+      <c r="K33" s="42">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="L33" s="42">
+        <v>1.7849999999999999</v>
+      </c>
+      <c r="M33" s="42">
+        <v>1.9730000000000001</v>
+      </c>
+      <c r="N33" s="42">
+        <v>2.1589999999999998</v>
+      </c>
+      <c r="O33" s="42">
+        <v>2.4350000000000001</v>
+      </c>
+      <c r="P33" s="42">
+        <v>2.7069999999999999</v>
+      </c>
+      <c r="Q33" s="42">
+        <v>2.8849999999999998</v>
+      </c>
+      <c r="R33" s="42">
+        <v>3.0619999999999998</v>
+      </c>
+      <c r="S33" s="42">
+        <v>3.323</v>
+      </c>
+      <c r="T33" s="42">
+        <v>3.7490000000000001</v>
+      </c>
+      <c r="U33" s="42">
+        <v>4.1619999999999999</v>
+      </c>
+      <c r="V33" s="42">
+        <v>4.5620000000000003</v>
+      </c>
+      <c r="W33" s="42">
+        <v>4.9509999999999996</v>
+      </c>
+      <c r="X33" s="42">
+        <v>5.327</v>
+      </c>
+      <c r="Y33" s="42">
+        <v>5.69</v>
+      </c>
+      <c r="Z33" s="42">
+        <v>6.0419999999999998</v>
+      </c>
+      <c r="AA33" s="42">
+        <v>6.3810000000000002</v>
+      </c>
+      <c r="AB33" s="42">
+        <v>6.7080000000000002</v>
+      </c>
+      <c r="AC33" s="42">
+        <v>7.0229999999999997</v>
+      </c>
+      <c r="AD33" s="42">
+        <v>7.3239999999999998</v>
+      </c>
+      <c r="AE33" s="42"/>
+      <c r="AF33" s="42"/>
+      <c r="AG33" s="42"/>
+      <c r="AH33" s="42"/>
+      <c r="AI33" s="42"/>
+      <c r="AJ33" s="42"/>
+      <c r="AK33" s="42"/>
+      <c r="AL33" s="42"/>
+      <c r="AM33" s="42"/>
+      <c r="AN33" s="42"/>
+    </row>
+    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A34" s="40">
+        <v>45</v>
+      </c>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42">
+        <v>1.085</v>
+      </c>
+      <c r="H34" s="42">
+        <v>1.296</v>
+      </c>
+      <c r="I34" s="42">
+        <v>1.5049999999999999</v>
+      </c>
+      <c r="J34" s="42">
+        <v>1.609</v>
+      </c>
+      <c r="K34" s="42">
+        <v>1.712</v>
+      </c>
+      <c r="L34" s="42">
+        <v>1.9179999999999999</v>
+      </c>
+      <c r="M34" s="42">
+        <v>2.121</v>
+      </c>
+      <c r="N34" s="42">
+        <v>2.3220000000000001</v>
+      </c>
+      <c r="O34" s="42">
+        <v>2.62</v>
+      </c>
+      <c r="P34" s="42">
+        <v>2.9140000000000001</v>
+      </c>
+      <c r="Q34" s="42">
+        <v>3.1070000000000002</v>
+      </c>
+      <c r="R34" s="42">
+        <v>3.2989999999999999</v>
+      </c>
+      <c r="S34" s="42">
+        <v>3.5819999999999999</v>
+      </c>
+      <c r="T34" s="42">
+        <v>4.0439999999999996</v>
+      </c>
+      <c r="U34" s="42">
+        <v>4.4950000000000001</v>
+      </c>
+      <c r="V34" s="42">
+        <v>4.9320000000000004</v>
+      </c>
+      <c r="W34" s="42">
+        <v>5.3579999999999997</v>
+      </c>
+      <c r="X34" s="42">
+        <v>5.7709999999999999</v>
+      </c>
+      <c r="Y34" s="42">
+        <v>6.1710000000000003</v>
+      </c>
+      <c r="Z34" s="42">
+        <v>6.56</v>
+      </c>
+      <c r="AA34" s="42">
+        <v>6.9359999999999999</v>
+      </c>
+      <c r="AB34" s="42">
+        <v>7.3</v>
+      </c>
+      <c r="AC34" s="42">
+        <v>7.6509999999999998</v>
+      </c>
+      <c r="AD34" s="42">
+        <v>7.99</v>
+      </c>
+      <c r="AE34" s="42">
+        <v>8.3170000000000002</v>
+      </c>
+      <c r="AF34" s="42">
+        <v>8.6319999999999997</v>
+      </c>
+      <c r="AG34" s="42"/>
+      <c r="AH34" s="42"/>
+      <c r="AI34" s="42"/>
+      <c r="AJ34" s="42"/>
+      <c r="AK34" s="42"/>
+      <c r="AL34" s="42"/>
+      <c r="AM34" s="42"/>
+      <c r="AN34" s="42"/>
+    </row>
+    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A35" s="40">
+        <v>48</v>
+      </c>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42">
+        <v>1.159</v>
+      </c>
+      <c r="H35" s="42">
+        <v>1.385</v>
+      </c>
+      <c r="I35" s="42">
+        <v>1.609</v>
+      </c>
+      <c r="J35" s="42">
+        <v>1.72</v>
+      </c>
+      <c r="K35" s="42">
+        <v>1.831</v>
+      </c>
+      <c r="L35" s="42">
+        <v>2.0510000000000002</v>
+      </c>
+      <c r="M35" s="42">
+        <v>2.2690000000000001</v>
+      </c>
+      <c r="N35" s="42">
+        <v>2.4350000000000001</v>
+      </c>
+      <c r="O35" s="42">
+        <v>2.8050000000000002</v>
+      </c>
+      <c r="P35" s="42">
+        <v>3.121</v>
+      </c>
+      <c r="Q35" s="42">
+        <v>3.3290000000000002</v>
+      </c>
+      <c r="R35" s="42">
+        <v>3.5350000000000001</v>
+      </c>
+      <c r="S35" s="42">
+        <v>3.8410000000000002</v>
+      </c>
+      <c r="T35" s="42">
+        <v>4.34</v>
+      </c>
+      <c r="U35" s="42">
+        <v>4.827</v>
+      </c>
+      <c r="V35" s="42">
+        <v>5.3019999999999996</v>
+      </c>
+      <c r="W35" s="42">
+        <v>5.7649999999999997</v>
+      </c>
+      <c r="X35" s="42">
+        <v>6.2149999999999999</v>
+      </c>
+      <c r="Y35" s="42">
+        <v>6.6520000000000001</v>
+      </c>
+      <c r="Z35" s="42">
+        <v>7.0780000000000003</v>
+      </c>
+      <c r="AA35" s="42">
+        <v>7.4909999999999997</v>
+      </c>
+      <c r="AB35" s="42">
+        <v>7.8920000000000003</v>
+      </c>
+      <c r="AC35" s="42">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="AD35" s="42">
+        <v>8.6560000000000006</v>
+      </c>
+      <c r="AE35" s="42">
+        <v>9.02</v>
+      </c>
+      <c r="AF35" s="42">
+        <v>9.3710000000000004</v>
+      </c>
+      <c r="AG35" s="42"/>
+      <c r="AH35" s="42"/>
+      <c r="AI35" s="42"/>
+      <c r="AJ35" s="42"/>
+      <c r="AK35" s="42"/>
+      <c r="AL35" s="42"/>
+      <c r="AM35" s="42"/>
+      <c r="AN35" s="42"/>
+    </row>
+    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A36" s="40">
+        <v>50</v>
+      </c>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42">
+        <v>1.208</v>
+      </c>
+      <c r="H36" s="42">
+        <v>1.444</v>
+      </c>
+      <c r="I36" s="42">
+        <v>1.6779999999999999</v>
+      </c>
+      <c r="J36" s="42">
+        <v>1.794</v>
+      </c>
+      <c r="K36" s="42">
+        <v>1.91</v>
+      </c>
+      <c r="L36" s="42">
+        <v>2.14</v>
+      </c>
+      <c r="M36" s="42">
+        <v>2.3679999999999999</v>
+      </c>
+      <c r="N36" s="42">
+        <v>2.5939999999999999</v>
+      </c>
+      <c r="O36" s="42">
+        <v>2.9289999999999998</v>
+      </c>
+      <c r="P36" s="42">
+        <v>3.2589999999999999</v>
+      </c>
+      <c r="Q36" s="42">
+        <v>3.4769999999999999</v>
+      </c>
+      <c r="R36" s="42">
+        <v>3.6930000000000001</v>
+      </c>
+      <c r="S36" s="42">
+        <v>4.0140000000000002</v>
+      </c>
+      <c r="T36" s="42">
+        <v>4.5380000000000003</v>
+      </c>
+      <c r="U36" s="42">
+        <v>5.0190000000000001</v>
+      </c>
+      <c r="V36" s="42">
+        <v>5.5490000000000004</v>
+      </c>
+      <c r="W36" s="42">
+        <v>6.0359999999999996</v>
+      </c>
+      <c r="X36" s="42">
+        <v>6.5110000000000001</v>
+      </c>
+      <c r="Y36" s="42">
+        <v>6.9720000000000004</v>
+      </c>
+      <c r="Z36" s="42">
+        <v>7.423</v>
+      </c>
+      <c r="AA36" s="42">
+        <v>7.8609999999999998</v>
+      </c>
+      <c r="AB36" s="42">
+        <v>8.2859999999999996</v>
+      </c>
+      <c r="AC36" s="42">
+        <v>8.6989999999999998</v>
+      </c>
+      <c r="AD36" s="42">
+        <v>9.11</v>
+      </c>
+      <c r="AE36" s="42">
+        <v>9.4890000000000008</v>
+      </c>
+      <c r="AF36" s="42">
+        <v>9.8650000000000002</v>
+      </c>
+      <c r="AG36" s="42">
+        <v>10.58</v>
+      </c>
+      <c r="AH36" s="42">
+        <v>11.246</v>
+      </c>
+      <c r="AI36" s="42"/>
+      <c r="AJ36" s="42"/>
+      <c r="AK36" s="42"/>
+      <c r="AL36" s="42"/>
+      <c r="AM36" s="42"/>
+      <c r="AN36" s="42"/>
+    </row>
+    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A37" s="40">
+        <v>51</v>
+      </c>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42">
+        <v>1.2330000000000001</v>
+      </c>
+      <c r="H37" s="42">
+        <v>1.474</v>
+      </c>
+      <c r="I37" s="42">
+        <v>1.712</v>
+      </c>
+      <c r="J37" s="42">
+        <v>1.831</v>
+      </c>
+      <c r="K37" s="42">
+        <v>1.9490000000000001</v>
+      </c>
+      <c r="L37" s="42">
+        <v>2.1840000000000002</v>
+      </c>
+      <c r="M37" s="42">
+        <v>2.4169999999999998</v>
+      </c>
+      <c r="N37" s="42">
+        <v>2.6480000000000001</v>
+      </c>
+      <c r="O37" s="42">
+        <v>2.99</v>
+      </c>
+      <c r="P37" s="42">
+        <v>3.3279999999999998</v>
+      </c>
+      <c r="Q37" s="42">
+        <v>3.5510000000000002</v>
+      </c>
+      <c r="R37" s="42">
+        <v>3.7719999999999998</v>
+      </c>
+      <c r="S37" s="42">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="T37" s="42">
+        <v>4.6360000000000001</v>
+      </c>
+      <c r="U37" s="42">
+        <v>5.16</v>
+      </c>
+      <c r="V37" s="42">
+        <v>5.6719999999999997</v>
+      </c>
+      <c r="W37" s="42">
+        <v>6.1719999999999997</v>
+      </c>
+      <c r="X37" s="42">
+        <v>6.6589999999999998</v>
+      </c>
+      <c r="Y37" s="42">
+        <v>7.1319999999999997</v>
+      </c>
+      <c r="Z37" s="42">
+        <v>7.5960000000000001</v>
+      </c>
+      <c r="AA37" s="42">
+        <v>8.0459999999999994</v>
+      </c>
+      <c r="AB37" s="42">
+        <v>8.484</v>
+      </c>
+      <c r="AC37" s="42">
+        <v>8.9090000000000007</v>
+      </c>
+      <c r="AD37" s="42">
+        <v>9.3219999999999992</v>
+      </c>
+      <c r="AE37" s="42">
+        <v>9.7230000000000008</v>
+      </c>
+      <c r="AF37" s="42">
+        <v>10.111000000000001</v>
+      </c>
+      <c r="AG37" s="42">
+        <v>10.851000000000001</v>
+      </c>
+      <c r="AH37" s="42">
+        <v>11.542</v>
+      </c>
+      <c r="AI37" s="42"/>
+      <c r="AJ37" s="42"/>
+      <c r="AK37" s="42"/>
+      <c r="AL37" s="42"/>
+      <c r="AM37" s="42"/>
+      <c r="AN37" s="42"/>
+    </row>
+    <row r="38" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A38" s="40">
+        <v>53</v>
+      </c>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42">
+        <v>1.282</v>
+      </c>
+      <c r="H38" s="42">
+        <v>1.5329999999999999</v>
+      </c>
+      <c r="I38" s="42">
+        <v>1.782</v>
+      </c>
+      <c r="J38" s="42">
+        <v>1.905</v>
+      </c>
+      <c r="K38" s="42">
+        <v>2.028</v>
+      </c>
+      <c r="L38" s="42">
+        <v>2.2730000000000001</v>
+      </c>
+      <c r="M38" s="42">
+        <v>2.5150000000000001</v>
+      </c>
+      <c r="N38" s="42">
+        <v>2.7559999999999998</v>
+      </c>
+      <c r="O38" s="42">
+        <v>3.1139999999999999</v>
+      </c>
+      <c r="P38" s="42">
+        <v>3.4660000000000002</v>
+      </c>
+      <c r="Q38" s="42">
+        <v>3.6989999999999998</v>
+      </c>
+      <c r="R38" s="42">
+        <v>3.93</v>
+      </c>
+      <c r="S38" s="42">
+        <v>4.2729999999999997</v>
+      </c>
+      <c r="T38" s="42">
+        <v>4.8339999999999996</v>
+      </c>
+      <c r="U38" s="42">
+        <v>5.3819999999999997</v>
+      </c>
+      <c r="V38" s="42">
+        <v>5.9189999999999996</v>
+      </c>
+      <c r="W38" s="42">
+        <v>6.4429999999999996</v>
+      </c>
+      <c r="X38" s="42">
+        <v>6.9550000000000001</v>
+      </c>
+      <c r="Y38" s="42">
+        <v>7.4530000000000003</v>
+      </c>
+      <c r="Z38" s="42">
+        <v>7.9409999999999998</v>
+      </c>
+      <c r="AA38" s="42">
+        <v>8.4160000000000004</v>
+      </c>
+      <c r="AB38" s="42">
+        <v>8.8780000000000001</v>
+      </c>
+      <c r="AC38" s="42">
+        <v>9.3279999999999994</v>
+      </c>
+      <c r="AD38" s="42">
+        <v>9.766</v>
+      </c>
+      <c r="AE38" s="42">
+        <v>10.191000000000001</v>
+      </c>
+      <c r="AF38" s="42">
+        <v>10.603999999999999</v>
+      </c>
+      <c r="AG38" s="42">
+        <v>11.394</v>
+      </c>
+      <c r="AH38" s="42">
+        <v>12.132999999999999</v>
+      </c>
+      <c r="AI38" s="42"/>
+      <c r="AJ38" s="42"/>
+      <c r="AK38" s="42"/>
+      <c r="AL38" s="42"/>
+      <c r="AM38" s="42"/>
+      <c r="AN38" s="42"/>
+    </row>
+    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A39" s="40">
+        <v>54</v>
+      </c>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42">
+        <v>1.3069999999999999</v>
+      </c>
+      <c r="H39" s="42">
+        <v>1.5629999999999999</v>
+      </c>
+      <c r="I39" s="42">
+        <v>1.8160000000000001</v>
+      </c>
+      <c r="J39" s="42">
+        <v>1.9419999999999999</v>
+      </c>
+      <c r="K39" s="42">
+        <v>2.0680000000000001</v>
+      </c>
+      <c r="L39" s="42">
+        <v>2.3170000000000002</v>
+      </c>
+      <c r="M39" s="42">
+        <v>2.5649999999999999</v>
+      </c>
+      <c r="N39" s="42">
+        <v>2.81</v>
+      </c>
+      <c r="O39" s="42">
+        <v>3.1749999999999998</v>
+      </c>
+      <c r="P39" s="42">
+        <v>3.5350000000000001</v>
+      </c>
+      <c r="Q39" s="42">
+        <v>3.7730000000000001</v>
+      </c>
+      <c r="R39" s="42">
+        <v>4.0090000000000003</v>
+      </c>
+      <c r="S39" s="42">
+        <v>4.359</v>
+      </c>
+      <c r="T39" s="42">
+        <v>4.9320000000000004</v>
+      </c>
+      <c r="U39" s="42">
+        <v>5.4930000000000003</v>
+      </c>
+      <c r="V39" s="42">
+        <v>6.0419999999999998</v>
+      </c>
+      <c r="W39" s="42">
+        <v>6.5780000000000003</v>
+      </c>
+      <c r="X39" s="42">
+        <v>7.1029999999999998</v>
+      </c>
+      <c r="Y39" s="42">
+        <v>7.6130000000000004</v>
+      </c>
+      <c r="Z39" s="42">
+        <v>8.1140000000000008</v>
+      </c>
+      <c r="AA39" s="42">
+        <v>8.6010000000000009</v>
+      </c>
+      <c r="AB39" s="42">
+        <v>9.0749999999999993</v>
+      </c>
+      <c r="AC39" s="42">
+        <v>9.5380000000000003</v>
+      </c>
+      <c r="AD39" s="42">
+        <v>9.9879999999999995</v>
+      </c>
+      <c r="AE39" s="42">
+        <v>10.426</v>
+      </c>
+      <c r="AF39" s="42">
+        <v>10.851000000000001</v>
+      </c>
+      <c r="AG39" s="42">
+        <v>11.664999999999999</v>
+      </c>
+      <c r="AH39" s="42">
+        <v>12.429</v>
+      </c>
+      <c r="AI39" s="42"/>
+      <c r="AJ39" s="42"/>
+      <c r="AK39" s="42"/>
+      <c r="AL39" s="42"/>
+      <c r="AM39" s="42"/>
+      <c r="AN39" s="42"/>
+    </row>
+    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A40" s="40">
+        <v>56</v>
+      </c>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42">
+        <v>1.3560000000000001</v>
+      </c>
+      <c r="H40" s="42">
+        <v>1.6220000000000001</v>
+      </c>
+      <c r="I40" s="42">
+        <v>1.885</v>
+      </c>
+      <c r="J40" s="42">
+        <v>2.016</v>
+      </c>
+      <c r="K40" s="42">
+        <v>2.1469999999999998</v>
+      </c>
+      <c r="L40" s="42">
+        <v>2.4060000000000001</v>
+      </c>
+      <c r="M40" s="42">
+        <v>2.6629999999999998</v>
+      </c>
+      <c r="N40" s="42">
+        <v>2.919</v>
+      </c>
+      <c r="O40" s="42">
+        <v>3.298</v>
+      </c>
+      <c r="P40" s="42">
+        <v>3.6739999999999999</v>
+      </c>
+      <c r="Q40" s="42">
+        <v>3.9209999999999998</v>
+      </c>
+      <c r="R40" s="42">
+        <v>4.1669999999999998</v>
+      </c>
+      <c r="S40" s="42">
+        <v>4.532</v>
+      </c>
+      <c r="T40" s="42">
+        <v>5.13</v>
+      </c>
+      <c r="U40" s="42">
+        <v>5.7149999999999999</v>
+      </c>
+      <c r="V40" s="42">
+        <v>6.2889999999999997</v>
+      </c>
+      <c r="W40" s="42">
+        <v>6.85</v>
+      </c>
+      <c r="X40" s="42">
+        <v>7.3979999999999997</v>
+      </c>
+      <c r="Y40" s="42">
+        <v>7.9340000000000002</v>
+      </c>
+      <c r="Z40" s="42">
+        <v>8.4589999999999996</v>
+      </c>
+      <c r="AA40" s="42">
+        <v>9.9710000000000001</v>
+      </c>
+      <c r="AB40" s="42">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="AC40" s="42">
+        <v>9.9570000000000007</v>
+      </c>
+      <c r="AD40" s="42">
+        <v>10.432</v>
+      </c>
+      <c r="AE40" s="42">
+        <v>10.894</v>
+      </c>
+      <c r="AF40" s="42">
+        <v>11.345000000000001</v>
+      </c>
+      <c r="AG40" s="42">
+        <v>12.207000000000001</v>
+      </c>
+      <c r="AH40" s="42">
+        <v>13.021000000000001</v>
+      </c>
+      <c r="AI40" s="42"/>
+      <c r="AJ40" s="42"/>
+      <c r="AK40" s="42"/>
+      <c r="AL40" s="42"/>
+      <c r="AM40" s="42"/>
+      <c r="AN40" s="42"/>
+    </row>
+    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A41" s="40">
+        <v>57</v>
+      </c>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42">
+        <v>1.381</v>
+      </c>
+      <c r="H41" s="42">
+        <v>1.651</v>
+      </c>
+      <c r="I41" s="42">
+        <v>1.92</v>
+      </c>
+      <c r="J41" s="42">
+        <v>2.0529999999999999</v>
+      </c>
+      <c r="K41" s="42">
+        <v>2.1859999999999999</v>
+      </c>
+      <c r="L41" s="42">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="M41" s="42">
+        <v>2.7130000000000001</v>
+      </c>
+      <c r="N41" s="42">
+        <v>2.9729999999999999</v>
+      </c>
+      <c r="O41" s="42">
+        <v>3.36</v>
+      </c>
+      <c r="P41" s="42">
+        <v>3.7429999999999999</v>
+      </c>
+      <c r="Q41" s="42">
+        <v>3.9950000000000001</v>
+      </c>
+      <c r="R41" s="42">
+        <v>4.2460000000000004</v>
+      </c>
+      <c r="S41" s="42">
+        <v>4.6180000000000003</v>
+      </c>
+      <c r="T41" s="42">
+        <v>5.2279999999999998</v>
+      </c>
+      <c r="U41" s="42">
+        <v>5.8259999999999996</v>
+      </c>
+      <c r="V41" s="42">
+        <v>6.4119999999999999</v>
+      </c>
+      <c r="W41" s="42">
+        <v>6.9850000000000003</v>
+      </c>
+      <c r="X41" s="42">
+        <v>7.5460000000000003</v>
+      </c>
+      <c r="Y41" s="42">
+        <v>8.0950000000000006</v>
+      </c>
+      <c r="Z41" s="42">
+        <v>8.6319999999999997</v>
+      </c>
+      <c r="AA41" s="42">
+        <v>9.1560000000000006</v>
+      </c>
+      <c r="AB41" s="42">
+        <v>9.6669999999999998</v>
+      </c>
+      <c r="AC41" s="42">
+        <v>10.167</v>
+      </c>
+      <c r="AD41" s="42">
+        <v>10.654</v>
+      </c>
+      <c r="AE41" s="42">
+        <v>11.128</v>
+      </c>
+      <c r="AF41" s="42">
+        <v>11.590999999999999</v>
+      </c>
+      <c r="AG41" s="42">
+        <v>12.478999999999999</v>
+      </c>
+      <c r="AH41" s="42">
+        <v>13.317</v>
+      </c>
+      <c r="AI41" s="42"/>
+      <c r="AJ41" s="42"/>
+      <c r="AK41" s="42"/>
+      <c r="AL41" s="42"/>
+      <c r="AM41" s="42"/>
+      <c r="AN41" s="42"/>
+    </row>
+    <row r="42" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A42" s="40">
+        <v>60</v>
+      </c>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42">
+        <v>1.4550000000000001</v>
+      </c>
+      <c r="H42" s="42">
+        <v>1.74</v>
+      </c>
+      <c r="I42" s="42">
+        <v>2.0230000000000001</v>
+      </c>
+      <c r="J42" s="42">
+        <v>2.1640000000000001</v>
+      </c>
+      <c r="K42" s="42">
+        <v>2.3039999999999998</v>
+      </c>
+      <c r="L42" s="42">
+        <v>2.5840000000000001</v>
+      </c>
+      <c r="M42" s="42">
+        <v>2.8610000000000002</v>
+      </c>
+      <c r="N42" s="42">
+        <v>3.1360000000000001</v>
+      </c>
+      <c r="O42" s="42">
+        <v>3.5449999999999999</v>
+      </c>
+      <c r="P42" s="42">
+        <v>3.95</v>
+      </c>
+      <c r="Q42" s="42">
+        <v>4.2169999999999996</v>
+      </c>
+      <c r="R42" s="42">
+        <v>4.4820000000000002</v>
+      </c>
+      <c r="S42" s="42">
+        <v>4.8769999999999998</v>
+      </c>
+      <c r="T42" s="42">
+        <v>5.524</v>
+      </c>
+      <c r="U42" s="42">
+        <v>6.1589999999999998</v>
+      </c>
+      <c r="V42" s="42">
+        <v>6.782</v>
+      </c>
+      <c r="W42" s="42">
+        <v>7.3920000000000003</v>
+      </c>
+      <c r="X42" s="42">
+        <v>7.99</v>
+      </c>
+      <c r="Y42" s="42">
+        <v>8.5749999999999993</v>
+      </c>
+      <c r="Z42" s="42">
+        <v>9.1489999999999991</v>
+      </c>
+      <c r="AA42" s="42">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="AB42" s="42">
+        <v>10.259</v>
+      </c>
+      <c r="AC42" s="42">
+        <v>10.795999999999999</v>
+      </c>
+      <c r="AD42" s="42">
+        <v>11.32</v>
+      </c>
+      <c r="AE42" s="42">
+        <v>11.831</v>
+      </c>
+      <c r="AF42" s="42">
+        <v>12.331</v>
+      </c>
+      <c r="AG42" s="42">
+        <v>13.292999999999999</v>
+      </c>
+      <c r="AH42" s="42">
+        <v>14.205</v>
+      </c>
+      <c r="AI42" s="42"/>
+      <c r="AJ42" s="42"/>
+      <c r="AK42" s="42"/>
+      <c r="AL42" s="42"/>
+      <c r="AM42" s="42"/>
+      <c r="AN42" s="42"/>
+    </row>
+    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A43" s="40">
+        <v>63</v>
+      </c>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42">
+        <v>1.5289999999999999</v>
+      </c>
+      <c r="H43" s="42">
+        <v>1.829</v>
+      </c>
+      <c r="I43" s="42">
+        <v>2.1269999999999998</v>
+      </c>
+      <c r="J43" s="42">
+        <v>2.2749999999999999</v>
+      </c>
+      <c r="K43" s="42">
+        <v>2.423</v>
+      </c>
+      <c r="L43" s="42">
+        <v>2.7170000000000001</v>
+      </c>
+      <c r="M43" s="42">
+        <v>3.0089999999999999</v>
+      </c>
+      <c r="N43" s="42">
+        <v>3.4990000000000001</v>
+      </c>
+      <c r="O43" s="42">
+        <v>3.73</v>
+      </c>
+      <c r="P43" s="42">
+        <v>4.157</v>
+      </c>
+      <c r="Q43" s="42">
+        <v>4.4390000000000001</v>
+      </c>
+      <c r="R43" s="42">
+        <v>4.7190000000000003</v>
+      </c>
+      <c r="S43" s="42">
+        <v>5.1360000000000001</v>
+      </c>
+      <c r="T43" s="42">
+        <v>5.82</v>
+      </c>
+      <c r="U43" s="42">
+        <v>6.492</v>
+      </c>
+      <c r="V43" s="42">
+        <v>7.1520000000000001</v>
+      </c>
+      <c r="W43" s="42">
+        <v>7.7990000000000004</v>
+      </c>
+      <c r="X43" s="42">
+        <v>8.4339999999999993</v>
+      </c>
+      <c r="Y43" s="42">
+        <v>9.0559999999999992</v>
+      </c>
+      <c r="Z43" s="42">
+        <v>9.6669999999999998</v>
+      </c>
+      <c r="AA43" s="42">
+        <v>10.265000000000001</v>
+      </c>
+      <c r="AB43" s="42">
+        <v>10.851000000000001</v>
+      </c>
+      <c r="AC43" s="42">
+        <v>11.423999999999999</v>
+      </c>
+      <c r="AD43" s="42">
+        <v>11.984999999999999</v>
+      </c>
+      <c r="AE43" s="42">
+        <v>12.534000000000001</v>
+      </c>
+      <c r="AF43" s="42">
+        <v>13.07</v>
+      </c>
+      <c r="AG43" s="42">
+        <v>14.106</v>
+      </c>
+      <c r="AH43" s="42">
+        <v>15.093</v>
+      </c>
+      <c r="AI43" s="42"/>
+      <c r="AJ43" s="42"/>
+      <c r="AK43" s="42"/>
+      <c r="AL43" s="42"/>
+      <c r="AM43" s="42"/>
+      <c r="AN43" s="42"/>
+    </row>
+    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A44" s="40">
+        <v>65</v>
+      </c>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42">
+        <v>1.5780000000000001</v>
+      </c>
+      <c r="H44" s="42">
+        <v>1.8879999999999999</v>
+      </c>
+      <c r="I44" s="42">
+        <v>2.1960000000000002</v>
+      </c>
+      <c r="J44" s="42">
+        <v>2.3490000000000002</v>
+      </c>
+      <c r="K44" s="42">
+        <v>2.5019999999999998</v>
+      </c>
+      <c r="L44" s="42">
+        <v>2.806</v>
+      </c>
+      <c r="M44" s="42">
+        <v>3.1070000000000002</v>
+      </c>
+      <c r="N44" s="42">
+        <v>3.407</v>
+      </c>
+      <c r="O44" s="42">
+        <v>3.8530000000000002</v>
+      </c>
+      <c r="P44" s="42">
+        <v>4.2949999999999999</v>
+      </c>
+      <c r="Q44" s="42">
+        <v>4.5869999999999997</v>
+      </c>
+      <c r="R44" s="42">
+        <v>4.8769999999999998</v>
+      </c>
+      <c r="S44" s="42">
+        <v>5.3079999999999998</v>
+      </c>
+      <c r="T44" s="42">
+        <v>6.0170000000000003</v>
+      </c>
+      <c r="U44" s="42">
+        <v>6.7140000000000004</v>
+      </c>
+      <c r="V44" s="42">
+        <v>7.3979999999999997</v>
+      </c>
+      <c r="W44" s="42">
+        <v>8.07</v>
+      </c>
+      <c r="X44" s="42">
+        <v>8.73</v>
+      </c>
+      <c r="Y44" s="42">
+        <v>9.3770000000000007</v>
+      </c>
+      <c r="Z44" s="42">
+        <v>10.013</v>
+      </c>
+      <c r="AA44" s="42">
+        <v>10.635</v>
+      </c>
+      <c r="AB44" s="42">
+        <v>11.246</v>
+      </c>
+      <c r="AC44" s="42">
+        <v>11.843999999999999</v>
+      </c>
+      <c r="AD44" s="42">
+        <v>12.429</v>
+      </c>
+      <c r="AE44" s="42">
+        <v>13.003</v>
+      </c>
+      <c r="AF44" s="42">
+        <v>13.564</v>
+      </c>
+      <c r="AG44" s="42">
+        <v>14.648999999999999</v>
+      </c>
+      <c r="AH44" s="42">
+        <v>15.685</v>
+      </c>
+      <c r="AI44" s="42"/>
+      <c r="AJ44" s="42"/>
+      <c r="AK44" s="42"/>
+      <c r="AL44" s="42"/>
+      <c r="AM44" s="42"/>
+      <c r="AN44" s="42"/>
+    </row>
+    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A45" s="40">
+        <v>68</v>
+      </c>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42">
+        <v>1.6519999999999999</v>
+      </c>
+      <c r="H45" s="42">
+        <v>1.9770000000000001</v>
+      </c>
+      <c r="I45" s="42">
+        <v>2.2989999999999999</v>
+      </c>
+      <c r="J45" s="42">
+        <v>2.46</v>
+      </c>
+      <c r="K45" s="42">
+        <v>2.62</v>
+      </c>
+      <c r="L45" s="42">
+        <v>2.9390000000000001</v>
+      </c>
+      <c r="M45" s="42">
+        <v>3.2549999999999999</v>
+      </c>
+      <c r="N45" s="42">
+        <v>3.57</v>
+      </c>
+      <c r="O45" s="42">
+        <v>4.0380000000000003</v>
+      </c>
+      <c r="P45" s="42">
+        <v>4.5019999999999998</v>
+      </c>
+      <c r="Q45" s="42">
+        <v>4.8090000000000002</v>
+      </c>
+      <c r="R45" s="42">
+        <v>5.1130000000000004</v>
+      </c>
+      <c r="S45" s="42">
+        <v>5.5670000000000002</v>
+      </c>
+      <c r="T45" s="42">
+        <v>6.3129999999999997</v>
+      </c>
+      <c r="U45" s="42">
+        <v>7.0469999999999997</v>
+      </c>
+      <c r="V45" s="42">
+        <v>7.7679999999999998</v>
+      </c>
+      <c r="W45" s="42">
+        <v>8.4770000000000003</v>
+      </c>
+      <c r="X45" s="42">
+        <v>9.1739999999999995</v>
+      </c>
+      <c r="Y45" s="42">
+        <v>9.8569999999999993</v>
+      </c>
+      <c r="Z45" s="42">
+        <v>10.53</v>
+      </c>
+      <c r="AA45" s="42">
+        <v>11.19</v>
+      </c>
+      <c r="AB45" s="42">
+        <v>11.837999999999999</v>
+      </c>
+      <c r="AC45" s="42">
+        <v>12.473000000000001</v>
+      </c>
+      <c r="AD45" s="42">
+        <v>13.095000000000001</v>
+      </c>
+      <c r="AE45" s="42">
+        <v>13.706</v>
+      </c>
+      <c r="AF45" s="42">
+        <v>14.304</v>
+      </c>
+      <c r="AG45" s="42">
+        <v>15.462999999999999</v>
+      </c>
+      <c r="AH45" s="42">
+        <v>16.573</v>
+      </c>
+      <c r="AI45" s="42"/>
+      <c r="AJ45" s="42"/>
+      <c r="AK45" s="42"/>
+      <c r="AL45" s="42"/>
+      <c r="AM45" s="42"/>
+      <c r="AN45" s="42"/>
+    </row>
+    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A46" s="40">
+        <v>70</v>
+      </c>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42">
+        <v>1.702</v>
+      </c>
+      <c r="H46" s="42">
+        <v>2.036</v>
+      </c>
+      <c r="I46" s="42">
+        <v>2.3679999999999999</v>
+      </c>
+      <c r="J46" s="42">
+        <v>2.5339999999999998</v>
+      </c>
+      <c r="K46" s="42">
+        <v>2.6989999999999998</v>
+      </c>
+      <c r="L46" s="42">
+        <v>3.0270000000000001</v>
+      </c>
+      <c r="M46" s="42">
+        <v>3.3540000000000001</v>
+      </c>
+      <c r="N46" s="42">
+        <v>3.673</v>
+      </c>
+      <c r="O46" s="42">
+        <v>4.1619999999999999</v>
+      </c>
+      <c r="P46" s="42">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="Q46" s="42">
+        <v>4.9569999999999999</v>
+      </c>
+      <c r="R46" s="42">
+        <v>5.2709999999999999</v>
+      </c>
+      <c r="S46" s="42">
+        <v>5.74</v>
+      </c>
+      <c r="T46" s="42">
+        <v>6.5110000000000001</v>
+      </c>
+      <c r="U46" s="42">
+        <v>7.2690000000000001</v>
+      </c>
+      <c r="V46" s="42">
+        <v>8.0150000000000006</v>
+      </c>
+      <c r="W46" s="42">
+        <v>8.7490000000000006</v>
+      </c>
+      <c r="X46" s="42">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="Y46" s="42">
+        <v>10.178000000000001</v>
+      </c>
+      <c r="Z46" s="42">
+        <v>10.875999999999999</v>
+      </c>
+      <c r="AA46" s="42">
+        <v>11.56</v>
+      </c>
+      <c r="AB46" s="42">
+        <v>12.231999999999999</v>
+      </c>
+      <c r="AC46" s="42">
+        <v>12.891999999999999</v>
+      </c>
+      <c r="AD46" s="42">
+        <v>13.539</v>
+      </c>
+      <c r="AE46" s="42">
+        <v>14.173999999999999</v>
+      </c>
+      <c r="AF46" s="42">
+        <v>14.797000000000001</v>
+      </c>
+      <c r="AG46" s="42">
+        <v>16.004999999999999</v>
+      </c>
+      <c r="AH46" s="42">
+        <v>17.164000000000001</v>
+      </c>
+      <c r="AI46" s="42"/>
+      <c r="AJ46" s="42"/>
+      <c r="AK46" s="42"/>
+      <c r="AL46" s="42"/>
+      <c r="AM46" s="42"/>
+      <c r="AN46" s="42"/>
+    </row>
+    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A47" s="40">
+        <v>73</v>
+      </c>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42">
+        <v>1.776</v>
+      </c>
+      <c r="H47" s="42">
+        <v>2.125</v>
+      </c>
+      <c r="I47" s="42">
+        <v>2.472</v>
+      </c>
+      <c r="J47" s="42">
+        <v>2.645</v>
+      </c>
+      <c r="K47" s="42">
+        <v>2.8170000000000002</v>
+      </c>
+      <c r="L47" s="42">
+        <v>3.161</v>
+      </c>
+      <c r="M47" s="42">
+        <v>3.5019999999999998</v>
+      </c>
+      <c r="N47" s="42">
+        <v>3.8410000000000002</v>
+      </c>
+      <c r="O47" s="42">
+        <v>4.3470000000000004</v>
+      </c>
+      <c r="P47" s="42">
+        <v>4.8470000000000004</v>
+      </c>
+      <c r="Q47" s="42">
+        <v>5.1790000000000003</v>
+      </c>
+      <c r="R47" s="42">
+        <v>5.508</v>
+      </c>
+      <c r="S47" s="42">
+        <v>5.9989999999999997</v>
+      </c>
+      <c r="T47" s="42">
+        <v>6.8070000000000004</v>
+      </c>
+      <c r="U47" s="42">
+        <v>7.6020000000000003</v>
+      </c>
+      <c r="V47" s="42">
+        <v>8.3849999999999998</v>
+      </c>
+      <c r="W47" s="42">
+        <v>9.1560000000000006</v>
+      </c>
+      <c r="X47" s="42">
+        <v>9.9139999999999997</v>
+      </c>
+      <c r="Y47" s="42">
+        <v>10.659000000000001</v>
+      </c>
+      <c r="Z47" s="42">
+        <v>11.394</v>
+      </c>
+      <c r="AA47" s="42">
+        <v>12.115</v>
+      </c>
+      <c r="AB47" s="42">
+        <v>12.824</v>
+      </c>
+      <c r="AC47" s="42">
+        <v>13.521000000000001</v>
+      </c>
+      <c r="AD47" s="42">
+        <v>14.205</v>
+      </c>
+      <c r="AE47" s="42">
+        <v>14.877000000000001</v>
+      </c>
+      <c r="AF47" s="42">
+        <v>15.537000000000001</v>
+      </c>
+      <c r="AG47" s="42">
+        <v>16.818999999999999</v>
+      </c>
+      <c r="AH47" s="42">
+        <v>18.052</v>
+      </c>
+      <c r="AI47" s="42"/>
+      <c r="AJ47" s="42"/>
+      <c r="AK47" s="42"/>
+      <c r="AL47" s="42"/>
+      <c r="AM47" s="42"/>
+      <c r="AN47" s="42"/>
+    </row>
+    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A48" s="40">
+        <v>75</v>
+      </c>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42">
+        <v>1.825</v>
+      </c>
+      <c r="H48" s="42">
+        <v>2.1840000000000002</v>
+      </c>
+      <c r="I48" s="42">
+        <v>2.5409999999999999</v>
+      </c>
+      <c r="J48" s="42">
+        <v>2.7189999999999999</v>
+      </c>
+      <c r="K48" s="42">
+        <v>2.8959999999999999</v>
+      </c>
+      <c r="L48" s="42">
+        <v>3.2490000000000001</v>
+      </c>
+      <c r="M48" s="42">
+        <v>3.601</v>
+      </c>
+      <c r="N48" s="42">
+        <v>3.93</v>
+      </c>
+      <c r="O48" s="42">
+        <v>4.47</v>
+      </c>
+      <c r="P48" s="42">
+        <v>4.9859999999999998</v>
+      </c>
+      <c r="Q48" s="42">
+        <v>5.327</v>
+      </c>
+      <c r="R48" s="42">
+        <v>5.665</v>
+      </c>
+      <c r="S48" s="42">
+        <v>6.1719999999999997</v>
+      </c>
+      <c r="T48" s="42">
+        <v>7.0039999999999996</v>
+      </c>
+      <c r="U48" s="42">
+        <v>7.8239999999999998</v>
+      </c>
+      <c r="V48" s="42">
+        <v>8.6310000000000002</v>
+      </c>
+      <c r="W48" s="42">
+        <v>9.4269999999999996</v>
+      </c>
+      <c r="X48" s="42">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="Y48" s="42">
+        <v>10.98</v>
+      </c>
+      <c r="Z48" s="42">
+        <v>11.739000000000001</v>
+      </c>
+      <c r="AA48" s="42">
+        <v>12.484999999999999</v>
+      </c>
+      <c r="AB48" s="42">
+        <v>13.218999999999999</v>
+      </c>
+      <c r="AC48" s="42">
+        <v>13.94</v>
+      </c>
+      <c r="AD48" s="42">
+        <v>14.648999999999999</v>
+      </c>
+      <c r="AE48" s="42">
+        <v>15.345000000000001</v>
+      </c>
+      <c r="AF48" s="42">
+        <v>16.03</v>
+      </c>
+      <c r="AG48" s="42">
+        <v>17.361999999999998</v>
+      </c>
+      <c r="AH48" s="42">
+        <v>18.643999999999998</v>
+      </c>
+      <c r="AI48" s="42"/>
+      <c r="AJ48" s="42"/>
+      <c r="AK48" s="42"/>
+      <c r="AL48" s="42"/>
+      <c r="AM48" s="42"/>
+      <c r="AN48" s="42"/>
+    </row>
+    <row r="49" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A49" s="40">
+        <v>76</v>
+      </c>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42">
+        <v>1.85</v>
+      </c>
+      <c r="H49" s="42">
+        <v>2.214</v>
+      </c>
+      <c r="I49" s="42">
+        <v>2.5760000000000001</v>
+      </c>
+      <c r="J49" s="42">
+        <v>2.7559999999999998</v>
+      </c>
+      <c r="K49" s="42">
+        <v>2.9359999999999999</v>
+      </c>
+      <c r="L49" s="42">
+        <v>3.294</v>
+      </c>
+      <c r="M49" s="42">
+        <v>3.65</v>
+      </c>
+      <c r="N49" s="42">
+        <v>4.0039999999999996</v>
+      </c>
+      <c r="O49" s="42">
+        <v>4.532</v>
+      </c>
+      <c r="P49" s="42">
+        <v>5.0549999999999997</v>
+      </c>
+      <c r="Q49" s="42">
+        <v>5.4009999999999998</v>
+      </c>
+      <c r="R49" s="42">
+        <v>5.7450000000000001</v>
+      </c>
+      <c r="S49" s="42">
+        <v>6.258</v>
+      </c>
+      <c r="T49" s="42">
+        <v>7.1029999999999998</v>
+      </c>
+      <c r="U49" s="42">
+        <v>7.9349999999999996</v>
+      </c>
+      <c r="V49" s="42">
+        <v>8.7550000000000008</v>
+      </c>
+      <c r="W49" s="42">
+        <v>9.5619999999999994</v>
+      </c>
+      <c r="X49" s="42">
+        <v>10.358000000000001</v>
+      </c>
+      <c r="Y49" s="42">
+        <v>11.14</v>
+      </c>
+      <c r="Z49" s="42">
+        <v>11.911</v>
+      </c>
+      <c r="AA49" s="42">
+        <v>12.67</v>
+      </c>
+      <c r="AB49" s="42">
+        <v>13.416</v>
+      </c>
+      <c r="AC49" s="42">
+        <v>14.15</v>
+      </c>
+      <c r="AD49" s="42">
+        <v>14.871</v>
+      </c>
+      <c r="AE49" s="42">
+        <v>15.58</v>
+      </c>
+      <c r="AF49" s="42">
+        <v>16.276</v>
+      </c>
+      <c r="AG49" s="42">
+        <v>17.632999999999999</v>
+      </c>
+      <c r="AH49" s="42">
+        <v>18.940000000000001</v>
+      </c>
+      <c r="AI49" s="42"/>
+      <c r="AJ49" s="42"/>
+      <c r="AK49" s="42"/>
+      <c r="AL49" s="42"/>
+      <c r="AM49" s="42"/>
+      <c r="AN49" s="42"/>
+    </row>
+    <row r="50" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A50" s="40">
+        <v>80</v>
+      </c>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42">
+        <v>2.331</v>
+      </c>
+      <c r="I50" s="42">
+        <v>2.714</v>
+      </c>
+      <c r="J50" s="42">
+        <v>2.9039999999999999</v>
+      </c>
+      <c r="K50" s="42">
+        <v>3.0939999999999999</v>
+      </c>
+      <c r="L50" s="42">
+        <v>2.4710000000000001</v>
+      </c>
+      <c r="M50" s="42">
+        <v>3.847</v>
+      </c>
+      <c r="N50" s="42">
+        <v>4.2210000000000001</v>
+      </c>
+      <c r="O50" s="42">
+        <v>4.7779999999999996</v>
+      </c>
+      <c r="P50" s="42">
+        <v>5.3310000000000004</v>
+      </c>
+      <c r="Q50" s="42">
+        <v>5.6970000000000001</v>
+      </c>
+      <c r="R50" s="42">
+        <v>6.06</v>
+      </c>
+      <c r="S50" s="42">
+        <v>6.6029999999999998</v>
+      </c>
+      <c r="T50" s="42">
+        <v>7.4969999999999999</v>
+      </c>
+      <c r="U50" s="42">
+        <v>8.3789999999999996</v>
+      </c>
+      <c r="V50" s="42">
+        <v>9.218</v>
+      </c>
+      <c r="W50" s="42">
+        <v>10.105</v>
+      </c>
+      <c r="X50" s="42">
+        <v>10.95</v>
+      </c>
+      <c r="Y50" s="42">
+        <v>11.781000000000001</v>
+      </c>
+      <c r="Z50" s="42">
+        <v>12.602</v>
+      </c>
+      <c r="AA50" s="42">
+        <v>13.41</v>
+      </c>
+      <c r="AB50" s="42">
+        <v>14.205</v>
+      </c>
+      <c r="AC50" s="42">
+        <v>14.988</v>
+      </c>
+      <c r="AD50" s="42">
+        <v>15.759</v>
+      </c>
+      <c r="AE50" s="42">
+        <v>16.516999999999999</v>
+      </c>
+      <c r="AF50" s="42">
+        <v>17.263000000000002</v>
+      </c>
+      <c r="AG50" s="42">
+        <v>18.718</v>
+      </c>
+      <c r="AH50" s="42">
+        <v>20.123999999999999</v>
+      </c>
+      <c r="AI50" s="42"/>
+      <c r="AJ50" s="42"/>
+      <c r="AK50" s="42"/>
+      <c r="AL50" s="42"/>
+      <c r="AM50" s="42"/>
+      <c r="AN50" s="42"/>
+    </row>
+    <row r="51" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A51" s="40">
+        <v>83</v>
+      </c>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42">
+        <v>2.42</v>
+      </c>
+      <c r="I51" s="42">
+        <v>2.8170000000000002</v>
+      </c>
+      <c r="J51" s="42">
+        <v>3.0150000000000001</v>
+      </c>
+      <c r="K51" s="42">
+        <v>3.2120000000000002</v>
+      </c>
+      <c r="L51" s="42">
+        <v>3.605</v>
+      </c>
+      <c r="M51" s="42">
+        <v>3.9950000000000001</v>
+      </c>
+      <c r="N51" s="42">
+        <v>4.383</v>
+      </c>
+      <c r="O51" s="42">
+        <v>4.9630000000000001</v>
+      </c>
+      <c r="P51" s="42">
+        <v>5.5380000000000003</v>
+      </c>
+      <c r="Q51" s="42">
+        <v>5.9189999999999996</v>
+      </c>
+      <c r="R51" s="42">
+        <v>6.298</v>
+      </c>
+      <c r="S51" s="42">
+        <v>6.8620000000000001</v>
+      </c>
+      <c r="T51" s="42">
+        <v>7.7930000000000001</v>
+      </c>
+      <c r="U51" s="42">
+        <v>8.7119999999999997</v>
+      </c>
+      <c r="V51" s="42">
+        <v>9.6180000000000003</v>
+      </c>
+      <c r="W51" s="42">
+        <v>10.512</v>
+      </c>
+      <c r="X51" s="42">
+        <v>11.394</v>
+      </c>
+      <c r="Y51" s="42">
+        <v>12.263</v>
+      </c>
+      <c r="Z51" s="42">
+        <v>13.12</v>
+      </c>
+      <c r="AA51" s="42">
+        <v>13.965</v>
+      </c>
+      <c r="AB51" s="42">
+        <v>14.797000000000001</v>
+      </c>
+      <c r="AC51" s="42">
+        <v>15.617000000000001</v>
+      </c>
+      <c r="AD51" s="42">
+        <v>16.425000000000001</v>
+      </c>
+      <c r="AE51" s="42">
+        <v>17.22</v>
+      </c>
+      <c r="AF51" s="42">
+        <v>18.003</v>
+      </c>
+      <c r="AG51" s="42">
+        <v>19.532</v>
+      </c>
+      <c r="AH51" s="42">
+        <v>20.012</v>
+      </c>
+      <c r="AI51" s="42"/>
+      <c r="AJ51" s="42"/>
+      <c r="AK51" s="42"/>
+      <c r="AL51" s="42"/>
+      <c r="AM51" s="42"/>
+      <c r="AN51" s="42"/>
+    </row>
+    <row r="52" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A52" s="40">
+        <v>85</v>
+      </c>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42">
+        <v>2.48</v>
+      </c>
+      <c r="I52" s="42">
+        <v>2.8860000000000001</v>
+      </c>
+      <c r="J52" s="42">
+        <v>3.089</v>
+      </c>
+      <c r="K52" s="42">
+        <v>3.2909999999999999</v>
+      </c>
+      <c r="L52" s="42">
+        <v>3.6930000000000001</v>
+      </c>
+      <c r="M52" s="42">
+        <v>4.0940000000000003</v>
+      </c>
+      <c r="N52" s="42">
+        <v>4.492</v>
+      </c>
+      <c r="O52" s="42">
+        <v>5.0860000000000003</v>
+      </c>
+      <c r="P52" s="42">
+        <v>5.6760000000000002</v>
+      </c>
+      <c r="Q52" s="42">
+        <v>6.0670000000000002</v>
+      </c>
+      <c r="R52" s="42">
+        <v>6.4550000000000001</v>
+      </c>
+      <c r="S52" s="42">
+        <v>7.0350000000000001</v>
+      </c>
+      <c r="T52" s="42">
+        <v>7.99</v>
+      </c>
+      <c r="U52" s="42">
+        <v>8.9339999999999993</v>
+      </c>
+      <c r="V52" s="42">
+        <v>9.8650000000000002</v>
+      </c>
+      <c r="W52" s="42">
+        <v>10.782999999999999</v>
+      </c>
+      <c r="X52" s="42">
+        <v>11.69</v>
+      </c>
+      <c r="Y52" s="42">
+        <v>12.584</v>
+      </c>
+      <c r="Z52" s="42">
+        <v>13.465</v>
+      </c>
+      <c r="AA52" s="42">
+        <v>14.334</v>
+      </c>
+      <c r="AB52" s="42">
+        <v>15.191000000000001</v>
+      </c>
+      <c r="AC52" s="42">
+        <v>16.036000000000001</v>
+      </c>
+      <c r="AD52" s="42">
+        <v>16.867999999999999</v>
+      </c>
+      <c r="AE52" s="42">
+        <v>17.687999999999999</v>
+      </c>
+      <c r="AF52" s="42">
+        <v>18.495999999999999</v>
+      </c>
+      <c r="AG52" s="42">
+        <v>20.074000000000002</v>
+      </c>
+      <c r="AH52" s="42">
+        <v>21.603000000000002</v>
+      </c>
+      <c r="AI52" s="42"/>
+      <c r="AJ52" s="42"/>
+      <c r="AK52" s="42"/>
+      <c r="AL52" s="42"/>
+      <c r="AM52" s="42"/>
+      <c r="AN52" s="42"/>
+    </row>
+    <row r="53" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A53" s="40">
+        <v>89</v>
+      </c>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42">
+        <v>2.5979999999999999</v>
+      </c>
+      <c r="I53" s="42">
+        <v>3.024</v>
+      </c>
+      <c r="J53" s="42">
+        <v>3.2370000000000001</v>
+      </c>
+      <c r="K53" s="42">
+        <v>3.4489999999999998</v>
+      </c>
+      <c r="L53" s="42">
+        <v>3.871</v>
+      </c>
+      <c r="M53" s="42">
+        <v>4.2910000000000004</v>
+      </c>
+      <c r="N53" s="42">
+        <v>4.7089999999999996</v>
+      </c>
+      <c r="O53" s="42">
+        <v>5.3330000000000002</v>
+      </c>
+      <c r="P53" s="42">
+        <v>5.952</v>
+      </c>
+      <c r="Q53" s="42">
+        <v>6.3630000000000004</v>
+      </c>
+      <c r="R53" s="42">
+        <v>6.7709999999999999</v>
+      </c>
+      <c r="S53" s="42">
+        <v>7.38</v>
+      </c>
+      <c r="T53" s="42">
+        <v>8.3849999999999998</v>
+      </c>
+      <c r="U53" s="42">
+        <v>9.3780000000000001</v>
+      </c>
+      <c r="V53" s="42">
+        <v>10.358000000000001</v>
+      </c>
+      <c r="W53" s="42">
+        <v>11.326000000000001</v>
+      </c>
+      <c r="X53" s="42">
+        <v>12.281000000000001</v>
+      </c>
+      <c r="Y53" s="42">
+        <v>13.225</v>
+      </c>
+      <c r="Z53" s="42">
+        <v>14.156000000000001</v>
+      </c>
+      <c r="AA53" s="42">
+        <v>15.074</v>
+      </c>
+      <c r="AB53" s="42">
+        <v>15.981</v>
+      </c>
+      <c r="AC53" s="42">
+        <v>16.875</v>
+      </c>
+      <c r="AD53" s="42">
+        <v>17.756</v>
+      </c>
+      <c r="AE53" s="42">
+        <v>18.626000000000001</v>
+      </c>
+      <c r="AF53" s="42">
+        <v>19.483000000000001</v>
+      </c>
+      <c r="AG53" s="42">
+        <v>21.16</v>
+      </c>
+      <c r="AH53" s="42">
+        <v>22.786999999999999</v>
+      </c>
+      <c r="AI53" s="42"/>
+      <c r="AJ53" s="42"/>
+      <c r="AK53" s="42"/>
+      <c r="AL53" s="42"/>
+      <c r="AM53" s="42"/>
+      <c r="AN53" s="42"/>
+    </row>
+    <row r="54" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A54" s="40">
+        <v>90</v>
+      </c>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42">
+        <v>2.6280000000000001</v>
+      </c>
+      <c r="I54" s="42">
+        <v>3.0590000000000002</v>
+      </c>
+      <c r="J54" s="42">
+        <v>3.274</v>
+      </c>
+      <c r="K54" s="42">
+        <v>3.488</v>
+      </c>
+      <c r="L54" s="42">
+        <v>3.915</v>
+      </c>
+      <c r="M54" s="42">
+        <v>4.34</v>
+      </c>
+      <c r="N54" s="42">
+        <v>4.7629999999999999</v>
+      </c>
+      <c r="O54" s="42">
+        <v>5.3949999999999996</v>
+      </c>
+      <c r="P54" s="42">
+        <v>6.0209999999999999</v>
+      </c>
+      <c r="Q54" s="42">
+        <v>6.4370000000000003</v>
+      </c>
+      <c r="R54" s="42">
+        <v>6.85</v>
+      </c>
+      <c r="S54" s="42">
+        <v>7.4660000000000002</v>
+      </c>
+      <c r="T54" s="42">
+        <v>8.484</v>
+      </c>
+      <c r="U54" s="42">
+        <v>9.4890000000000008</v>
+      </c>
+      <c r="V54" s="42">
+        <v>10.481</v>
+      </c>
+      <c r="W54" s="42">
+        <v>11.461</v>
+      </c>
+      <c r="X54" s="42">
+        <v>12.429</v>
+      </c>
+      <c r="Y54" s="42">
+        <v>13.385</v>
+      </c>
+      <c r="Z54" s="42">
+        <v>14.327999999999999</v>
+      </c>
+      <c r="AA54" s="42">
+        <v>15.259</v>
+      </c>
+      <c r="AB54" s="42">
+        <v>16.178000000000001</v>
+      </c>
+      <c r="AC54" s="42">
+        <v>17.084</v>
+      </c>
+      <c r="AD54" s="42">
+        <v>17.978000000000002</v>
+      </c>
+      <c r="AE54" s="42">
+        <v>18.86</v>
+      </c>
+      <c r="AF54" s="42">
+        <v>19.728999999999999</v>
+      </c>
+      <c r="AG54" s="42">
+        <v>21.431000000000001</v>
+      </c>
+      <c r="AH54" s="42">
+        <v>23.082999999999998</v>
+      </c>
+      <c r="AI54" s="42"/>
+      <c r="AJ54" s="42"/>
+      <c r="AK54" s="42"/>
+      <c r="AL54" s="42"/>
+      <c r="AM54" s="42"/>
+      <c r="AN54" s="42"/>
+    </row>
+    <row r="55" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A55" s="40">
+        <v>95</v>
+      </c>
+      <c r="B55" s="42"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42">
+        <v>2.7759999999999998</v>
+      </c>
+      <c r="I55" s="42">
+        <v>3.2320000000000002</v>
+      </c>
+      <c r="J55" s="42">
+        <v>3.4590000000000001</v>
+      </c>
+      <c r="K55" s="42">
+        <v>3.6850000000000001</v>
+      </c>
+      <c r="L55" s="42">
+        <v>4.1369999999999996</v>
+      </c>
+      <c r="M55" s="42">
+        <v>4.5869999999999997</v>
+      </c>
+      <c r="N55" s="42">
+        <v>5.0339999999999998</v>
+      </c>
+      <c r="O55" s="42">
+        <v>5.7030000000000003</v>
+      </c>
+      <c r="P55" s="42">
+        <v>6.367</v>
+      </c>
+      <c r="Q55" s="42">
+        <v>6.867</v>
+      </c>
+      <c r="R55" s="42">
+        <v>7.2439999999999998</v>
+      </c>
+      <c r="S55" s="42">
+        <v>7.8979999999999997</v>
+      </c>
+      <c r="T55" s="42">
+        <v>8.9770000000000003</v>
+      </c>
+      <c r="U55" s="42">
+        <v>10.042999999999999</v>
+      </c>
+      <c r="V55" s="42">
+        <v>11.098000000000001</v>
+      </c>
+      <c r="W55" s="42">
+        <v>12.14</v>
+      </c>
+      <c r="X55" s="42">
+        <v>13.169</v>
+      </c>
+      <c r="Y55" s="42">
+        <v>14.186999999999999</v>
+      </c>
+      <c r="Z55" s="42">
+        <v>15.191000000000001</v>
+      </c>
+      <c r="AA55" s="42">
+        <v>16.184000000000001</v>
+      </c>
+      <c r="AB55" s="42">
+        <v>17.164000000000001</v>
+      </c>
+      <c r="AC55" s="42">
+        <v>18.132000000000001</v>
+      </c>
+      <c r="AD55" s="42">
+        <v>19.088000000000001</v>
+      </c>
+      <c r="AE55" s="42">
+        <v>20.030999999999999</v>
+      </c>
+      <c r="AF55" s="42">
+        <v>20.962</v>
+      </c>
+      <c r="AG55" s="42">
+        <v>22.786999999999999</v>
+      </c>
+      <c r="AH55" s="42">
+        <v>24.562999999999999</v>
+      </c>
+      <c r="AI55" s="42"/>
+      <c r="AJ55" s="42"/>
+      <c r="AK55" s="42"/>
+      <c r="AL55" s="42"/>
+      <c r="AM55" s="42"/>
+      <c r="AN55" s="42"/>
+    </row>
+    <row r="56" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A56" s="40">
+        <v>100</v>
+      </c>
+      <c r="B56" s="42"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="42">
+        <v>3.6440000000000001</v>
+      </c>
+      <c r="K56" s="42">
+        <v>3.883</v>
+      </c>
+      <c r="L56" s="42">
+        <v>4.359</v>
+      </c>
+      <c r="M56" s="42">
+        <v>4.8339999999999996</v>
+      </c>
+      <c r="N56" s="42">
+        <v>5.306</v>
+      </c>
+      <c r="O56" s="42">
+        <v>6.0110000000000001</v>
+      </c>
+      <c r="P56" s="42">
+        <v>6.7119999999999997</v>
+      </c>
+      <c r="Q56" s="42">
+        <v>7.1760000000000002</v>
+      </c>
+      <c r="R56" s="42">
+        <v>7.6390000000000002</v>
+      </c>
+      <c r="S56" s="42">
+        <v>8.3290000000000006</v>
+      </c>
+      <c r="T56" s="42">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="U56" s="42">
+        <v>10.598000000000001</v>
+      </c>
+      <c r="V56" s="42">
+        <v>11.714</v>
+      </c>
+      <c r="W56" s="42">
+        <v>12.818</v>
+      </c>
+      <c r="X56" s="42">
+        <v>13.909000000000001</v>
+      </c>
+      <c r="Y56" s="42">
+        <v>14.988</v>
+      </c>
+      <c r="Z56" s="42">
+        <v>16.055</v>
+      </c>
+      <c r="AA56" s="42">
+        <v>17.109000000000002</v>
+      </c>
+      <c r="AB56" s="42">
+        <v>18.151</v>
+      </c>
+      <c r="AC56" s="42">
+        <v>19.18</v>
+      </c>
+      <c r="AD56" s="42">
+        <v>20.198</v>
+      </c>
+      <c r="AE56" s="42">
+        <v>21.202999999999999</v>
+      </c>
+      <c r="AF56" s="42">
+        <v>22.192</v>
+      </c>
+      <c r="AG56" s="42">
+        <v>24.143999999999998</v>
+      </c>
+      <c r="AH56" s="42">
+        <v>26.042999999999999</v>
+      </c>
+      <c r="AI56" s="42">
+        <v>29.692</v>
+      </c>
+      <c r="AJ56" s="42">
+        <v>33.145000000000003</v>
+      </c>
+      <c r="AK56" s="42">
+        <v>36.4</v>
+      </c>
+      <c r="AL56" s="42"/>
+      <c r="AM56" s="42"/>
+      <c r="AN56" s="42"/>
+    </row>
+    <row r="57" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A57" s="40">
+        <v>102</v>
+      </c>
+      <c r="B57" s="42"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42">
+        <v>3.718</v>
+      </c>
+      <c r="K57" s="42">
+        <v>3.9620000000000002</v>
+      </c>
+      <c r="L57" s="42">
+        <v>4.4480000000000004</v>
+      </c>
+      <c r="M57" s="42">
+        <v>4.9329999999999998</v>
+      </c>
+      <c r="N57" s="42">
+        <v>5.4139999999999997</v>
+      </c>
+      <c r="O57" s="42">
+        <v>6.1349999999999998</v>
+      </c>
+      <c r="P57" s="42">
+        <v>6.85</v>
+      </c>
+      <c r="Q57" s="42">
+        <v>7.3239999999999998</v>
+      </c>
+      <c r="R57" s="42">
+        <v>7.7969999999999997</v>
+      </c>
+      <c r="S57" s="42">
+        <v>8.5020000000000007</v>
+      </c>
+      <c r="T57" s="42">
+        <v>9.6669999999999998</v>
+      </c>
+      <c r="U57" s="42">
+        <v>10.82</v>
+      </c>
+      <c r="V57" s="42">
+        <v>11.961</v>
+      </c>
+      <c r="W57" s="42">
+        <v>13.089</v>
+      </c>
+      <c r="X57" s="42">
+        <v>14.205</v>
+      </c>
+      <c r="Y57" s="42">
+        <v>15.308</v>
+      </c>
+      <c r="Z57" s="42">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="AA57" s="42">
+        <v>17.478999999999999</v>
+      </c>
+      <c r="AB57" s="42">
+        <v>18.545000000000002</v>
+      </c>
+      <c r="AC57" s="42">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="AD57" s="42">
+        <v>20.641999999999999</v>
+      </c>
+      <c r="AE57" s="42">
+        <v>21.670999999999999</v>
+      </c>
+      <c r="AF57" s="42">
+        <v>22.689</v>
+      </c>
+      <c r="AG57" s="42">
+        <v>24.686</v>
+      </c>
+      <c r="AH57" s="42">
+        <v>26.634</v>
+      </c>
+      <c r="AI57" s="42">
+        <v>30.382999999999999</v>
+      </c>
+      <c r="AJ57" s="42">
+        <v>33.933999999999997</v>
+      </c>
+      <c r="AK57" s="42">
+        <v>37.287999999999997</v>
+      </c>
+      <c r="AL57" s="42"/>
+      <c r="AM57" s="42"/>
+      <c r="AN57" s="42"/>
+    </row>
+    <row r="58" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A58" s="40">
+        <v>108</v>
+      </c>
+      <c r="B58" s="42"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42">
+        <v>3.94</v>
+      </c>
+      <c r="K58" s="42">
+        <v>4.1980000000000004</v>
+      </c>
+      <c r="L58" s="42">
+        <v>4.7140000000000004</v>
+      </c>
+      <c r="M58" s="42">
+        <v>5.2279999999999998</v>
+      </c>
+      <c r="N58" s="42">
+        <v>5.74</v>
+      </c>
+      <c r="O58" s="42">
+        <v>6.5039999999999996</v>
+      </c>
+      <c r="P58" s="42">
+        <v>7.2640000000000002</v>
+      </c>
+      <c r="Q58" s="42">
+        <v>7.7679999999999998</v>
+      </c>
+      <c r="R58" s="42">
+        <v>8.27</v>
+      </c>
+      <c r="S58" s="42">
+        <v>9.02</v>
+      </c>
+      <c r="T58" s="42">
+        <v>10.259</v>
+      </c>
+      <c r="U58" s="42">
+        <v>11.486000000000001</v>
+      </c>
+      <c r="V58" s="42">
+        <v>12.701000000000001</v>
+      </c>
+      <c r="W58" s="42">
+        <v>13.903</v>
+      </c>
+      <c r="X58" s="42">
+        <v>15.093</v>
+      </c>
+      <c r="Y58" s="42">
+        <v>16.268999999999998</v>
+      </c>
+      <c r="Z58" s="42">
+        <v>17.436</v>
+      </c>
+      <c r="AA58" s="42">
+        <v>18.588999999999999</v>
+      </c>
+      <c r="AB58" s="42">
+        <v>19.728999999999999</v>
+      </c>
+      <c r="AC58" s="42">
+        <v>20.856999999999999</v>
+      </c>
+      <c r="AD58" s="42">
+        <v>21.972999999999999</v>
+      </c>
+      <c r="AE58" s="42">
+        <v>23.077000000000002</v>
+      </c>
+      <c r="AF58" s="42">
+        <v>24.167999999999999</v>
+      </c>
+      <c r="AG58" s="42">
+        <v>26.314</v>
+      </c>
+      <c r="AH58" s="42">
+        <v>28.41</v>
+      </c>
+      <c r="AI58" s="42">
+        <v>32.454999999999998</v>
+      </c>
+      <c r="AJ58" s="42">
+        <v>36.302</v>
+      </c>
+      <c r="AK58" s="42">
+        <v>39.951999999999998</v>
+      </c>
+      <c r="AL58" s="42"/>
+      <c r="AM58" s="42"/>
+      <c r="AN58" s="42"/>
+    </row>
+    <row r="59" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A59" s="40">
+        <v>110</v>
+      </c>
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42">
+        <v>4.0140000000000002</v>
+      </c>
+      <c r="K59" s="42">
+        <v>4.2770000000000001</v>
+      </c>
+      <c r="L59" s="42">
+        <v>4.8029999999999999</v>
+      </c>
+      <c r="M59" s="42">
+        <v>5.327</v>
+      </c>
+      <c r="N59" s="42">
+        <v>6.8490000000000002</v>
+      </c>
+      <c r="O59" s="42">
+        <v>6.6280000000000001</v>
+      </c>
+      <c r="P59" s="42">
+        <v>7.4020000000000001</v>
+      </c>
+      <c r="Q59" s="42">
+        <v>7.9160000000000004</v>
+      </c>
+      <c r="R59" s="42">
+        <v>9.4280000000000008</v>
+      </c>
+      <c r="S59" s="42">
+        <v>9.1929999999999996</v>
+      </c>
+      <c r="T59" s="42">
+        <v>10.456</v>
+      </c>
+      <c r="U59" s="42">
+        <v>11.708</v>
+      </c>
+      <c r="V59" s="42">
+        <v>12.946999999999999</v>
+      </c>
+      <c r="W59" s="42">
+        <v>14.173999999999999</v>
+      </c>
+      <c r="X59" s="42">
+        <v>15.388999999999999</v>
+      </c>
+      <c r="Y59" s="42">
+        <v>16.59</v>
+      </c>
+      <c r="Z59" s="42">
+        <v>17.780999999999999</v>
+      </c>
+      <c r="AA59" s="42">
+        <v>18.959</v>
+      </c>
+      <c r="AB59" s="42">
+        <v>20.123999999999999</v>
+      </c>
+      <c r="AC59" s="42">
+        <v>21.277000000000001</v>
+      </c>
+      <c r="AD59" s="42">
+        <v>22.417000000000002</v>
+      </c>
+      <c r="AE59" s="42">
+        <v>23.545999999999999</v>
+      </c>
+      <c r="AF59" s="42">
+        <v>24.661999999999999</v>
+      </c>
+      <c r="AG59" s="42">
+        <v>26.856000000000002</v>
+      </c>
+      <c r="AH59" s="42">
+        <v>29.001999999999999</v>
+      </c>
+      <c r="AI59" s="42">
+        <v>33.145000000000003</v>
+      </c>
+      <c r="AJ59" s="42">
+        <v>37.091000000000001</v>
+      </c>
+      <c r="AK59" s="42">
+        <v>40.838999999999999</v>
+      </c>
+      <c r="AL59" s="42">
+        <v>44.390999999999998</v>
+      </c>
+      <c r="AM59" s="42">
+        <v>47.744999999999997</v>
+      </c>
+      <c r="AN59" s="42"/>
+    </row>
+    <row r="60" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A60" s="40">
+        <v>120</v>
+      </c>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="42">
+        <v>4.3840000000000003</v>
+      </c>
+      <c r="K60" s="42">
+        <v>4.6719999999999997</v>
+      </c>
+      <c r="L60" s="42">
+        <v>5.2469999999999999</v>
+      </c>
+      <c r="M60" s="42">
+        <v>5.82</v>
+      </c>
+      <c r="N60" s="42">
+        <v>6.391</v>
+      </c>
+      <c r="O60" s="42">
+        <v>7.2439999999999998</v>
+      </c>
+      <c r="P60" s="42">
+        <v>8.093</v>
+      </c>
+      <c r="Q60" s="42">
+        <v>8.6560000000000006</v>
+      </c>
+      <c r="R60" s="42">
+        <v>9.2170000000000005</v>
+      </c>
+      <c r="S60" s="42">
+        <v>10.055999999999999</v>
+      </c>
+      <c r="T60" s="42">
+        <v>11.443</v>
+      </c>
+      <c r="U60" s="42">
+        <v>12.818</v>
+      </c>
+      <c r="V60" s="42">
+        <v>14.18</v>
+      </c>
+      <c r="W60" s="42">
+        <v>15.531000000000001</v>
+      </c>
+      <c r="X60" s="42">
+        <v>16.867999999999999</v>
+      </c>
+      <c r="Y60" s="42">
+        <v>18.193000000000001</v>
+      </c>
+      <c r="Z60" s="42">
+        <v>19.507000000000001</v>
+      </c>
+      <c r="AA60" s="42">
+        <v>20.808</v>
+      </c>
+      <c r="AB60" s="42">
+        <v>22.097000000000001</v>
+      </c>
+      <c r="AC60" s="42">
+        <v>23.373000000000001</v>
+      </c>
+      <c r="AD60" s="42">
+        <v>24.637</v>
+      </c>
+      <c r="AE60" s="42">
+        <v>25.888000000000002</v>
+      </c>
+      <c r="AF60" s="42">
+        <v>27.128</v>
+      </c>
+      <c r="AG60" s="42">
+        <v>29.568999999999999</v>
+      </c>
+      <c r="AH60" s="42">
+        <v>31.960999999999999</v>
+      </c>
+      <c r="AI60" s="42">
+        <v>36.597999999999999</v>
+      </c>
+      <c r="AJ60" s="42">
+        <v>41.036999999999999</v>
+      </c>
+      <c r="AK60" s="42">
+        <v>45.277999999999999</v>
+      </c>
+      <c r="AL60" s="42">
+        <v>49.323</v>
+      </c>
+      <c r="AM60" s="42">
+        <v>53.17</v>
+      </c>
+      <c r="AN60" s="42"/>
+    </row>
+    <row r="61" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A61" s="40">
+        <v>130</v>
+      </c>
+      <c r="B61" s="42"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="42">
+        <v>4.7539999999999996</v>
+      </c>
+      <c r="K61" s="42">
+        <v>5.0659999999999998</v>
+      </c>
+      <c r="L61" s="42">
+        <v>5.6909999999999998</v>
+      </c>
+      <c r="M61" s="42">
+        <v>6.3129999999999997</v>
+      </c>
+      <c r="N61" s="42">
+        <v>6.9340000000000002</v>
+      </c>
+      <c r="O61" s="42">
+        <v>7.8609999999999998</v>
+      </c>
+      <c r="P61" s="42">
+        <v>8.7829999999999995</v>
+      </c>
+      <c r="Q61" s="42">
+        <v>9.3960000000000008</v>
+      </c>
+      <c r="R61" s="42">
+        <v>10.007</v>
+      </c>
+      <c r="S61" s="42">
+        <v>10.919</v>
+      </c>
+      <c r="T61" s="42">
+        <v>12.429</v>
+      </c>
+      <c r="U61" s="42">
+        <v>13.928000000000001</v>
+      </c>
+      <c r="V61" s="42">
+        <v>15.413</v>
+      </c>
+      <c r="W61" s="42">
+        <v>16.887</v>
+      </c>
+      <c r="X61" s="42">
+        <v>18.347999999999999</v>
+      </c>
+      <c r="Y61" s="42">
+        <v>19.795999999999999</v>
+      </c>
+      <c r="Z61" s="42">
+        <v>21.233000000000001</v>
+      </c>
+      <c r="AA61" s="42">
+        <v>22.658000000000001</v>
+      </c>
+      <c r="AB61" s="42">
+        <v>24.07</v>
+      </c>
+      <c r="AC61" s="42">
+        <v>25.469000000000001</v>
+      </c>
+      <c r="AD61" s="42">
+        <v>26.856000000000002</v>
+      </c>
+      <c r="AE61" s="42">
+        <v>28.131</v>
+      </c>
+      <c r="AF61" s="42">
+        <v>29.504000000000001</v>
+      </c>
+      <c r="AG61" s="42">
+        <v>32.281999999999996</v>
+      </c>
+      <c r="AH61" s="42">
+        <v>34.920999999999999</v>
+      </c>
+      <c r="AI61" s="42">
+        <v>40.049999999999997</v>
+      </c>
+      <c r="AJ61" s="42">
+        <v>44.982999999999997</v>
+      </c>
+      <c r="AK61" s="42">
+        <v>49.718000000000004</v>
+      </c>
+      <c r="AL61" s="42">
+        <v>54.255000000000003</v>
+      </c>
+      <c r="AM61" s="42">
+        <v>58.595999999999997</v>
+      </c>
+      <c r="AN61" s="42"/>
+    </row>
+    <row r="62" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A62" s="40">
+        <v>140</v>
+      </c>
+      <c r="B62" s="42"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="42"/>
+      <c r="K62" s="42">
+        <v>5.4610000000000003</v>
+      </c>
+      <c r="L62" s="42">
+        <v>6.1349999999999998</v>
+      </c>
+      <c r="M62" s="42">
+        <v>6.8070000000000004</v>
+      </c>
+      <c r="N62" s="42">
+        <v>7.476</v>
+      </c>
+      <c r="O62" s="42">
+        <v>8.4770000000000003</v>
+      </c>
+      <c r="P62" s="42">
+        <v>9.4740000000000002</v>
+      </c>
+      <c r="Q62" s="42">
+        <v>10.135999999999999</v>
+      </c>
+      <c r="R62" s="42">
+        <v>10.795999999999999</v>
+      </c>
+      <c r="S62" s="42">
+        <v>11.782</v>
+      </c>
+      <c r="T62" s="42">
+        <v>13.416</v>
+      </c>
+      <c r="U62" s="42">
+        <v>15.037000000000001</v>
+      </c>
+      <c r="V62" s="42">
+        <v>16.646000000000001</v>
+      </c>
+      <c r="W62" s="42">
+        <v>18.242999999999999</v>
+      </c>
+      <c r="X62" s="42">
+        <v>19.827999999999999</v>
+      </c>
+      <c r="Y62" s="42">
+        <v>21.4</v>
+      </c>
+      <c r="Z62" s="42">
+        <v>22.96</v>
+      </c>
+      <c r="AA62" s="42">
+        <v>24.507000000000001</v>
+      </c>
+      <c r="AB62" s="42">
+        <v>26.042999999999999</v>
+      </c>
+      <c r="AC62" s="42">
+        <v>27.565000000000001</v>
+      </c>
+      <c r="AD62" s="42">
+        <v>29.076000000000001</v>
+      </c>
+      <c r="AE62" s="42">
+        <v>30.574000000000002</v>
+      </c>
+      <c r="AF62" s="42">
+        <v>32.06</v>
+      </c>
+      <c r="AG62" s="42">
+        <v>34.994999999999997</v>
+      </c>
+      <c r="AH62" s="42">
+        <v>37.880000000000003</v>
+      </c>
+      <c r="AI62" s="42">
+        <v>43.503</v>
+      </c>
+      <c r="AJ62" s="42">
+        <v>48.927999999999997</v>
+      </c>
+      <c r="AK62" s="42">
+        <v>54.156999999999996</v>
+      </c>
+      <c r="AL62" s="42">
+        <v>59.188000000000002</v>
+      </c>
+      <c r="AM62" s="42">
+        <v>64.012</v>
+      </c>
+      <c r="AN62" s="42"/>
+    </row>
+    <row r="63" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A63" s="40">
+        <v>150</v>
+      </c>
+      <c r="B63" s="42"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42"/>
+      <c r="K63" s="42"/>
+      <c r="L63" s="42">
+        <v>6.5789999999999997</v>
+      </c>
+      <c r="M63" s="42">
+        <v>7.3</v>
+      </c>
+      <c r="N63" s="42">
+        <v>8.0190000000000001</v>
+      </c>
+      <c r="O63" s="42">
+        <v>9.0939999999999994</v>
+      </c>
+      <c r="P63" s="42">
+        <v>10.164</v>
+      </c>
+      <c r="Q63" s="42">
+        <v>10.875999999999999</v>
+      </c>
+      <c r="R63" s="42">
+        <v>11.584</v>
+      </c>
+      <c r="S63" s="42">
+        <v>12.645</v>
+      </c>
+      <c r="T63" s="42">
+        <v>14.401999999999999</v>
+      </c>
+      <c r="U63" s="42">
+        <v>16.146999999999998</v>
+      </c>
+      <c r="V63" s="42">
+        <v>17.88</v>
+      </c>
+      <c r="W63" s="42">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="X63" s="42">
+        <v>21.308</v>
+      </c>
+      <c r="Y63" s="42">
+        <v>23.003</v>
+      </c>
+      <c r="Z63" s="42">
+        <v>24.686</v>
+      </c>
+      <c r="AA63" s="42">
+        <v>26.356999999999999</v>
+      </c>
+      <c r="AB63" s="42">
+        <v>28.015999999999998</v>
+      </c>
+      <c r="AC63" s="42">
+        <v>29.661999999999999</v>
+      </c>
+      <c r="AD63" s="42">
+        <v>31.295000000000002</v>
+      </c>
+      <c r="AE63" s="42">
+        <v>32.917000000000002</v>
+      </c>
+      <c r="AF63" s="42">
+        <v>34.526000000000003</v>
+      </c>
+      <c r="AG63" s="42">
+        <v>37.707000000000001</v>
+      </c>
+      <c r="AH63" s="42">
+        <v>40.838999999999999</v>
+      </c>
+      <c r="AI63" s="42">
+        <v>46.954999999999998</v>
+      </c>
+      <c r="AJ63" s="42">
+        <v>52.874000000000002</v>
+      </c>
+      <c r="AK63" s="42">
+        <v>58.595999999999997</v>
+      </c>
+      <c r="AL63" s="42">
+        <v>64.12</v>
+      </c>
+      <c r="AM63" s="42">
+        <v>69.447000000000003</v>
+      </c>
+      <c r="AN63" s="42"/>
+    </row>
+    <row r="64" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A64" s="40">
+        <v>160</v>
+      </c>
+      <c r="B64" s="42"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="42"/>
+      <c r="J64" s="42"/>
+      <c r="K64" s="42"/>
+      <c r="L64" s="42"/>
+      <c r="M64" s="42">
+        <v>7.7930000000000001</v>
+      </c>
+      <c r="N64" s="42">
+        <v>8.5609999999999999</v>
+      </c>
+      <c r="O64" s="42">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="P64" s="42">
+        <v>10.855</v>
+      </c>
+      <c r="Q64" s="42">
+        <v>11.616</v>
+      </c>
+      <c r="R64" s="42">
+        <v>12.374000000000001</v>
+      </c>
+      <c r="S64" s="42">
+        <v>13.507999999999999</v>
+      </c>
+      <c r="T64" s="42">
+        <v>15.388999999999999</v>
+      </c>
+      <c r="U64" s="42">
+        <v>17.257000000000001</v>
+      </c>
+      <c r="V64" s="42">
+        <v>19.113</v>
+      </c>
+      <c r="W64" s="42">
+        <v>20.956</v>
+      </c>
+      <c r="X64" s="42">
+        <v>22.786999999999999</v>
+      </c>
+      <c r="Y64" s="42">
+        <v>24.606000000000002</v>
+      </c>
+      <c r="Z64" s="42">
+        <v>26.411999999999999</v>
+      </c>
+      <c r="AA64" s="42">
+        <v>28.207000000000001</v>
+      </c>
+      <c r="AB64" s="42">
+        <v>29.988</v>
+      </c>
+      <c r="AC64" s="42">
+        <v>31.757999999999999</v>
+      </c>
+      <c r="AD64" s="42">
+        <v>33.515000000000001</v>
+      </c>
+      <c r="AE64" s="42">
+        <v>35.26</v>
+      </c>
+      <c r="AF64" s="42">
+        <v>36.991999999999997</v>
+      </c>
+      <c r="AG64" s="42">
+        <v>40.42</v>
+      </c>
+      <c r="AH64" s="42">
+        <v>43.798999999999999</v>
+      </c>
+      <c r="AI64" s="42">
+        <v>50.408000000000001</v>
+      </c>
+      <c r="AJ64" s="42">
+        <v>56.82</v>
+      </c>
+      <c r="AK64" s="42">
+        <v>63.034999999999997</v>
+      </c>
+      <c r="AL64" s="42">
+        <v>69.052000000000007</v>
+      </c>
+      <c r="AM64" s="42">
+        <v>74.872</v>
+      </c>
+      <c r="AN64" s="42"/>
+    </row>
+    <row r="65" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A65" s="40">
+        <v>170</v>
+      </c>
+      <c r="B65" s="42"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="42"/>
+      <c r="K65" s="42"/>
+      <c r="L65" s="42"/>
+      <c r="M65" s="42">
+        <v>8.2859999999999996</v>
+      </c>
+      <c r="N65" s="42">
+        <v>9.1039999999999992</v>
+      </c>
+      <c r="O65" s="42">
+        <v>10.327</v>
+      </c>
+      <c r="P65" s="42">
+        <v>11.545999999999999</v>
+      </c>
+      <c r="Q65" s="42">
+        <v>12.355</v>
+      </c>
+      <c r="R65" s="42">
+        <v>13.163</v>
+      </c>
+      <c r="S65" s="42">
+        <v>14.371</v>
+      </c>
+      <c r="T65" s="42">
+        <v>16.375</v>
+      </c>
+      <c r="U65" s="42">
+        <v>18.367000000000001</v>
+      </c>
+      <c r="V65" s="42">
+        <v>20.346</v>
+      </c>
+      <c r="W65" s="42">
+        <v>22.312000000000001</v>
+      </c>
+      <c r="X65" s="42">
+        <v>24.266999999999999</v>
+      </c>
+      <c r="Y65" s="42">
+        <v>26.209</v>
+      </c>
+      <c r="Z65" s="42">
+        <v>28.138999999999999</v>
+      </c>
+      <c r="AA65" s="42">
+        <v>30.056000000000001</v>
+      </c>
+      <c r="AB65" s="42">
+        <v>31.960999999999999</v>
+      </c>
+      <c r="AC65" s="42">
+        <v>33.853999999999999</v>
+      </c>
+      <c r="AD65" s="42">
+        <v>35.732999999999997</v>
+      </c>
+      <c r="AE65" s="42">
+        <v>37.603000000000002</v>
+      </c>
+      <c r="AF65" s="42">
+        <v>39.457999999999998</v>
+      </c>
+      <c r="AG65" s="42">
+        <v>43.133000000000003</v>
+      </c>
+      <c r="AH65" s="42">
+        <v>46.758000000000003</v>
+      </c>
+      <c r="AI65" s="42">
+        <v>53.860999999999997</v>
+      </c>
+      <c r="AJ65" s="42">
+        <v>60.765999999999998</v>
+      </c>
+      <c r="AK65" s="42">
+        <v>67.174000000000007</v>
+      </c>
+      <c r="AL65" s="42">
+        <v>73.983999999999995</v>
+      </c>
+      <c r="AM65" s="42">
+        <v>80.298000000000002</v>
+      </c>
+      <c r="AN65" s="42">
+        <v>86.414000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A66" s="40">
+        <v>180</v>
+      </c>
+      <c r="B66" s="42"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="42"/>
+      <c r="J66" s="42"/>
+      <c r="K66" s="42"/>
+      <c r="L66" s="42"/>
+      <c r="M66" s="42">
+        <v>8.7789999999999999</v>
+      </c>
+      <c r="N66" s="42">
+        <v>9.6470000000000002</v>
+      </c>
+      <c r="O66" s="42">
+        <v>10.944000000000001</v>
+      </c>
+      <c r="P66" s="42">
+        <v>12.236000000000001</v>
+      </c>
+      <c r="Q66" s="42">
+        <v>13.095000000000001</v>
+      </c>
+      <c r="R66" s="42">
+        <v>13.952</v>
+      </c>
+      <c r="S66" s="42">
+        <v>15.234999999999999</v>
+      </c>
+      <c r="T66" s="42">
+        <v>17.361999999999998</v>
+      </c>
+      <c r="U66" s="42">
+        <v>19.475999999999999</v>
+      </c>
+      <c r="V66" s="42">
+        <v>21.579000000000001</v>
+      </c>
+      <c r="W66" s="42">
+        <v>23.669</v>
+      </c>
+      <c r="X66" s="42">
+        <v>25.747</v>
+      </c>
+      <c r="Y66" s="42">
+        <v>27.812000000000001</v>
+      </c>
+      <c r="Z66" s="42">
+        <v>29.864999999999998</v>
+      </c>
+      <c r="AA66" s="42">
+        <v>31.905000000000001</v>
+      </c>
+      <c r="AB66" s="42">
+        <v>33.933999999999997</v>
+      </c>
+      <c r="AC66" s="42">
+        <v>35.950000000000003</v>
+      </c>
+      <c r="AD66" s="42">
+        <v>37.954000000000001</v>
+      </c>
+      <c r="AE66" s="42">
+        <v>39.945</v>
+      </c>
+      <c r="AF66" s="42">
+        <v>41.924999999999997</v>
+      </c>
+      <c r="AG66" s="42">
+        <v>45.845999999999997</v>
+      </c>
+      <c r="AH66" s="42">
+        <v>49.718000000000004</v>
+      </c>
+      <c r="AI66" s="42">
+        <v>57.313000000000002</v>
+      </c>
+      <c r="AJ66" s="42">
+        <v>64.712000000000003</v>
+      </c>
+      <c r="AK66" s="42">
+        <v>74.912999999999997</v>
+      </c>
+      <c r="AL66" s="42">
+        <v>78.917000000000002</v>
+      </c>
+      <c r="AM66" s="42">
+        <v>85.722999999999999</v>
+      </c>
+      <c r="AN66" s="42">
+        <v>92.332999999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A67" s="40">
+        <v>190</v>
+      </c>
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="42"/>
+      <c r="K67" s="42"/>
+      <c r="L67" s="42"/>
+      <c r="M67" s="42"/>
+      <c r="N67" s="42"/>
+      <c r="O67" s="42"/>
+      <c r="P67" s="42">
+        <v>12.927</v>
+      </c>
+      <c r="Q67" s="42">
+        <v>13.835000000000001</v>
+      </c>
+      <c r="R67" s="42">
+        <v>14.742000000000001</v>
+      </c>
+      <c r="S67" s="42">
+        <v>16.097999999999999</v>
+      </c>
+      <c r="T67" s="42">
+        <v>18.347999999999999</v>
+      </c>
+      <c r="U67" s="42">
+        <v>20.585999999999999</v>
+      </c>
+      <c r="V67" s="42">
+        <v>22.812000000000001</v>
+      </c>
+      <c r="W67" s="42">
+        <v>25.024999999999999</v>
+      </c>
+      <c r="X67" s="42">
+        <v>27.225999999999999</v>
+      </c>
+      <c r="Y67" s="42">
+        <v>29.414999999999999</v>
+      </c>
+      <c r="Z67" s="42">
+        <v>31.591000000000001</v>
+      </c>
+      <c r="AA67" s="42">
+        <v>33.755000000000003</v>
+      </c>
+      <c r="AB67" s="42">
+        <v>35.906999999999996</v>
+      </c>
+      <c r="AC67" s="42">
+        <v>38.045999999999999</v>
+      </c>
+      <c r="AD67" s="42">
+        <v>40.173999999999999</v>
+      </c>
+      <c r="AE67" s="42">
+        <v>42.287999999999997</v>
+      </c>
+      <c r="AF67" s="42">
+        <v>44.390999999999998</v>
+      </c>
+      <c r="AG67" s="42">
+        <v>48.558</v>
+      </c>
+      <c r="AH67" s="42">
+        <v>52.677</v>
+      </c>
+      <c r="AI67" s="42">
+        <v>60.765999999999998</v>
+      </c>
+      <c r="AJ67" s="42">
+        <v>68.658000000000001</v>
+      </c>
+      <c r="AK67" s="42">
+        <v>76.352000000000004</v>
+      </c>
+      <c r="AL67" s="42">
+        <v>83.849000000000004</v>
+      </c>
+      <c r="AM67" s="42">
+        <v>91.149000000000001</v>
+      </c>
+      <c r="AN67" s="42">
+        <v>98.251000000000005</v>
+      </c>
+    </row>
+    <row r="68" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A68" s="40">
+        <v>200</v>
+      </c>
+      <c r="B68" s="42"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="42"/>
+      <c r="I68" s="42"/>
+      <c r="J68" s="42"/>
+      <c r="K68" s="42"/>
+      <c r="L68" s="42"/>
+      <c r="M68" s="42"/>
+      <c r="N68" s="42"/>
+      <c r="O68" s="42"/>
+      <c r="P68" s="42"/>
+      <c r="Q68" s="42">
+        <v>14.574999999999999</v>
+      </c>
+      <c r="R68" s="42">
+        <v>15.531000000000001</v>
+      </c>
+      <c r="S68" s="42">
+        <v>16.960999999999999</v>
+      </c>
+      <c r="T68" s="42">
+        <v>19.335000000000001</v>
+      </c>
+      <c r="U68" s="42">
+        <v>21.696000000000002</v>
+      </c>
+      <c r="V68" s="42">
+        <v>24.045000000000002</v>
+      </c>
+      <c r="W68" s="42">
+        <v>26.382000000000001</v>
+      </c>
+      <c r="X68" s="42">
+        <v>28.706</v>
+      </c>
+      <c r="Y68" s="42">
+        <v>31.018000000000001</v>
+      </c>
+      <c r="Z68" s="42">
+        <v>33.317999999999998</v>
+      </c>
+      <c r="AA68" s="42">
+        <v>35.604999999999997</v>
+      </c>
+      <c r="AB68" s="42">
+        <v>37.880000000000003</v>
+      </c>
+      <c r="AC68" s="42">
+        <v>40.143000000000001</v>
+      </c>
+      <c r="AD68" s="42">
+        <v>42.393000000000001</v>
+      </c>
+      <c r="AE68" s="42">
+        <v>44.631</v>
+      </c>
+      <c r="AF68" s="42">
+        <v>46.856999999999999</v>
+      </c>
+      <c r="AG68" s="42">
+        <v>51.271000000000001</v>
+      </c>
+      <c r="AH68" s="42">
+        <v>55.636000000000003</v>
+      </c>
+      <c r="AI68" s="42">
+        <v>64.218000000000004</v>
+      </c>
+      <c r="AJ68" s="42">
+        <v>72.602999999999994</v>
+      </c>
+      <c r="AK68" s="42">
+        <v>80.790999999999997</v>
+      </c>
+      <c r="AL68" s="42">
+        <v>88.781000000000006</v>
+      </c>
+      <c r="AM68" s="42">
+        <v>96.573999999999998</v>
+      </c>
+      <c r="AN68" s="42">
+        <v>104.17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A69" s="40">
+        <v>210</v>
+      </c>
+      <c r="B69" s="42"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="42"/>
+      <c r="K69" s="42"/>
+      <c r="L69" s="42"/>
+      <c r="M69" s="42"/>
+      <c r="N69" s="42"/>
+      <c r="O69" s="42"/>
+      <c r="P69" s="42"/>
+      <c r="Q69" s="42">
+        <v>15.315</v>
+      </c>
+      <c r="R69" s="42">
+        <v>16.32</v>
+      </c>
+      <c r="S69" s="42">
+        <v>17.824000000000002</v>
+      </c>
+      <c r="T69" s="42">
+        <v>20.321000000000002</v>
+      </c>
+      <c r="U69" s="42">
+        <v>22.806000000000001</v>
+      </c>
+      <c r="V69" s="42">
+        <v>25.277999999999999</v>
+      </c>
+      <c r="W69" s="42">
+        <v>27.738</v>
+      </c>
+      <c r="X69" s="42">
+        <v>30.186</v>
+      </c>
+      <c r="Y69" s="42">
+        <v>32.621000000000002</v>
+      </c>
+      <c r="Z69" s="42">
+        <v>35.043999999999997</v>
+      </c>
+      <c r="AA69" s="42">
+        <v>37.454999999999998</v>
+      </c>
+      <c r="AB69" s="42">
+        <v>39.853000000000002</v>
+      </c>
+      <c r="AC69" s="42">
+        <v>42.238999999999997</v>
+      </c>
+      <c r="AD69" s="42">
+        <v>44.613</v>
+      </c>
+      <c r="AE69" s="42">
+        <v>46.973999999999997</v>
+      </c>
+      <c r="AF69" s="42">
+        <v>49.323</v>
+      </c>
+      <c r="AG69" s="42">
+        <v>53.984000000000002</v>
+      </c>
+      <c r="AH69" s="42">
+        <v>58.595999999999997</v>
+      </c>
+      <c r="AI69" s="42">
+        <v>67.671000000000006</v>
+      </c>
+      <c r="AJ69" s="42">
+        <v>76.549000000000007</v>
+      </c>
+      <c r="AK69" s="42">
+        <v>85.23</v>
+      </c>
+      <c r="AL69" s="42">
+        <v>93.713999999999999</v>
+      </c>
+      <c r="AM69" s="42">
+        <v>102</v>
+      </c>
+      <c r="AN69" s="42">
+        <v>110.089</v>
+      </c>
+    </row>
+    <row r="70" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A70" s="40">
+        <v>220</v>
+      </c>
+      <c r="B70" s="42"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="42"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="42"/>
+      <c r="K70" s="42"/>
+      <c r="L70" s="42"/>
+      <c r="M70" s="42"/>
+      <c r="N70" s="42"/>
+      <c r="O70" s="42"/>
+      <c r="P70" s="42"/>
+      <c r="Q70" s="42">
+        <v>16.055</v>
+      </c>
+      <c r="R70" s="42">
+        <v>17.109000000000002</v>
+      </c>
+      <c r="S70" s="42">
+        <v>18.687000000000001</v>
+      </c>
+      <c r="T70" s="42">
+        <v>21.308</v>
+      </c>
+      <c r="U70" s="42">
+        <v>23.914999999999999</v>
+      </c>
+      <c r="V70" s="42">
+        <v>26.510999999999999</v>
+      </c>
+      <c r="W70" s="42">
+        <v>29.094000000000001</v>
+      </c>
+      <c r="X70" s="42">
+        <v>31.664999999999999</v>
+      </c>
+      <c r="Y70" s="42">
+        <v>34.223999999999997</v>
+      </c>
+      <c r="Z70" s="42">
+        <v>36.770000000000003</v>
+      </c>
+      <c r="AA70" s="42">
+        <v>39.304000000000002</v>
+      </c>
+      <c r="AB70" s="42">
+        <v>41.826000000000001</v>
+      </c>
+      <c r="AC70" s="42">
+        <v>44.335000000000001</v>
+      </c>
+      <c r="AD70" s="42">
+        <v>46.832000000000001</v>
+      </c>
+      <c r="AE70" s="42">
+        <v>49.317</v>
+      </c>
+      <c r="AF70" s="42">
+        <v>51.789000000000001</v>
+      </c>
+      <c r="AG70" s="42">
+        <v>56.697000000000003</v>
+      </c>
+      <c r="AH70" s="42">
+        <v>61.555</v>
+      </c>
+      <c r="AI70" s="42">
+        <v>71.123999999999995</v>
+      </c>
+      <c r="AJ70" s="42">
+        <v>80.495000000000005</v>
+      </c>
+      <c r="AK70" s="42">
+        <v>89.668999999999997</v>
+      </c>
+      <c r="AL70" s="42">
+        <v>98.646000000000001</v>
+      </c>
+      <c r="AM70" s="42">
+        <v>107.425</v>
+      </c>
+      <c r="AN70" s="42">
+        <v>116.008</v>
+      </c>
+    </row>
+    <row r="71" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A71" s="40">
+        <v>240</v>
+      </c>
+      <c r="B71" s="42"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="42"/>
+      <c r="J71" s="42"/>
+      <c r="K71" s="42"/>
+      <c r="L71" s="42"/>
+      <c r="M71" s="42"/>
+      <c r="N71" s="42"/>
+      <c r="O71" s="42"/>
+      <c r="P71" s="42"/>
+      <c r="Q71" s="42"/>
+      <c r="R71" s="42"/>
+      <c r="S71" s="42"/>
+      <c r="T71" s="42"/>
+      <c r="U71" s="42">
+        <v>26.135000000000002</v>
+      </c>
+      <c r="V71" s="42">
+        <v>28.977</v>
+      </c>
+      <c r="W71" s="42">
+        <v>31.806999999999999</v>
+      </c>
+      <c r="X71" s="42">
+        <v>34.625</v>
+      </c>
+      <c r="Y71" s="42">
+        <v>37.43</v>
+      </c>
+      <c r="Z71" s="42">
+        <v>40.222999999999999</v>
+      </c>
+      <c r="AA71" s="42">
+        <v>43.003</v>
+      </c>
+      <c r="AB71" s="42">
+        <v>45.771999999999998</v>
+      </c>
+      <c r="AC71" s="42">
+        <v>48.527999999999999</v>
+      </c>
+      <c r="AD71" s="42">
+        <v>51.271000000000001</v>
+      </c>
+      <c r="AE71" s="42">
+        <v>54.002000000000002</v>
+      </c>
+      <c r="AF71" s="42">
+        <v>56.720999999999997</v>
+      </c>
+      <c r="AG71" s="42">
+        <v>62.122</v>
+      </c>
+      <c r="AH71" s="42">
+        <v>67.474000000000004</v>
+      </c>
+      <c r="AI71" s="42">
+        <v>78.028999999999996</v>
+      </c>
+      <c r="AJ71" s="42">
+        <v>88.387</v>
+      </c>
+      <c r="AK71" s="42">
+        <v>98.546999999999997</v>
+      </c>
+      <c r="AL71" s="42">
+        <v>108.511</v>
+      </c>
+      <c r="AM71" s="42">
+        <v>118.276</v>
+      </c>
+      <c r="AN71" s="42">
+        <v>127.845</v>
+      </c>
+    </row>
+    <row r="72" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A72" s="41">
+        <v>250</v>
+      </c>
+      <c r="B72" s="44"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="44"/>
+      <c r="E72" s="44"/>
+      <c r="F72" s="44"/>
+      <c r="G72" s="44"/>
+      <c r="H72" s="44"/>
+      <c r="I72" s="44"/>
+      <c r="J72" s="44"/>
+      <c r="K72" s="44"/>
+      <c r="L72" s="44"/>
+      <c r="M72" s="44"/>
+      <c r="N72" s="44"/>
+      <c r="O72" s="44"/>
+      <c r="P72" s="44"/>
+      <c r="Q72" s="44"/>
+      <c r="R72" s="44"/>
+      <c r="S72" s="44"/>
+      <c r="T72" s="44"/>
+      <c r="U72" s="44">
+        <v>27.244</v>
+      </c>
+      <c r="V72" s="44">
+        <v>30.21</v>
+      </c>
+      <c r="W72" s="44">
+        <v>33.164000000000001</v>
+      </c>
+      <c r="X72" s="44">
+        <v>36.103999999999999</v>
+      </c>
+      <c r="Y72" s="44">
+        <v>39.033000000000001</v>
+      </c>
+      <c r="Z72" s="44">
+        <v>41.948999999999998</v>
+      </c>
+      <c r="AA72" s="44">
+        <v>44.853000000000002</v>
+      </c>
+      <c r="AB72" s="44">
+        <v>47.744</v>
+      </c>
+      <c r="AC72" s="44">
+        <v>50.624000000000002</v>
+      </c>
+      <c r="AD72" s="44">
+        <v>53.491</v>
+      </c>
+      <c r="AE72" s="44">
+        <v>56.344999999999999</v>
+      </c>
+      <c r="AF72" s="44">
+        <v>59.188000000000002</v>
+      </c>
+      <c r="AG72" s="44">
+        <v>64.834999999999994</v>
+      </c>
+      <c r="AH72" s="44">
+        <v>70.433000000000007</v>
+      </c>
+      <c r="AI72" s="44">
+        <v>81.480999999999995</v>
+      </c>
+      <c r="AJ72" s="44">
+        <v>92.332999999999998</v>
+      </c>
+      <c r="AK72" s="44">
+        <v>102.986</v>
+      </c>
+      <c r="AL72" s="44">
+        <v>113.443</v>
+      </c>
+      <c r="AM72" s="44">
+        <v>123.702</v>
+      </c>
+      <c r="AN72" s="44">
+        <v>133.76400000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B201D9F-8949-476C-A805-3015DB7316D7}">
   <dimension ref="A1:D190"/>
